--- a/keyboards/handwired/polykybd/split72/keymaps/default/lang/lang_lut.xlsx
+++ b/keyboards/handwired/polykybd/split72/keymaps/default/lang/lang_lut.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2886" uniqueCount="1411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2892" uniqueCount="1417">
   <si>
     <t xml:space="preserve">NAME</t>
   </si>
@@ -3625,6 +3625,24 @@
     <t xml:space="preserve">KC_NONUS_BACKSLASH</t>
   </si>
   <si>
+    <t xml:space="preserve">{letter.hoffset}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{letter.voffset}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{num.hoffset}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{num.voffset}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{sym.hoffset}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{sym.voffset}</t>
+  </si>
+  <si>
     <t xml:space="preserve">lower</t>
   </si>
   <si>
@@ -4285,7 +4303,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -4341,16 +4359,6 @@
       <name val="Ubuntu Mono"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Ubuntu Mono"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -4603,7 +4611,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="171">
+  <cellXfs count="164">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4896,7 +4904,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="15" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5044,10 +5052,6 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="19" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="20" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -5068,11 +5072,31 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="24" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="24" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="20" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="21" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="22" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5080,47 +5104,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="24" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="20" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="21" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="22" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="23" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="15" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="24" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5132,7 +5116,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5149,10 +5133,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="14" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="15" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5216,7 +5196,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="21" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="21" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5224,7 +5204,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="22" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="22" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5232,7 +5212,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5240,7 +5220,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="23" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="23" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5276,11 +5256,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5371,7 +5351,7 @@
       <selection pane="topLeft" activeCell="I31" activeCellId="0" sqref="I31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.2109375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.23828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="39.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="15.74"/>
@@ -28401,14 +28381,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:CC63"/>
+  <dimension ref="A1:CC69"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="BJ2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="BJ1" activeCellId="0" sqref="BJ1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BP12" activeCellId="0" sqref="BP12"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
+      <selection pane="bottomRight" activeCell="T23" activeCellId="0" sqref="T23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -28882,13 +28862,13 @@
         <v>250</v>
       </c>
       <c r="AR4" s="98"/>
-      <c r="AS4" s="110" t="s">
+      <c r="AS4" s="109" t="s">
         <v>70</v>
       </c>
       <c r="AT4" s="99" t="s">
         <v>383</v>
       </c>
-      <c r="AU4" s="111" t="s">
+      <c r="AU4" s="110" t="s">
         <v>339</v>
       </c>
       <c r="AV4" s="99"/>
@@ -28896,7 +28876,7 @@
       <c r="AX4" s="100" t="s">
         <v>383</v>
       </c>
-      <c r="AY4" s="112" t="s">
+      <c r="AY4" s="111" t="s">
         <v>339</v>
       </c>
       <c r="AZ4" s="100"/>
@@ -28904,7 +28884,7 @@
       <c r="BB4" s="101" t="s">
         <v>383</v>
       </c>
-      <c r="BC4" s="113" t="s">
+      <c r="BC4" s="112" t="s">
         <v>339</v>
       </c>
       <c r="BD4" s="101"/>
@@ -28912,7 +28892,7 @@
       <c r="BF4" s="102" t="s">
         <v>383</v>
       </c>
-      <c r="BG4" s="114" t="s">
+      <c r="BG4" s="113" t="s">
         <v>339</v>
       </c>
       <c r="BH4" s="102"/>
@@ -28920,7 +28900,7 @@
       <c r="BJ4" s="103" t="s">
         <v>392</v>
       </c>
-      <c r="BK4" s="115" t="s">
+      <c r="BK4" s="114" t="s">
         <v>348</v>
       </c>
       <c r="BL4" s="103"/>
@@ -28932,7 +28912,7 @@
       <c r="BR4" s="104"/>
       <c r="BS4" s="104"/>
       <c r="BT4" s="104"/>
-      <c r="BU4" s="116" t="s">
+      <c r="BU4" s="115" t="s">
         <v>62</v>
       </c>
       <c r="BV4" s="105"/>
@@ -28941,10 +28921,10 @@
       <c r="BY4" s="105"/>
       <c r="BZ4" s="106"/>
       <c r="CA4" s="106"/>
-      <c r="CB4" s="117" t="s">
+      <c r="CB4" s="116" t="s">
         <v>47</v>
       </c>
-      <c r="CC4" s="117"/>
+      <c r="CC4" s="116"/>
     </row>
     <row r="5" s="107" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="87" t="s">
@@ -29051,7 +29031,7 @@
         <v>316</v>
       </c>
       <c r="BL5" s="103"/>
-      <c r="BM5" s="118" t="s">
+      <c r="BM5" s="114" t="s">
         <v>412</v>
       </c>
       <c r="BN5" s="89"/>
@@ -29063,7 +29043,7 @@
       <c r="BR5" s="104"/>
       <c r="BS5" s="104"/>
       <c r="BT5" s="104"/>
-      <c r="BU5" s="119" t="s">
+      <c r="BU5" s="104" t="s">
         <v>1027</v>
       </c>
       <c r="BV5" s="105"/>
@@ -29162,7 +29142,7 @@
       <c r="AT6" s="99" t="s">
         <v>385</v>
       </c>
-      <c r="AU6" s="111" t="s">
+      <c r="AU6" s="110" t="s">
         <v>341</v>
       </c>
       <c r="AV6" s="99"/>
@@ -29170,7 +29150,7 @@
       <c r="AX6" s="100" t="s">
         <v>385</v>
       </c>
-      <c r="AY6" s="112" t="s">
+      <c r="AY6" s="111" t="s">
         <v>341</v>
       </c>
       <c r="AZ6" s="100"/>
@@ -29178,7 +29158,7 @@
       <c r="BB6" s="101" t="s">
         <v>385</v>
       </c>
-      <c r="BC6" s="113" t="s">
+      <c r="BC6" s="112" t="s">
         <v>341</v>
       </c>
       <c r="BD6" s="101"/>
@@ -29186,7 +29166,7 @@
       <c r="BF6" s="102" t="s">
         <v>385</v>
       </c>
-      <c r="BG6" s="114" t="s">
+      <c r="BG6" s="113" t="s">
         <v>341</v>
       </c>
       <c r="BH6" s="102"/>
@@ -29194,11 +29174,11 @@
       <c r="BJ6" s="103" t="s">
         <v>365</v>
       </c>
-      <c r="BK6" s="115" t="s">
+      <c r="BK6" s="114" t="s">
         <v>321</v>
       </c>
       <c r="BL6" s="103"/>
-      <c r="BM6" s="118" t="s">
+      <c r="BM6" s="114" t="s">
         <v>413</v>
       </c>
       <c r="BN6" s="89"/>
@@ -29533,7 +29513,7 @@
       <c r="AT9" s="99" t="s">
         <v>382</v>
       </c>
-      <c r="AU9" s="111" t="s">
+      <c r="AU9" s="110" t="s">
         <v>338</v>
       </c>
       <c r="AV9" s="99"/>
@@ -29541,7 +29521,7 @@
       <c r="AX9" s="100" t="s">
         <v>382</v>
       </c>
-      <c r="AY9" s="112" t="s">
+      <c r="AY9" s="111" t="s">
         <v>338</v>
       </c>
       <c r="AZ9" s="100"/>
@@ -29549,7 +29529,7 @@
       <c r="BB9" s="101" t="s">
         <v>382</v>
       </c>
-      <c r="BC9" s="113" t="s">
+      <c r="BC9" s="112" t="s">
         <v>338</v>
       </c>
       <c r="BD9" s="101"/>
@@ -29557,7 +29537,7 @@
       <c r="BF9" s="102" t="s">
         <v>382</v>
       </c>
-      <c r="BG9" s="114" t="s">
+      <c r="BG9" s="113" t="s">
         <v>338</v>
       </c>
       <c r="BH9" s="102"/>
@@ -29565,7 +29545,7 @@
       <c r="BJ9" s="103" t="s">
         <v>363</v>
       </c>
-      <c r="BK9" s="115" t="s">
+      <c r="BK9" s="114" t="s">
         <v>319</v>
       </c>
       <c r="BL9" s="103"/>
@@ -29785,7 +29765,7 @@
       <c r="AT11" s="99" t="s">
         <v>378</v>
       </c>
-      <c r="AU11" s="111" t="s">
+      <c r="AU11" s="110" t="s">
         <v>334</v>
       </c>
       <c r="AV11" s="99"/>
@@ -29793,7 +29773,7 @@
       <c r="AX11" s="100" t="s">
         <v>378</v>
       </c>
-      <c r="AY11" s="112" t="s">
+      <c r="AY11" s="111" t="s">
         <v>334</v>
       </c>
       <c r="AZ11" s="100"/>
@@ -29801,7 +29781,7 @@
       <c r="BB11" s="101" t="s">
         <v>378</v>
       </c>
-      <c r="BC11" s="113" t="s">
+      <c r="BC11" s="112" t="s">
         <v>334</v>
       </c>
       <c r="BD11" s="101"/>
@@ -29809,7 +29789,7 @@
       <c r="BF11" s="102" t="s">
         <v>378</v>
       </c>
-      <c r="BG11" s="114" t="s">
+      <c r="BG11" s="113" t="s">
         <v>334</v>
       </c>
       <c r="BH11" s="102"/>
@@ -29817,7 +29797,7 @@
       <c r="BJ11" s="103" t="s">
         <v>384</v>
       </c>
-      <c r="BK11" s="115" t="s">
+      <c r="BK11" s="114" t="s">
         <v>340</v>
       </c>
       <c r="BL11" s="103"/>
@@ -29908,7 +29888,7 @@
       <c r="AT12" s="99" t="s">
         <v>372</v>
       </c>
-      <c r="AU12" s="111" t="s">
+      <c r="AU12" s="110" t="s">
         <v>328</v>
       </c>
       <c r="AV12" s="99"/>
@@ -29916,7 +29896,7 @@
       <c r="AX12" s="100" t="s">
         <v>372</v>
       </c>
-      <c r="AY12" s="112" t="s">
+      <c r="AY12" s="111" t="s">
         <v>328</v>
       </c>
       <c r="AZ12" s="100"/>
@@ -29924,7 +29904,7 @@
       <c r="BB12" s="101" t="s">
         <v>372</v>
       </c>
-      <c r="BC12" s="113" t="s">
+      <c r="BC12" s="112" t="s">
         <v>328</v>
       </c>
       <c r="BD12" s="101"/>
@@ -29932,7 +29912,7 @@
       <c r="BF12" s="102" t="s">
         <v>372</v>
       </c>
-      <c r="BG12" s="114" t="s">
+      <c r="BG12" s="113" t="s">
         <v>328</v>
       </c>
       <c r="BH12" s="102"/>
@@ -29940,7 +29920,7 @@
       <c r="BJ12" s="103" t="s">
         <v>376</v>
       </c>
-      <c r="BK12" s="115" t="s">
+      <c r="BK12" s="114" t="s">
         <v>332</v>
       </c>
       <c r="BL12" s="103"/>
@@ -30202,7 +30182,7 @@
       <c r="BN14" s="89"/>
       <c r="BO14" s="89"/>
       <c r="BP14" s="89"/>
-      <c r="BQ14" s="120" t="s">
+      <c r="BQ14" s="117" t="s">
         <v>57</v>
       </c>
       <c r="BR14" s="104"/>
@@ -30216,7 +30196,7 @@
       <c r="BZ14" s="106"/>
       <c r="CA14" s="106"/>
       <c r="CB14" s="106"/>
-      <c r="CC14" s="117" t="s">
+      <c r="CC14" s="116" t="s">
         <v>82</v>
       </c>
     </row>
@@ -30289,7 +30269,7 @@
       <c r="AT15" s="99" t="s">
         <v>384</v>
       </c>
-      <c r="AU15" s="111" t="s">
+      <c r="AU15" s="110" t="s">
         <v>340</v>
       </c>
       <c r="AV15" s="99"/>
@@ -30297,7 +30277,7 @@
       <c r="AX15" s="100" t="s">
         <v>384</v>
       </c>
-      <c r="AY15" s="112" t="s">
+      <c r="AY15" s="111" t="s">
         <v>340</v>
       </c>
       <c r="AZ15" s="100"/>
@@ -30305,7 +30285,7 @@
       <c r="BB15" s="101" t="s">
         <v>384</v>
       </c>
-      <c r="BC15" s="113" t="s">
+      <c r="BC15" s="112" t="s">
         <v>340</v>
       </c>
       <c r="BD15" s="101"/>
@@ -30313,7 +30293,7 @@
       <c r="BF15" s="102" t="s">
         <v>384</v>
       </c>
-      <c r="BG15" s="114" t="s">
+      <c r="BG15" s="113" t="s">
         <v>340</v>
       </c>
       <c r="BH15" s="102"/>
@@ -30321,7 +30301,7 @@
       <c r="BJ15" s="103" t="s">
         <v>387</v>
       </c>
-      <c r="BK15" s="115" t="s">
+      <c r="BK15" s="114" t="s">
         <v>343</v>
       </c>
       <c r="BL15" s="103"/>
@@ -30541,7 +30521,7 @@
       <c r="AT17" s="99" t="s">
         <v>367</v>
       </c>
-      <c r="AU17" s="111" t="s">
+      <c r="AU17" s="110" t="s">
         <v>323</v>
       </c>
       <c r="AV17" s="99"/>
@@ -30549,7 +30529,7 @@
       <c r="AX17" s="100" t="s">
         <v>367</v>
       </c>
-      <c r="AY17" s="112" t="s">
+      <c r="AY17" s="111" t="s">
         <v>323</v>
       </c>
       <c r="AZ17" s="100"/>
@@ -30557,7 +30537,7 @@
       <c r="BB17" s="101" t="s">
         <v>367</v>
       </c>
-      <c r="BC17" s="113" t="s">
+      <c r="BC17" s="112" t="s">
         <v>323</v>
       </c>
       <c r="BD17" s="101"/>
@@ -30565,7 +30545,7 @@
       <c r="BF17" s="102" t="s">
         <v>367</v>
       </c>
-      <c r="BG17" s="114" t="s">
+      <c r="BG17" s="113" t="s">
         <v>323</v>
       </c>
       <c r="BH17" s="102"/>
@@ -30573,7 +30553,7 @@
       <c r="BJ17" s="103" t="s">
         <v>367</v>
       </c>
-      <c r="BK17" s="115" t="s">
+      <c r="BK17" s="114" t="s">
         <v>323</v>
       </c>
       <c r="BL17" s="103"/>
@@ -30585,7 +30565,7 @@
       <c r="BR17" s="104"/>
       <c r="BS17" s="104"/>
       <c r="BT17" s="104"/>
-      <c r="BU17" s="116" t="s">
+      <c r="BU17" s="115" t="s">
         <v>57</v>
       </c>
       <c r="BV17" s="105"/>
@@ -30678,7 +30658,7 @@
       <c r="AT18" s="99" t="s">
         <v>369</v>
       </c>
-      <c r="AU18" s="121" t="s">
+      <c r="AU18" s="118" t="s">
         <v>325</v>
       </c>
       <c r="AV18" s="99"/>
@@ -30686,7 +30666,7 @@
       <c r="AX18" s="100" t="s">
         <v>369</v>
       </c>
-      <c r="AY18" s="122" t="s">
+      <c r="AY18" s="119" t="s">
         <v>325</v>
       </c>
       <c r="AZ18" s="100"/>
@@ -30694,7 +30674,7 @@
       <c r="BB18" s="101" t="s">
         <v>369</v>
       </c>
-      <c r="BC18" s="123" t="s">
+      <c r="BC18" s="120" t="s">
         <v>325</v>
       </c>
       <c r="BD18" s="101"/>
@@ -30702,7 +30682,7 @@
       <c r="BF18" s="102" t="s">
         <v>369</v>
       </c>
-      <c r="BG18" s="124" t="s">
+      <c r="BG18" s="121" t="s">
         <v>325</v>
       </c>
       <c r="BH18" s="102"/>
@@ -30710,7 +30690,7 @@
       <c r="BJ18" s="103" t="s">
         <v>1059</v>
       </c>
-      <c r="BK18" s="125" t="s">
+      <c r="BK18" s="122" t="s">
         <v>394</v>
       </c>
       <c r="BL18" s="103"/>
@@ -30803,13 +30783,13 @@
         <v>238</v>
       </c>
       <c r="AR19" s="98"/>
-      <c r="AS19" s="110" t="s">
+      <c r="AS19" s="109" t="s">
         <v>62</v>
       </c>
       <c r="AT19" s="99" t="s">
         <v>370</v>
       </c>
-      <c r="AU19" s="121" t="s">
+      <c r="AU19" s="118" t="s">
         <v>326</v>
       </c>
       <c r="AV19" s="99"/>
@@ -30817,7 +30797,7 @@
       <c r="AX19" s="100" t="s">
         <v>370</v>
       </c>
-      <c r="AY19" s="122" t="s">
+      <c r="AY19" s="119" t="s">
         <v>326</v>
       </c>
       <c r="AZ19" s="100"/>
@@ -30825,7 +30805,7 @@
       <c r="BB19" s="101" t="s">
         <v>370</v>
       </c>
-      <c r="BC19" s="123" t="s">
+      <c r="BC19" s="120" t="s">
         <v>326</v>
       </c>
       <c r="BD19" s="101"/>
@@ -30833,7 +30813,7 @@
       <c r="BF19" s="102" t="s">
         <v>370</v>
       </c>
-      <c r="BG19" s="124" t="s">
+      <c r="BG19" s="121" t="s">
         <v>326</v>
       </c>
       <c r="BH19" s="102"/>
@@ -30841,7 +30821,7 @@
       <c r="BJ19" s="103" t="s">
         <v>368</v>
       </c>
-      <c r="BK19" s="125" t="s">
+      <c r="BK19" s="122" t="s">
         <v>324</v>
       </c>
       <c r="BL19" s="103"/>
@@ -30861,7 +30841,7 @@
       <c r="BZ19" s="106"/>
       <c r="CA19" s="106"/>
       <c r="CB19" s="106"/>
-      <c r="CC19" s="126" t="s">
+      <c r="CC19" s="116" t="s">
         <v>84</v>
       </c>
     </row>
@@ -30900,7 +30880,7 @@
       <c r="Z20" s="94"/>
       <c r="AA20" s="94"/>
       <c r="AB20" s="94"/>
-      <c r="AC20" s="127" t="s">
+      <c r="AC20" s="123" t="s">
         <v>135</v>
       </c>
       <c r="AD20" s="95" t="s">
@@ -30932,7 +30912,7 @@
       <c r="AT20" s="99" t="s">
         <v>406</v>
       </c>
-      <c r="AU20" s="121" t="s">
+      <c r="AU20" s="118" t="s">
         <v>308</v>
       </c>
       <c r="AV20" s="99"/>
@@ -30940,7 +30920,7 @@
       <c r="AX20" s="100" t="s">
         <v>394</v>
       </c>
-      <c r="AY20" s="122" t="s">
+      <c r="AY20" s="119" t="s">
         <v>350</v>
       </c>
       <c r="AZ20" s="100"/>
@@ -30948,7 +30928,7 @@
       <c r="BB20" s="101" t="s">
         <v>394</v>
       </c>
-      <c r="BC20" s="123" t="s">
+      <c r="BC20" s="120" t="s">
         <v>350</v>
       </c>
       <c r="BD20" s="101"/>
@@ -30956,7 +30936,7 @@
       <c r="BF20" s="102" t="s">
         <v>394</v>
       </c>
-      <c r="BG20" s="124" t="s">
+      <c r="BG20" s="121" t="s">
         <v>350</v>
       </c>
       <c r="BH20" s="102"/>
@@ -30964,7 +30944,7 @@
       <c r="BJ20" s="103" t="s">
         <v>402</v>
       </c>
-      <c r="BK20" s="125" t="s">
+      <c r="BK20" s="122" t="s">
         <v>358</v>
       </c>
       <c r="BL20" s="103"/>
@@ -30978,7 +30958,7 @@
       <c r="BR20" s="104"/>
       <c r="BS20" s="104"/>
       <c r="BT20" s="104"/>
-      <c r="BU20" s="116" t="s">
+      <c r="BU20" s="115" t="s">
         <v>135</v>
       </c>
       <c r="BV20" s="105"/>
@@ -30988,7 +30968,7 @@
       <c r="BZ20" s="106"/>
       <c r="CA20" s="106"/>
       <c r="CB20" s="106"/>
-      <c r="CC20" s="117" t="s">
+      <c r="CC20" s="116" t="s">
         <v>135</v>
       </c>
     </row>
@@ -31182,7 +31162,7 @@
       <c r="AT22" s="99" t="s">
         <v>363</v>
       </c>
-      <c r="AU22" s="121" t="s">
+      <c r="AU22" s="118" t="s">
         <v>319</v>
       </c>
       <c r="AV22" s="99"/>
@@ -31192,7 +31172,7 @@
       <c r="AX22" s="100" t="s">
         <v>363</v>
       </c>
-      <c r="AY22" s="122" t="s">
+      <c r="AY22" s="119" t="s">
         <v>319</v>
       </c>
       <c r="AZ22" s="100"/>
@@ -31200,7 +31180,7 @@
       <c r="BB22" s="101" t="s">
         <v>363</v>
       </c>
-      <c r="BC22" s="123" t="s">
+      <c r="BC22" s="120" t="s">
         <v>319</v>
       </c>
       <c r="BD22" s="101"/>
@@ -31208,7 +31188,7 @@
       <c r="BF22" s="102" t="s">
         <v>363</v>
       </c>
-      <c r="BG22" s="124" t="s">
+      <c r="BG22" s="121" t="s">
         <v>319</v>
       </c>
       <c r="BH22" s="102"/>
@@ -31216,7 +31196,7 @@
       <c r="BJ22" s="103" t="s">
         <v>370</v>
       </c>
-      <c r="BK22" s="125" t="s">
+      <c r="BK22" s="122" t="s">
         <v>326</v>
       </c>
       <c r="BL22" s="103"/>
@@ -31309,7 +31289,7 @@
       <c r="AT23" s="99" t="s">
         <v>374</v>
       </c>
-      <c r="AU23" s="121" t="s">
+      <c r="AU23" s="118" t="s">
         <v>330</v>
       </c>
       <c r="AV23" s="99"/>
@@ -31317,7 +31297,7 @@
       <c r="AX23" s="100" t="s">
         <v>374</v>
       </c>
-      <c r="AY23" s="122" t="s">
+      <c r="AY23" s="119" t="s">
         <v>330</v>
       </c>
       <c r="AZ23" s="100"/>
@@ -31325,7 +31305,7 @@
       <c r="BB23" s="101" t="s">
         <v>374</v>
       </c>
-      <c r="BC23" s="123" t="s">
+      <c r="BC23" s="120" t="s">
         <v>330</v>
       </c>
       <c r="BD23" s="101"/>
@@ -31333,7 +31313,7 @@
       <c r="BF23" s="102" t="s">
         <v>374</v>
       </c>
-      <c r="BG23" s="124" t="s">
+      <c r="BG23" s="121" t="s">
         <v>330</v>
       </c>
       <c r="BH23" s="102"/>
@@ -31341,7 +31321,7 @@
       <c r="BJ23" s="103" t="s">
         <v>398</v>
       </c>
-      <c r="BK23" s="125" t="s">
+      <c r="BK23" s="122" t="s">
         <v>354</v>
       </c>
       <c r="BL23" s="103"/>
@@ -31442,7 +31422,7 @@
       <c r="AT24" s="99" t="s">
         <v>388</v>
       </c>
-      <c r="AU24" s="121" t="s">
+      <c r="AU24" s="118" t="s">
         <v>344</v>
       </c>
       <c r="AV24" s="99"/>
@@ -31450,7 +31430,7 @@
       <c r="AX24" s="100" t="s">
         <v>388</v>
       </c>
-      <c r="AY24" s="122" t="s">
+      <c r="AY24" s="119" t="s">
         <v>344</v>
       </c>
       <c r="AZ24" s="100"/>
@@ -31458,7 +31438,7 @@
       <c r="BB24" s="101" t="s">
         <v>388</v>
       </c>
-      <c r="BC24" s="123" t="s">
+      <c r="BC24" s="120" t="s">
         <v>344</v>
       </c>
       <c r="BD24" s="101"/>
@@ -31466,7 +31446,7 @@
       <c r="BF24" s="102" t="s">
         <v>388</v>
       </c>
-      <c r="BG24" s="124" t="s">
+      <c r="BG24" s="121" t="s">
         <v>344</v>
       </c>
       <c r="BH24" s="102"/>
@@ -31474,7 +31454,7 @@
       <c r="BJ24" s="103" t="s">
         <v>385</v>
       </c>
-      <c r="BK24" s="125" t="s">
+      <c r="BK24" s="122" t="s">
         <v>341</v>
       </c>
       <c r="BL24" s="103"/>
@@ -31567,7 +31547,7 @@
       <c r="AT25" s="99" t="s">
         <v>389</v>
       </c>
-      <c r="AU25" s="121" t="s">
+      <c r="AU25" s="118" t="s">
         <v>345</v>
       </c>
       <c r="AV25" s="99"/>
@@ -31575,7 +31555,7 @@
       <c r="AX25" s="100" t="s">
         <v>389</v>
       </c>
-      <c r="AY25" s="122" t="s">
+      <c r="AY25" s="119" t="s">
         <v>345</v>
       </c>
       <c r="AZ25" s="100"/>
@@ -31583,7 +31563,7 @@
       <c r="BB25" s="101" t="s">
         <v>389</v>
       </c>
-      <c r="BC25" s="123" t="s">
+      <c r="BC25" s="120" t="s">
         <v>345</v>
       </c>
       <c r="BD25" s="101"/>
@@ -31591,7 +31571,7 @@
       <c r="BF25" s="102" t="s">
         <v>389</v>
       </c>
-      <c r="BG25" s="124" t="s">
+      <c r="BG25" s="121" t="s">
         <v>345</v>
       </c>
       <c r="BH25" s="102"/>
@@ -31599,7 +31579,7 @@
       <c r="BJ25" s="103" t="s">
         <v>369</v>
       </c>
-      <c r="BK25" s="125" t="s">
+      <c r="BK25" s="122" t="s">
         <v>325</v>
       </c>
       <c r="BL25" s="103"/>
@@ -31619,7 +31599,7 @@
       <c r="BZ25" s="106"/>
       <c r="CA25" s="106"/>
       <c r="CB25" s="106"/>
-      <c r="CC25" s="126" t="s">
+      <c r="CC25" s="116" t="s">
         <v>94</v>
       </c>
     </row>
@@ -31692,13 +31672,13 @@
         <v>244</v>
       </c>
       <c r="AR26" s="98"/>
-      <c r="AS26" s="110" t="s">
+      <c r="AS26" s="109" t="s">
         <v>53</v>
       </c>
       <c r="AT26" s="99" t="s">
         <v>376</v>
       </c>
-      <c r="AU26" s="121" t="s">
+      <c r="AU26" s="118" t="s">
         <v>332</v>
       </c>
       <c r="AV26" s="99"/>
@@ -31706,7 +31686,7 @@
       <c r="AX26" s="100" t="s">
         <v>376</v>
       </c>
-      <c r="AY26" s="122" t="s">
+      <c r="AY26" s="119" t="s">
         <v>332</v>
       </c>
       <c r="AZ26" s="100"/>
@@ -31714,7 +31694,7 @@
       <c r="BB26" s="101" t="s">
         <v>376</v>
       </c>
-      <c r="BC26" s="123" t="s">
+      <c r="BC26" s="120" t="s">
         <v>332</v>
       </c>
       <c r="BD26" s="101"/>
@@ -31722,7 +31702,7 @@
       <c r="BF26" s="102" t="s">
         <v>376</v>
       </c>
-      <c r="BG26" s="124" t="s">
+      <c r="BG26" s="121" t="s">
         <v>332</v>
       </c>
       <c r="BH26" s="102"/>
@@ -31730,7 +31710,7 @@
       <c r="BJ26" s="103" t="s">
         <v>391</v>
       </c>
-      <c r="BK26" s="125" t="s">
+      <c r="BK26" s="122" t="s">
         <v>347</v>
       </c>
       <c r="BL26" s="103"/>
@@ -31889,7 +31869,7 @@
       <c r="BZ27" s="106"/>
       <c r="CA27" s="106"/>
       <c r="CB27" s="106"/>
-      <c r="CC27" s="126" t="s">
+      <c r="CC27" s="116" t="s">
         <v>66</v>
       </c>
     </row>
@@ -32070,7 +32050,7 @@
       <c r="CB28" s="106" t="n">
         <v>1</v>
       </c>
-      <c r="CC28" s="126" t="s">
+      <c r="CC28" s="116" t="s">
         <v>90</v>
       </c>
     </row>
@@ -32151,7 +32131,7 @@
       <c r="AB29" s="94" t="n">
         <v>2</v>
       </c>
-      <c r="AC29" s="127" t="s">
+      <c r="AC29" s="123" t="s">
         <v>49</v>
       </c>
       <c r="AD29" s="95"/>
@@ -32581,7 +32561,7 @@
       <c r="AR31" s="98" t="n">
         <v>4</v>
       </c>
-      <c r="AS31" s="110" t="s">
+      <c r="AS31" s="109" t="s">
         <v>49</v>
       </c>
       <c r="AT31" s="99" t="n">
@@ -32635,7 +32615,7 @@
       <c r="BN31" s="89" t="n">
         <v>4</v>
       </c>
-      <c r="BO31" s="128" t="s">
+      <c r="BO31" s="117" t="s">
         <v>51</v>
       </c>
       <c r="BP31" s="89"/>
@@ -32645,7 +32625,7 @@
       <c r="BR31" s="104" t="n">
         <v>4</v>
       </c>
-      <c r="BS31" s="129" t="s">
+      <c r="BS31" s="115" t="s">
         <v>1121</v>
       </c>
       <c r="BT31" s="104" t="s">
@@ -32655,19 +32635,19 @@
         <v>190</v>
       </c>
       <c r="BV31" s="105"/>
-      <c r="BW31" s="130"/>
+      <c r="BW31" s="124"/>
       <c r="BX31" s="105"/>
       <c r="BY31" s="105"/>
-      <c r="BZ31" s="131" t="s">
+      <c r="BZ31" s="125" t="s">
         <v>1124</v>
       </c>
-      <c r="CA31" s="131" t="s">
+      <c r="CA31" s="125" t="s">
         <v>1121</v>
       </c>
-      <c r="CB31" s="131" t="s">
+      <c r="CB31" s="125" t="s">
         <v>1124</v>
       </c>
-      <c r="CC31" s="132" t="s">
+      <c r="CC31" s="126" t="s">
         <v>96</v>
       </c>
     </row>
@@ -32740,7 +32720,7 @@
       <c r="AB32" s="94" t="n">
         <v>5</v>
       </c>
-      <c r="AC32" s="127" t="s">
+      <c r="AC32" s="123" t="s">
         <v>98</v>
       </c>
       <c r="AD32" s="95"/>
@@ -32776,7 +32756,7 @@
       <c r="AR32" s="98" t="n">
         <v>5</v>
       </c>
-      <c r="AS32" s="110" t="s">
+      <c r="AS32" s="109" t="s">
         <v>57</v>
       </c>
       <c r="AT32" s="99" t="n">
@@ -32853,16 +32833,16 @@
       <c r="BW32" s="105"/>
       <c r="BX32" s="105"/>
       <c r="BY32" s="105"/>
-      <c r="BZ32" s="131" t="s">
+      <c r="BZ32" s="125" t="s">
         <v>1128</v>
       </c>
-      <c r="CA32" s="131" t="s">
+      <c r="CA32" s="125" t="s">
         <v>1126</v>
       </c>
-      <c r="CB32" s="131" t="s">
+      <c r="CB32" s="125" t="s">
         <v>1128</v>
       </c>
-      <c r="CC32" s="131" t="s">
+      <c r="CC32" s="125" t="s">
         <v>98</v>
       </c>
     </row>
@@ -32973,7 +32953,7 @@
       <c r="AR33" s="98" t="n">
         <v>6</v>
       </c>
-      <c r="AS33" s="110" t="s">
+      <c r="AS33" s="109" t="s">
         <v>84</v>
       </c>
       <c r="AT33" s="99" t="n">
@@ -33033,7 +33013,7 @@
         <v>1110</v>
       </c>
       <c r="BP33" s="89"/>
-      <c r="BQ33" s="128" t="s">
+      <c r="BQ33" s="117" t="s">
         <v>196</v>
       </c>
       <c r="BR33" s="104" t="n">
@@ -33043,7 +33023,7 @@
         <v>1118</v>
       </c>
       <c r="BT33" s="104"/>
-      <c r="BU33" s="129" t="s">
+      <c r="BU33" s="115" t="s">
         <v>196</v>
       </c>
       <c r="BV33" s="105"/>
@@ -33059,7 +33039,7 @@
       <c r="CB33" s="106" t="n">
         <v>6</v>
       </c>
-      <c r="CC33" s="117" t="s">
+      <c r="CC33" s="116" t="s">
         <v>100</v>
       </c>
     </row>
@@ -33258,7 +33238,7 @@
       <c r="CB34" s="106" t="n">
         <v>7</v>
       </c>
-      <c r="CC34" s="117" t="s">
+      <c r="CC34" s="116" t="s">
         <v>49</v>
       </c>
     </row>
@@ -33431,7 +33411,7 @@
         <v>1127</v>
       </c>
       <c r="BP35" s="89"/>
-      <c r="BQ35" s="128" t="s">
+      <c r="BQ35" s="117" t="s">
         <v>192</v>
       </c>
       <c r="BR35" s="104" t="n">
@@ -33441,7 +33421,7 @@
         <v>1136</v>
       </c>
       <c r="BT35" s="104"/>
-      <c r="BU35" s="129" t="s">
+      <c r="BU35" s="115" t="s">
         <v>192</v>
       </c>
       <c r="BV35" s="105"/>
@@ -33485,14 +33465,14 @@
       <c r="I36" s="89" t="s">
         <v>1026</v>
       </c>
-      <c r="J36" s="133" t="s">
+      <c r="J36" s="127" t="s">
         <v>143</v>
       </c>
       <c r="K36" s="90" t="n">
         <v>9</v>
       </c>
-      <c r="L36" s="133"/>
-      <c r="M36" s="133" t="s">
+      <c r="L36" s="127"/>
+      <c r="M36" s="127" t="s">
         <v>1118</v>
       </c>
       <c r="N36" s="91" t="n">
@@ -33630,7 +33610,7 @@
         <v>1138</v>
       </c>
       <c r="BP36" s="89"/>
-      <c r="BQ36" s="128" t="s">
+      <c r="BQ36" s="117" t="s">
         <v>80</v>
       </c>
       <c r="BR36" s="104" t="n">
@@ -33640,7 +33620,7 @@
         <v>1127</v>
       </c>
       <c r="BT36" s="104"/>
-      <c r="BU36" s="129" t="s">
+      <c r="BU36" s="115" t="s">
         <v>80</v>
       </c>
       <c r="BV36" s="105"/>
@@ -33684,14 +33664,14 @@
       <c r="I37" s="89" t="s">
         <v>1064</v>
       </c>
-      <c r="J37" s="133" t="s">
+      <c r="J37" s="127" t="s">
         <v>137</v>
       </c>
       <c r="K37" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="L37" s="133"/>
-      <c r="M37" s="133" t="s">
+      <c r="L37" s="127"/>
+      <c r="M37" s="127" t="s">
         <v>1072</v>
       </c>
       <c r="N37" s="91" t="s">
@@ -33829,7 +33809,7 @@
         <v>14</v>
       </c>
       <c r="BP37" s="89"/>
-      <c r="BQ37" s="128" t="s">
+      <c r="BQ37" s="117" t="s">
         <v>200</v>
       </c>
       <c r="BR37" s="104" t="s">
@@ -33839,7 +33819,7 @@
         <v>1138</v>
       </c>
       <c r="BT37" s="104"/>
-      <c r="BU37" s="129" t="s">
+      <c r="BU37" s="115" t="s">
         <v>200</v>
       </c>
       <c r="BV37" s="105"/>
@@ -33861,7 +33841,7 @@
       <c r="A38" s="87" t="s">
         <v>1141</v>
       </c>
-      <c r="B38" s="134" t="s">
+      <c r="B38" s="128" t="s">
         <v>613</v>
       </c>
       <c r="C38" s="88"/>
@@ -34122,7 +34102,7 @@
       <c r="A41" s="87" t="s">
         <v>1145</v>
       </c>
-      <c r="B41" s="134" t="s">
+      <c r="B41" s="128" t="s">
         <v>607</v>
       </c>
       <c r="C41" s="88"/>
@@ -34321,7 +34301,7 @@
       <c r="J43" s="90" t="s">
         <v>1138</v>
       </c>
-      <c r="K43" s="133" t="s">
+      <c r="K43" s="127" t="s">
         <v>72</v>
       </c>
       <c r="L43" s="90"/>
@@ -34439,7 +34419,7 @@
       <c r="BP43" s="89" t="s">
         <v>1119</v>
       </c>
-      <c r="BQ43" s="128" t="s">
+      <c r="BQ43" s="117" t="s">
         <v>59</v>
       </c>
       <c r="BR43" s="104" t="s">
@@ -34451,7 +34431,7 @@
       <c r="BT43" s="104" t="s">
         <v>1130</v>
       </c>
-      <c r="BU43" s="129" t="s">
+      <c r="BU43" s="115" t="s">
         <v>1148</v>
       </c>
       <c r="BV43" s="105"/>
@@ -34515,35 +34495,35 @@
         <v>45</v>
       </c>
       <c r="Q44" s="91"/>
-      <c r="R44" s="135" t="s">
+      <c r="R44" s="129" t="s">
         <v>66</v>
       </c>
-      <c r="S44" s="135" t="s">
+      <c r="S44" s="129" t="s">
         <v>94</v>
       </c>
-      <c r="T44" s="135" t="s">
+      <c r="T44" s="129" t="s">
         <v>66</v>
       </c>
-      <c r="U44" s="135"/>
-      <c r="V44" s="136" t="s">
+      <c r="U44" s="129"/>
+      <c r="V44" s="130" t="s">
         <v>149</v>
       </c>
-      <c r="W44" s="136" t="s">
+      <c r="W44" s="130" t="s">
         <v>151</v>
       </c>
-      <c r="X44" s="136" t="s">
+      <c r="X44" s="130" t="s">
         <v>114</v>
       </c>
       <c r="Y44" s="93" t="s">
         <v>153</v>
       </c>
-      <c r="Z44" s="137" t="s">
+      <c r="Z44" s="123" t="s">
         <v>1130</v>
       </c>
-      <c r="AA44" s="137" t="s">
+      <c r="AA44" s="123" t="s">
         <v>1134</v>
       </c>
-      <c r="AB44" s="137" t="s">
+      <c r="AB44" s="123" t="s">
         <v>1130</v>
       </c>
       <c r="AC44" s="94" t="s">
@@ -34572,7 +34552,7 @@
       <c r="AR44" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="AS44" s="110" t="s">
+      <c r="AS44" s="109" t="s">
         <v>98</v>
       </c>
       <c r="AT44" s="99" t="s">
@@ -34632,7 +34612,7 @@
       <c r="BP44" s="89" t="s">
         <v>1114</v>
       </c>
-      <c r="BQ44" s="128" t="s">
+      <c r="BQ44" s="117" t="s">
         <v>88</v>
       </c>
       <c r="BR44" s="104" t="s">
@@ -34651,13 +34631,13 @@
       <c r="BW44" s="105"/>
       <c r="BX44" s="105"/>
       <c r="BY44" s="105"/>
-      <c r="BZ44" s="117" t="s">
+      <c r="BZ44" s="116" t="s">
         <v>72</v>
       </c>
       <c r="CA44" s="106" t="s">
         <v>1107</v>
       </c>
-      <c r="CB44" s="117" t="s">
+      <c r="CB44" s="116" t="s">
         <v>72</v>
       </c>
       <c r="CC44" s="106" t="s">
@@ -34689,7 +34669,7 @@
       <c r="J45" s="90" t="s">
         <v>1118</v>
       </c>
-      <c r="K45" s="133" t="s">
+      <c r="K45" s="127" t="s">
         <v>59</v>
       </c>
       <c r="L45" s="90"/>
@@ -34715,7 +34695,7 @@
       <c r="T45" s="92" t="s">
         <v>1119</v>
       </c>
-      <c r="U45" s="135" t="s">
+      <c r="U45" s="129" t="s">
         <v>59</v>
       </c>
       <c r="V45" s="93" t="s">
@@ -34727,17 +34707,17 @@
       <c r="X45" s="93" t="s">
         <v>110</v>
       </c>
-      <c r="Y45" s="136" t="s">
+      <c r="Y45" s="130" t="s">
         <v>1035</v>
       </c>
-      <c r="Z45" s="137" t="s">
+      <c r="Z45" s="123" t="s">
         <v>173</v>
       </c>
       <c r="AA45" s="94" t="s">
         <v>171</v>
       </c>
       <c r="AB45" s="94"/>
-      <c r="AC45" s="137" t="s">
+      <c r="AC45" s="123" t="s">
         <v>1153</v>
       </c>
       <c r="AD45" s="95"/>
@@ -34823,7 +34803,7 @@
       <c r="BP45" s="89" t="s">
         <v>1154</v>
       </c>
-      <c r="BQ45" s="128" t="s">
+      <c r="BQ45" s="117" t="s">
         <v>163</v>
       </c>
       <c r="BR45" s="104" t="s">
@@ -34842,16 +34822,16 @@
       <c r="BW45" s="105"/>
       <c r="BX45" s="105"/>
       <c r="BY45" s="105"/>
-      <c r="BZ45" s="117" t="s">
+      <c r="BZ45" s="116" t="s">
         <v>59</v>
       </c>
       <c r="CA45" s="106" t="s">
         <v>1118</v>
       </c>
-      <c r="CB45" s="117" t="s">
+      <c r="CB45" s="116" t="s">
         <v>59</v>
       </c>
-      <c r="CC45" s="126"/>
+      <c r="CC45" s="116"/>
     </row>
     <row r="46" s="107" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="87" t="s">
@@ -34883,8 +34863,8 @@
       <c r="K46" s="90" t="s">
         <v>49</v>
       </c>
-      <c r="L46" s="133"/>
-      <c r="M46" s="133" t="s">
+      <c r="L46" s="127"/>
+      <c r="M46" s="127" t="s">
         <v>51</v>
       </c>
       <c r="N46" s="91" t="s">
@@ -34899,37 +34879,37 @@
       <c r="Q46" s="91" t="s">
         <v>1026</v>
       </c>
-      <c r="R46" s="135" t="s">
+      <c r="R46" s="129" t="s">
         <v>80</v>
       </c>
       <c r="S46" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="T46" s="135" t="s">
+      <c r="T46" s="129" t="s">
         <v>80</v>
       </c>
-      <c r="U46" s="135" t="s">
+      <c r="U46" s="129" t="s">
         <v>1026</v>
       </c>
-      <c r="V46" s="136" t="s">
+      <c r="V46" s="130" t="s">
         <v>1119</v>
       </c>
-      <c r="W46" s="136" t="s">
+      <c r="W46" s="130" t="s">
         <v>1136</v>
       </c>
-      <c r="X46" s="136" t="s">
+      <c r="X46" s="130" t="s">
         <v>1119</v>
       </c>
       <c r="Y46" s="93" t="s">
         <v>1026</v>
       </c>
-      <c r="Z46" s="137" t="s">
+      <c r="Z46" s="123" t="s">
         <v>169</v>
       </c>
-      <c r="AA46" s="137" t="s">
+      <c r="AA46" s="123" t="s">
         <v>133</v>
       </c>
-      <c r="AB46" s="137"/>
+      <c r="AB46" s="123"/>
       <c r="AC46" s="94" t="s">
         <v>1107</v>
       </c>
@@ -35012,25 +34992,25 @@
         <v>1161</v>
       </c>
       <c r="BP46" s="89"/>
-      <c r="BQ46" s="128" t="s">
+      <c r="BQ46" s="117" t="s">
         <v>127</v>
       </c>
-      <c r="BR46" s="129" t="s">
+      <c r="BR46" s="115" t="s">
         <v>153</v>
       </c>
-      <c r="BS46" s="129" t="s">
+      <c r="BS46" s="115" t="s">
         <v>117</v>
       </c>
-      <c r="BT46" s="129" t="s">
+      <c r="BT46" s="115" t="s">
         <v>117</v>
       </c>
       <c r="BU46" s="104" t="s">
         <v>1162</v>
       </c>
-      <c r="BV46" s="130"/>
-      <c r="BW46" s="130"/>
-      <c r="BX46" s="130"/>
-      <c r="BY46" s="130"/>
+      <c r="BV46" s="124"/>
+      <c r="BW46" s="124"/>
+      <c r="BX46" s="124"/>
+      <c r="BY46" s="124"/>
       <c r="BZ46" s="106" t="s">
         <v>1136</v>
       </c>
@@ -35149,7 +35129,7 @@
       <c r="AT47" s="99" t="s">
         <v>16</v>
       </c>
-      <c r="AU47" s="121" t="s">
+      <c r="AU47" s="118" t="s">
         <v>1054</v>
       </c>
       <c r="AV47" s="99"/>
@@ -35157,7 +35137,7 @@
       <c r="AX47" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="AY47" s="122" t="s">
+      <c r="AY47" s="119" t="s">
         <v>1054</v>
       </c>
       <c r="AZ47" s="100"/>
@@ -35165,7 +35145,7 @@
       <c r="BB47" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="BC47" s="123" t="s">
+      <c r="BC47" s="120" t="s">
         <v>1054</v>
       </c>
       <c r="BD47" s="101"/>
@@ -35173,7 +35153,7 @@
       <c r="BF47" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="BG47" s="124" t="s">
+      <c r="BG47" s="121" t="s">
         <v>1054</v>
       </c>
       <c r="BH47" s="102"/>
@@ -35181,41 +35161,41 @@
       <c r="BJ47" s="103" t="s">
         <v>1165</v>
       </c>
-      <c r="BK47" s="125" t="s">
+      <c r="BK47" s="122" t="s">
         <v>1166</v>
       </c>
       <c r="BL47" s="103" t="s">
         <v>1165</v>
       </c>
       <c r="BM47" s="103"/>
-      <c r="BN47" s="128" t="s">
+      <c r="BN47" s="117" t="s">
         <v>159</v>
       </c>
       <c r="BO47" s="89" t="s">
         <v>1167</v>
       </c>
-      <c r="BP47" s="128" t="s">
+      <c r="BP47" s="117" t="s">
         <v>159</v>
       </c>
       <c r="BQ47" s="89" t="s">
         <v>1167</v>
       </c>
-      <c r="BR47" s="129" t="s">
+      <c r="BR47" s="115" t="s">
         <v>1168</v>
       </c>
-      <c r="BS47" s="129" t="s">
+      <c r="BS47" s="115" t="s">
         <v>1169</v>
       </c>
-      <c r="BT47" s="129" t="s">
+      <c r="BT47" s="115" t="s">
         <v>1169</v>
       </c>
-      <c r="BU47" s="129" t="s">
+      <c r="BU47" s="115" t="s">
         <v>1170</v>
       </c>
-      <c r="BV47" s="130"/>
-      <c r="BW47" s="130"/>
-      <c r="BX47" s="130"/>
-      <c r="BY47" s="130"/>
+      <c r="BV47" s="124"/>
+      <c r="BW47" s="124"/>
+      <c r="BX47" s="124"/>
+      <c r="BY47" s="124"/>
       <c r="BZ47" s="106" t="s">
         <v>1171</v>
       </c>
@@ -35371,7 +35351,7 @@
       <c r="V49" s="93" t="s">
         <v>157</v>
       </c>
-      <c r="W49" s="136" t="s">
+      <c r="W49" s="130" t="s">
         <v>143</v>
       </c>
       <c r="X49" s="93" t="s">
@@ -35380,10 +35360,10 @@
       <c r="Y49" s="93" t="s">
         <v>1072</v>
       </c>
-      <c r="Z49" s="137" t="s">
+      <c r="Z49" s="123" t="s">
         <v>181</v>
       </c>
-      <c r="AA49" s="137" t="s">
+      <c r="AA49" s="123" t="s">
         <v>179</v>
       </c>
       <c r="AB49" s="94"/>
@@ -35425,7 +35405,7 @@
       <c r="AT49" s="99" t="s">
         <v>366</v>
       </c>
-      <c r="AU49" s="121" t="s">
+      <c r="AU49" s="118" t="s">
         <v>322</v>
       </c>
       <c r="AV49" s="99"/>
@@ -35433,7 +35413,7 @@
       <c r="AX49" s="100" t="s">
         <v>366</v>
       </c>
-      <c r="AY49" s="122" t="s">
+      <c r="AY49" s="119" t="s">
         <v>322</v>
       </c>
       <c r="AZ49" s="100"/>
@@ -35441,7 +35421,7 @@
       <c r="BB49" s="101" t="s">
         <v>366</v>
       </c>
-      <c r="BC49" s="123" t="s">
+      <c r="BC49" s="120" t="s">
         <v>322</v>
       </c>
       <c r="BD49" s="101"/>
@@ -35449,7 +35429,7 @@
       <c r="BF49" s="102" t="s">
         <v>366</v>
       </c>
-      <c r="BG49" s="124" t="s">
+      <c r="BG49" s="121" t="s">
         <v>322</v>
       </c>
       <c r="BH49" s="102"/>
@@ -35457,7 +35437,7 @@
       <c r="BJ49" s="103" t="s">
         <v>374</v>
       </c>
-      <c r="BK49" s="125" t="s">
+      <c r="BK49" s="122" t="s">
         <v>330</v>
       </c>
       <c r="BL49" s="103"/>
@@ -35539,20 +35519,20 @@
       <c r="Q50" s="91" t="s">
         <v>1019</v>
       </c>
-      <c r="R50" s="135" t="s">
+      <c r="R50" s="129" t="s">
         <v>92</v>
       </c>
-      <c r="S50" s="135" t="s">
+      <c r="S50" s="129" t="s">
         <v>64</v>
       </c>
-      <c r="T50" s="135" t="s">
+      <c r="T50" s="129" t="s">
         <v>92</v>
       </c>
-      <c r="U50" s="135"/>
+      <c r="U50" s="129"/>
       <c r="V50" s="93" t="s">
         <v>137</v>
       </c>
-      <c r="W50" s="136" t="s">
+      <c r="W50" s="130" t="s">
         <v>159</v>
       </c>
       <c r="X50" s="93" t="s">
@@ -35602,7 +35582,7 @@
       <c r="AT50" s="99" t="s">
         <v>405</v>
       </c>
-      <c r="AU50" s="121" t="s">
+      <c r="AU50" s="118" t="s">
         <v>306</v>
       </c>
       <c r="AV50" s="99"/>
@@ -35610,7 +35590,7 @@
       <c r="AX50" s="100" t="s">
         <v>398</v>
       </c>
-      <c r="AY50" s="122" t="s">
+      <c r="AY50" s="119" t="s">
         <v>354</v>
       </c>
       <c r="AZ50" s="100"/>
@@ -35618,7 +35598,7 @@
       <c r="BB50" s="101" t="s">
         <v>398</v>
       </c>
-      <c r="BC50" s="123" t="s">
+      <c r="BC50" s="120" t="s">
         <v>354</v>
       </c>
       <c r="BD50" s="101"/>
@@ -35626,7 +35606,7 @@
       <c r="BF50" s="102" t="s">
         <v>398</v>
       </c>
-      <c r="BG50" s="124" t="s">
+      <c r="BG50" s="121" t="s">
         <v>354</v>
       </c>
       <c r="BH50" s="102"/>
@@ -35634,7 +35614,7 @@
       <c r="BJ50" s="103" t="s">
         <v>389</v>
       </c>
-      <c r="BK50" s="125" t="s">
+      <c r="BK50" s="122" t="s">
         <v>345</v>
       </c>
       <c r="BL50" s="103"/>
@@ -35648,7 +35628,7 @@
       <c r="BP50" s="89" t="s">
         <v>1179</v>
       </c>
-      <c r="BQ50" s="120" t="s">
+      <c r="BQ50" s="117" t="s">
         <v>135</v>
       </c>
       <c r="BR50" s="104" t="s">
@@ -35712,45 +35692,45 @@
         <v>1186</v>
       </c>
       <c r="M51" s="90"/>
-      <c r="N51" s="138" t="s">
+      <c r="N51" s="131" t="s">
         <v>92</v>
       </c>
-      <c r="O51" s="138" t="s">
+      <c r="O51" s="131" t="s">
         <v>64</v>
       </c>
-      <c r="P51" s="138" t="s">
+      <c r="P51" s="131" t="s">
         <v>92</v>
       </c>
-      <c r="Q51" s="138" t="s">
+      <c r="Q51" s="131" t="s">
         <v>16</v>
       </c>
-      <c r="R51" s="135" t="s">
+      <c r="R51" s="129" t="s">
         <v>16</v>
       </c>
-      <c r="S51" s="135" t="s">
+      <c r="S51" s="129" t="s">
         <v>1111</v>
       </c>
-      <c r="T51" s="135" t="s">
+      <c r="T51" s="129" t="s">
         <v>16</v>
       </c>
-      <c r="U51" s="135"/>
-      <c r="V51" s="136" t="s">
+      <c r="U51" s="129"/>
+      <c r="V51" s="130" t="s">
         <v>16</v>
       </c>
-      <c r="W51" s="136" t="s">
+      <c r="W51" s="130" t="s">
         <v>1111</v>
       </c>
-      <c r="X51" s="136" t="s">
+      <c r="X51" s="130" t="s">
         <v>16</v>
       </c>
-      <c r="Y51" s="136"/>
-      <c r="Z51" s="137" t="s">
+      <c r="Y51" s="130"/>
+      <c r="Z51" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="AA51" s="137" t="s">
+      <c r="AA51" s="123" t="s">
         <v>112</v>
       </c>
-      <c r="AB51" s="137"/>
+      <c r="AB51" s="123"/>
       <c r="AC51" s="94" t="s">
         <v>1171</v>
       </c>
@@ -35787,7 +35767,7 @@
       <c r="AT51" s="99" t="s">
         <v>18</v>
       </c>
-      <c r="AU51" s="121" t="s">
+      <c r="AU51" s="118" t="s">
         <v>580</v>
       </c>
       <c r="AV51" s="99"/>
@@ -35795,7 +35775,7 @@
       <c r="AX51" s="100" t="s">
         <v>404</v>
       </c>
-      <c r="AY51" s="122" t="s">
+      <c r="AY51" s="119" t="s">
         <v>304</v>
       </c>
       <c r="AZ51" s="100"/>
@@ -35803,7 +35783,7 @@
       <c r="BB51" s="101" t="s">
         <v>404</v>
       </c>
-      <c r="BC51" s="123" t="s">
+      <c r="BC51" s="120" t="s">
         <v>304</v>
       </c>
       <c r="BD51" s="101"/>
@@ -35811,7 +35791,7 @@
       <c r="BF51" s="102" t="s">
         <v>1127</v>
       </c>
-      <c r="BG51" s="124" t="s">
+      <c r="BG51" s="121" t="s">
         <v>1138</v>
       </c>
       <c r="BH51" s="102" t="s">
@@ -35821,41 +35801,41 @@
       <c r="BJ51" s="103" t="s">
         <v>1127</v>
       </c>
-      <c r="BK51" s="125" t="s">
+      <c r="BK51" s="122" t="s">
         <v>1138</v>
       </c>
       <c r="BL51" s="103" t="s">
         <v>1127</v>
       </c>
       <c r="BM51" s="103"/>
-      <c r="BN51" s="128" t="s">
+      <c r="BN51" s="117" t="s">
         <v>196</v>
       </c>
-      <c r="BO51" s="128" t="s">
+      <c r="BO51" s="117" t="s">
         <v>192</v>
       </c>
-      <c r="BP51" s="128" t="s">
+      <c r="BP51" s="117" t="s">
         <v>196</v>
       </c>
-      <c r="BQ51" s="128" t="s">
+      <c r="BQ51" s="117" t="s">
         <v>192</v>
       </c>
-      <c r="BR51" s="129" t="s">
+      <c r="BR51" s="115" t="s">
         <v>1165</v>
       </c>
-      <c r="BS51" s="129" t="s">
+      <c r="BS51" s="115" t="s">
         <v>1166</v>
       </c>
-      <c r="BT51" s="129" t="s">
+      <c r="BT51" s="115" t="s">
         <v>1165</v>
       </c>
       <c r="BU51" s="104" t="s">
         <v>1187</v>
       </c>
-      <c r="BV51" s="130"/>
-      <c r="BW51" s="130"/>
-      <c r="BX51" s="130"/>
-      <c r="BY51" s="130"/>
+      <c r="BV51" s="124"/>
+      <c r="BW51" s="124"/>
+      <c r="BX51" s="124"/>
+      <c r="BY51" s="124"/>
       <c r="BZ51" s="106" t="s">
         <v>1072</v>
       </c>
@@ -35928,7 +35908,7 @@
       <c r="X52" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="Y52" s="136" t="s">
+      <c r="Y52" s="130" t="s">
         <v>66</v>
       </c>
       <c r="Z52" s="94" t="s">
@@ -36107,7 +36087,7 @@
       <c r="X53" s="93" t="s">
         <v>1132</v>
       </c>
-      <c r="Y53" s="136" t="s">
+      <c r="Y53" s="130" t="s">
         <v>94</v>
       </c>
       <c r="Z53" s="94" t="s">
@@ -36420,1048 +36400,2002 @@
       </c>
       <c r="CC54" s="106"/>
     </row>
-    <row r="55" s="164" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="139" t="s">
+    <row r="55" s="157" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="132" t="s">
         <v>1193</v>
       </c>
-      <c r="B55" s="140" t="s">
+      <c r="B55" s="133" t="s">
         <v>1171</v>
       </c>
-      <c r="C55" s="140" t="s">
+      <c r="C55" s="133" t="s">
         <v>1112</v>
       </c>
-      <c r="D55" s="140" t="s">
+      <c r="D55" s="133" t="s">
         <v>1171</v>
       </c>
-      <c r="E55" s="140"/>
-      <c r="F55" s="141" t="s">
+      <c r="E55" s="133"/>
+      <c r="F55" s="134" t="s">
         <v>1171</v>
       </c>
-      <c r="G55" s="141" t="s">
+      <c r="G55" s="134" t="s">
         <v>1112</v>
       </c>
-      <c r="H55" s="141"/>
-      <c r="I55" s="141" t="s">
+      <c r="H55" s="134"/>
+      <c r="I55" s="134" t="s">
         <v>1111</v>
       </c>
-      <c r="J55" s="142" t="s">
+      <c r="J55" s="135" t="s">
         <v>1171</v>
       </c>
-      <c r="K55" s="142" t="s">
+      <c r="K55" s="135" t="s">
         <v>1112</v>
       </c>
-      <c r="L55" s="142"/>
-      <c r="M55" s="142" t="s">
+      <c r="L55" s="135"/>
+      <c r="M55" s="135" t="s">
         <v>1111</v>
       </c>
-      <c r="N55" s="143"/>
-      <c r="O55" s="143"/>
-      <c r="P55" s="143"/>
-      <c r="Q55" s="143"/>
-      <c r="R55" s="144"/>
-      <c r="S55" s="144"/>
-      <c r="T55" s="144"/>
-      <c r="U55" s="144"/>
-      <c r="V55" s="145"/>
-      <c r="W55" s="145"/>
-      <c r="X55" s="145"/>
-      <c r="Y55" s="145"/>
-      <c r="Z55" s="146"/>
-      <c r="AA55" s="146"/>
-      <c r="AB55" s="146"/>
-      <c r="AC55" s="146"/>
-      <c r="AD55" s="147"/>
-      <c r="AE55" s="147"/>
-      <c r="AF55" s="147"/>
-      <c r="AG55" s="147"/>
-      <c r="AH55" s="148"/>
-      <c r="AI55" s="148"/>
-      <c r="AJ55" s="148"/>
-      <c r="AK55" s="148"/>
-      <c r="AL55" s="149" t="s">
+      <c r="N55" s="136"/>
+      <c r="O55" s="136"/>
+      <c r="P55" s="136"/>
+      <c r="Q55" s="136"/>
+      <c r="R55" s="137"/>
+      <c r="S55" s="137"/>
+      <c r="T55" s="137"/>
+      <c r="U55" s="137"/>
+      <c r="V55" s="138"/>
+      <c r="W55" s="138"/>
+      <c r="X55" s="138"/>
+      <c r="Y55" s="138"/>
+      <c r="Z55" s="139"/>
+      <c r="AA55" s="139"/>
+      <c r="AB55" s="139"/>
+      <c r="AC55" s="139"/>
+      <c r="AD55" s="140"/>
+      <c r="AE55" s="140"/>
+      <c r="AF55" s="140"/>
+      <c r="AG55" s="140"/>
+      <c r="AH55" s="141"/>
+      <c r="AI55" s="141"/>
+      <c r="AJ55" s="141"/>
+      <c r="AK55" s="141"/>
+      <c r="AL55" s="142" t="s">
         <v>16</v>
       </c>
-      <c r="AM55" s="149" t="s">
+      <c r="AM55" s="142" t="s">
         <v>1111</v>
       </c>
-      <c r="AN55" s="149" t="s">
+      <c r="AN55" s="142" t="s">
         <v>16</v>
       </c>
-      <c r="AO55" s="149"/>
-      <c r="AP55" s="150"/>
-      <c r="AQ55" s="150"/>
-      <c r="AR55" s="150"/>
-      <c r="AS55" s="150"/>
-      <c r="AT55" s="151" t="s">
+      <c r="AO55" s="142"/>
+      <c r="AP55" s="143"/>
+      <c r="AQ55" s="143"/>
+      <c r="AR55" s="143"/>
+      <c r="AS55" s="143"/>
+      <c r="AT55" s="144" t="s">
         <v>416</v>
       </c>
-      <c r="AU55" s="151" t="s">
+      <c r="AU55" s="144" t="s">
         <v>415</v>
       </c>
-      <c r="AV55" s="151"/>
-      <c r="AW55" s="151"/>
-      <c r="AX55" s="152" t="s">
+      <c r="AV55" s="144"/>
+      <c r="AW55" s="144"/>
+      <c r="AX55" s="145" t="s">
         <v>16</v>
       </c>
-      <c r="AY55" s="153" t="s">
+      <c r="AY55" s="146" t="s">
         <v>1054</v>
       </c>
-      <c r="AZ55" s="152"/>
-      <c r="BA55" s="152"/>
-      <c r="BB55" s="154" t="s">
+      <c r="AZ55" s="145"/>
+      <c r="BA55" s="145"/>
+      <c r="BB55" s="147" t="s">
         <v>16</v>
       </c>
-      <c r="BC55" s="155" t="s">
+      <c r="BC55" s="148" t="s">
         <v>1054</v>
       </c>
-      <c r="BD55" s="154"/>
-      <c r="BE55" s="154"/>
-      <c r="BF55" s="156" t="s">
+      <c r="BD55" s="147"/>
+      <c r="BE55" s="147"/>
+      <c r="BF55" s="149" t="s">
         <v>16</v>
       </c>
-      <c r="BG55" s="157" t="s">
+      <c r="BG55" s="150" t="s">
         <v>1111</v>
       </c>
-      <c r="BH55" s="156"/>
-      <c r="BI55" s="156"/>
-      <c r="BJ55" s="158" t="s">
+      <c r="BH55" s="149"/>
+      <c r="BI55" s="149"/>
+      <c r="BJ55" s="151" t="s">
         <v>408</v>
       </c>
-      <c r="BK55" s="159" t="s">
+      <c r="BK55" s="152" t="s">
         <v>312</v>
       </c>
-      <c r="BL55" s="158"/>
-      <c r="BM55" s="158"/>
-      <c r="BN55" s="141"/>
-      <c r="BO55" s="141"/>
-      <c r="BP55" s="141"/>
-      <c r="BQ55" s="141"/>
-      <c r="BR55" s="160" t="s">
+      <c r="BL55" s="151"/>
+      <c r="BM55" s="151"/>
+      <c r="BN55" s="134"/>
+      <c r="BO55" s="134"/>
+      <c r="BP55" s="134"/>
+      <c r="BQ55" s="134"/>
+      <c r="BR55" s="153" t="s">
         <v>16</v>
       </c>
-      <c r="BS55" s="160" t="s">
+      <c r="BS55" s="153" t="s">
         <v>1111</v>
       </c>
-      <c r="BT55" s="160" t="s">
+      <c r="BT55" s="153" t="s">
         <v>16</v>
       </c>
-      <c r="BU55" s="160"/>
-      <c r="BV55" s="161"/>
-      <c r="BW55" s="161"/>
-      <c r="BX55" s="161"/>
-      <c r="BY55" s="161"/>
-      <c r="BZ55" s="162" t="s">
+      <c r="BU55" s="153"/>
+      <c r="BV55" s="154"/>
+      <c r="BW55" s="154"/>
+      <c r="BX55" s="154"/>
+      <c r="BY55" s="154"/>
+      <c r="BZ55" s="155" t="s">
         <v>1026</v>
       </c>
-      <c r="CA55" s="162" t="s">
+      <c r="CA55" s="155" t="s">
         <v>1035</v>
       </c>
-      <c r="CB55" s="162" t="s">
+      <c r="CB55" s="155" t="s">
         <v>1026</v>
       </c>
-      <c r="CC55" s="163" t="s">
+      <c r="CC55" s="156" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="165"/>
-      <c r="B56" s="165" t="s">
+    <row r="56" s="157" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="132" t="s">
         <v>1194</v>
       </c>
-      <c r="C56" s="165" t="s">
+      <c r="B56" s="133"/>
+      <c r="C56" s="133" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D56" s="133"/>
+      <c r="E56" s="133"/>
+      <c r="F56" s="134"/>
+      <c r="G56" s="134" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H56" s="134"/>
+      <c r="I56" s="134" t="n">
+        <v>52</v>
+      </c>
+      <c r="J56" s="135"/>
+      <c r="K56" s="135" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L56" s="135"/>
+      <c r="M56" s="135" t="n">
+        <v>50</v>
+      </c>
+      <c r="N56" s="136"/>
+      <c r="O56" s="136" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P56" s="136"/>
+      <c r="Q56" s="136" t="n">
+        <v>50</v>
+      </c>
+      <c r="R56" s="137"/>
+      <c r="S56" s="137" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T56" s="137"/>
+      <c r="U56" s="137" t="n">
+        <v>50</v>
+      </c>
+      <c r="V56" s="138"/>
+      <c r="W56" s="138" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X56" s="138"/>
+      <c r="Y56" s="138" t="n">
+        <v>50</v>
+      </c>
+      <c r="Z56" s="139"/>
+      <c r="AA56" s="139" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB56" s="139"/>
+      <c r="AC56" s="139" t="n">
+        <v>50</v>
+      </c>
+      <c r="AD56" s="140"/>
+      <c r="AE56" s="140" t="n">
+        <v>35</v>
+      </c>
+      <c r="AF56" s="140"/>
+      <c r="AG56" s="140"/>
+      <c r="AH56" s="141"/>
+      <c r="AI56" s="141" t="n">
+        <v>35</v>
+      </c>
+      <c r="AJ56" s="141"/>
+      <c r="AK56" s="141"/>
+      <c r="AL56" s="142"/>
+      <c r="AM56" s="142" t="n">
+        <v>38</v>
+      </c>
+      <c r="AN56" s="142"/>
+      <c r="AO56" s="142" t="n">
+        <v>52</v>
+      </c>
+      <c r="AP56" s="143"/>
+      <c r="AQ56" s="143" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AR56" s="143"/>
+      <c r="AS56" s="143" t="n">
+        <v>50</v>
+      </c>
+      <c r="AT56" s="144"/>
+      <c r="AU56" s="144" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AV56" s="144"/>
+      <c r="AW56" s="144" t="n">
+        <v>50</v>
+      </c>
+      <c r="AX56" s="145"/>
+      <c r="AY56" s="146" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AZ56" s="145"/>
+      <c r="BA56" s="145" t="n">
+        <v>50</v>
+      </c>
+      <c r="BB56" s="147"/>
+      <c r="BC56" s="148" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BD56" s="147"/>
+      <c r="BE56" s="147" t="n">
+        <v>50</v>
+      </c>
+      <c r="BF56" s="149"/>
+      <c r="BG56" s="150" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH56" s="149"/>
+      <c r="BI56" s="149" t="n">
+        <v>50</v>
+      </c>
+      <c r="BJ56" s="151"/>
+      <c r="BK56" s="152" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BL56" s="151"/>
+      <c r="BM56" s="151" t="n">
+        <v>50</v>
+      </c>
+      <c r="BN56" s="134"/>
+      <c r="BO56" s="134" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BP56" s="134"/>
+      <c r="BQ56" s="134" t="n">
+        <v>50</v>
+      </c>
+      <c r="BR56" s="153"/>
+      <c r="BS56" s="153" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BT56" s="153"/>
+      <c r="BU56" s="153" t="n">
+        <v>50</v>
+      </c>
+      <c r="BV56" s="154"/>
+      <c r="BW56" s="154" t="n">
+        <v>30</v>
+      </c>
+      <c r="BX56" s="154"/>
+      <c r="BY56" s="154" t="n">
+        <v>50</v>
+      </c>
+      <c r="BZ56" s="155"/>
+      <c r="CA56" s="155" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CB56" s="155"/>
+      <c r="CC56" s="156" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" s="157" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="132" t="s">
         <v>1195</v>
       </c>
-      <c r="D56" s="165" t="s">
+      <c r="B57" s="133"/>
+      <c r="C57" s="133" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D57" s="133"/>
+      <c r="E57" s="133"/>
+      <c r="F57" s="134"/>
+      <c r="G57" s="134" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H57" s="134"/>
+      <c r="I57" s="134" t="n">
+        <v>14</v>
+      </c>
+      <c r="J57" s="135"/>
+      <c r="K57" s="135" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L57" s="135"/>
+      <c r="M57" s="135" t="n">
+        <v>15</v>
+      </c>
+      <c r="N57" s="136"/>
+      <c r="O57" s="136" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P57" s="136"/>
+      <c r="Q57" s="136" t="n">
+        <v>15</v>
+      </c>
+      <c r="R57" s="137"/>
+      <c r="S57" s="137" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T57" s="137"/>
+      <c r="U57" s="137" t="n">
+        <v>15</v>
+      </c>
+      <c r="V57" s="138"/>
+      <c r="W57" s="138" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X57" s="138"/>
+      <c r="Y57" s="138" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z57" s="139"/>
+      <c r="AA57" s="139" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB57" s="139"/>
+      <c r="AC57" s="139" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD57" s="140"/>
+      <c r="AE57" s="140" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF57" s="140"/>
+      <c r="AG57" s="140"/>
+      <c r="AH57" s="141"/>
+      <c r="AI57" s="141" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ57" s="141"/>
+      <c r="AK57" s="141"/>
+      <c r="AL57" s="142"/>
+      <c r="AM57" s="142" t="n">
+        <v>13</v>
+      </c>
+      <c r="AN57" s="142"/>
+      <c r="AO57" s="142" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP57" s="143"/>
+      <c r="AQ57" s="143" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AR57" s="143"/>
+      <c r="AS57" s="143" t="n">
+        <v>15</v>
+      </c>
+      <c r="AT57" s="144"/>
+      <c r="AU57" s="144" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AV57" s="144"/>
+      <c r="AW57" s="144" t="n">
+        <v>15</v>
+      </c>
+      <c r="AX57" s="145"/>
+      <c r="AY57" s="146" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AZ57" s="145"/>
+      <c r="BA57" s="145" t="n">
+        <v>15</v>
+      </c>
+      <c r="BB57" s="147"/>
+      <c r="BC57" s="148" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BD57" s="147"/>
+      <c r="BE57" s="147" t="n">
+        <v>15</v>
+      </c>
+      <c r="BF57" s="149"/>
+      <c r="BG57" s="150" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH57" s="149"/>
+      <c r="BI57" s="149" t="n">
+        <v>15</v>
+      </c>
+      <c r="BJ57" s="151"/>
+      <c r="BK57" s="152" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BL57" s="151"/>
+      <c r="BM57" s="151" t="n">
+        <v>15</v>
+      </c>
+      <c r="BN57" s="134"/>
+      <c r="BO57" s="134" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BP57" s="134"/>
+      <c r="BQ57" s="134" t="n">
+        <v>15</v>
+      </c>
+      <c r="BR57" s="153"/>
+      <c r="BS57" s="153" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BT57" s="153"/>
+      <c r="BU57" s="153" t="n">
+        <v>15</v>
+      </c>
+      <c r="BV57" s="154"/>
+      <c r="BW57" s="154" t="n">
+        <v>15</v>
+      </c>
+      <c r="BX57" s="154"/>
+      <c r="BY57" s="154" t="n">
+        <v>15</v>
+      </c>
+      <c r="BZ57" s="155"/>
+      <c r="CA57" s="155" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CB57" s="155"/>
+      <c r="CC57" s="156" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" s="157" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="132" t="s">
         <v>1196</v>
       </c>
-      <c r="E56" s="165" t="s">
+      <c r="B58" s="133"/>
+      <c r="C58" s="133" t="n">
+        <v>35</v>
+      </c>
+      <c r="D58" s="133"/>
+      <c r="E58" s="133"/>
+      <c r="F58" s="134"/>
+      <c r="G58" s="134" t="n">
+        <v>30</v>
+      </c>
+      <c r="H58" s="134"/>
+      <c r="I58" s="134" t="n">
+        <v>52</v>
+      </c>
+      <c r="J58" s="135"/>
+      <c r="K58" s="135" t="n">
+        <v>30</v>
+      </c>
+      <c r="L58" s="135"/>
+      <c r="M58" s="135" t="n">
+        <v>50</v>
+      </c>
+      <c r="N58" s="136"/>
+      <c r="O58" s="136" t="n">
+        <v>30</v>
+      </c>
+      <c r="P58" s="136"/>
+      <c r="Q58" s="136" t="n">
+        <v>50</v>
+      </c>
+      <c r="R58" s="137"/>
+      <c r="S58" s="137" t="n">
+        <v>30</v>
+      </c>
+      <c r="T58" s="137"/>
+      <c r="U58" s="137" t="n">
+        <v>50</v>
+      </c>
+      <c r="V58" s="138"/>
+      <c r="W58" s="138" t="n">
+        <v>30</v>
+      </c>
+      <c r="X58" s="138"/>
+      <c r="Y58" s="138" t="n">
+        <v>50</v>
+      </c>
+      <c r="Z58" s="139"/>
+      <c r="AA58" s="139" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB58" s="139"/>
+      <c r="AC58" s="139" t="n">
+        <v>50</v>
+      </c>
+      <c r="AD58" s="140"/>
+      <c r="AE58" s="140" t="n">
+        <v>35</v>
+      </c>
+      <c r="AF58" s="140"/>
+      <c r="AG58" s="140"/>
+      <c r="AH58" s="141"/>
+      <c r="AI58" s="141" t="n">
+        <v>35</v>
+      </c>
+      <c r="AJ58" s="141"/>
+      <c r="AK58" s="141"/>
+      <c r="AL58" s="142"/>
+      <c r="AM58" s="142" t="n">
+        <v>30</v>
+      </c>
+      <c r="AN58" s="142"/>
+      <c r="AO58" s="142" t="n">
+        <v>52</v>
+      </c>
+      <c r="AP58" s="143"/>
+      <c r="AQ58" s="143" t="n">
+        <v>30</v>
+      </c>
+      <c r="AR58" s="143"/>
+      <c r="AS58" s="143" t="n">
+        <v>50</v>
+      </c>
+      <c r="AT58" s="144"/>
+      <c r="AU58" s="144" t="n">
+        <v>30</v>
+      </c>
+      <c r="AV58" s="144"/>
+      <c r="AW58" s="144" t="n">
+        <v>50</v>
+      </c>
+      <c r="AX58" s="145"/>
+      <c r="AY58" s="146" t="n">
+        <v>30</v>
+      </c>
+      <c r="AZ58" s="145"/>
+      <c r="BA58" s="145" t="n">
+        <v>50</v>
+      </c>
+      <c r="BB58" s="147"/>
+      <c r="BC58" s="148" t="n">
+        <v>30</v>
+      </c>
+      <c r="BD58" s="147"/>
+      <c r="BE58" s="147" t="n">
+        <v>50</v>
+      </c>
+      <c r="BF58" s="149"/>
+      <c r="BG58" s="150" t="n">
+        <v>30</v>
+      </c>
+      <c r="BH58" s="149"/>
+      <c r="BI58" s="149" t="n">
+        <v>50</v>
+      </c>
+      <c r="BJ58" s="151"/>
+      <c r="BK58" s="152" t="n">
+        <v>30</v>
+      </c>
+      <c r="BL58" s="151"/>
+      <c r="BM58" s="151" t="n">
+        <v>50</v>
+      </c>
+      <c r="BN58" s="134"/>
+      <c r="BO58" s="134" t="n">
+        <v>30</v>
+      </c>
+      <c r="BP58" s="134"/>
+      <c r="BQ58" s="134" t="n">
+        <v>50</v>
+      </c>
+      <c r="BR58" s="153"/>
+      <c r="BS58" s="153" t="n">
+        <v>30</v>
+      </c>
+      <c r="BT58" s="153"/>
+      <c r="BU58" s="153" t="n">
+        <v>50</v>
+      </c>
+      <c r="BV58" s="154"/>
+      <c r="BW58" s="154" t="n">
+        <v>30</v>
+      </c>
+      <c r="BX58" s="154"/>
+      <c r="BY58" s="154" t="n">
+        <v>50</v>
+      </c>
+      <c r="BZ58" s="155"/>
+      <c r="CA58" s="155" t="n">
+        <v>20</v>
+      </c>
+      <c r="CB58" s="155"/>
+      <c r="CC58" s="156" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" s="157" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="132" t="s">
         <v>1197</v>
       </c>
-      <c r="F56" s="165" t="s">
-        <v>1194</v>
-      </c>
-      <c r="G56" s="165" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H56" s="165" t="s">
-        <v>1196</v>
-      </c>
-      <c r="I56" s="165" t="s">
-        <v>1197</v>
-      </c>
-      <c r="J56" s="165" t="s">
-        <v>1194</v>
-      </c>
-      <c r="K56" s="165" t="s">
-        <v>1195</v>
-      </c>
-      <c r="L56" s="165" t="s">
-        <v>1196</v>
-      </c>
-      <c r="M56" s="165" t="s">
-        <v>1197</v>
-      </c>
-      <c r="N56" s="165" t="s">
-        <v>1194</v>
-      </c>
-      <c r="O56" s="165" t="s">
-        <v>1195</v>
-      </c>
-      <c r="P56" s="165" t="s">
-        <v>1196</v>
-      </c>
-      <c r="Q56" s="165" t="s">
-        <v>1197</v>
-      </c>
-      <c r="R56" s="165" t="s">
-        <v>1194</v>
-      </c>
-      <c r="S56" s="165" t="s">
-        <v>1195</v>
-      </c>
-      <c r="T56" s="165" t="s">
-        <v>1196</v>
-      </c>
-      <c r="U56" s="165" t="s">
-        <v>1197</v>
-      </c>
-      <c r="V56" s="165" t="s">
-        <v>1194</v>
-      </c>
-      <c r="W56" s="165" t="s">
-        <v>1195</v>
-      </c>
-      <c r="X56" s="165" t="s">
-        <v>1196</v>
-      </c>
-      <c r="Y56" s="165" t="s">
-        <v>1197</v>
-      </c>
-      <c r="Z56" s="165" t="s">
-        <v>1194</v>
-      </c>
-      <c r="AA56" s="165" t="s">
-        <v>1195</v>
-      </c>
-      <c r="AB56" s="165" t="s">
-        <v>1196</v>
-      </c>
-      <c r="AC56" s="165" t="s">
-        <v>1197</v>
-      </c>
-      <c r="AD56" s="165" t="s">
-        <v>1194</v>
-      </c>
-      <c r="AE56" s="165" t="s">
-        <v>1195</v>
-      </c>
-      <c r="AF56" s="165" t="s">
-        <v>1196</v>
-      </c>
-      <c r="AG56" s="165" t="s">
-        <v>1197</v>
-      </c>
-      <c r="AH56" s="165" t="s">
-        <v>1194</v>
-      </c>
-      <c r="AI56" s="165" t="s">
-        <v>1195</v>
-      </c>
-      <c r="AJ56" s="165" t="s">
-        <v>1196</v>
-      </c>
-      <c r="AK56" s="165" t="s">
-        <v>1197</v>
-      </c>
-      <c r="AL56" s="165" t="s">
-        <v>1194</v>
-      </c>
-      <c r="AM56" s="165" t="s">
-        <v>1195</v>
-      </c>
-      <c r="AN56" s="165" t="s">
-        <v>1196</v>
-      </c>
-      <c r="AO56" s="165" t="s">
-        <v>1197</v>
-      </c>
-      <c r="AP56" s="165" t="s">
-        <v>1194</v>
-      </c>
-      <c r="AQ56" s="165" t="s">
-        <v>1195</v>
-      </c>
-      <c r="AR56" s="165" t="s">
-        <v>1196</v>
-      </c>
-      <c r="AS56" s="165" t="s">
-        <v>1197</v>
-      </c>
-      <c r="AT56" s="165" t="s">
-        <v>1194</v>
-      </c>
-      <c r="AU56" s="165" t="s">
-        <v>1195</v>
-      </c>
-      <c r="AV56" s="165" t="s">
-        <v>1196</v>
-      </c>
-      <c r="AW56" s="165" t="s">
-        <v>1197</v>
-      </c>
-      <c r="AX56" s="165" t="s">
-        <v>1194</v>
-      </c>
-      <c r="AY56" s="165" t="s">
-        <v>1195</v>
-      </c>
-      <c r="AZ56" s="165" t="s">
-        <v>1196</v>
-      </c>
-      <c r="BA56" s="165" t="s">
-        <v>1197</v>
-      </c>
-      <c r="BB56" s="165" t="s">
-        <v>1194</v>
-      </c>
-      <c r="BC56" s="165" t="s">
-        <v>1195</v>
-      </c>
-      <c r="BD56" s="165" t="s">
-        <v>1196</v>
-      </c>
-      <c r="BE56" s="165" t="s">
-        <v>1197</v>
-      </c>
-      <c r="BF56" s="165" t="s">
-        <v>1194</v>
-      </c>
-      <c r="BG56" s="165" t="s">
-        <v>1195</v>
-      </c>
-      <c r="BH56" s="165" t="s">
-        <v>1196</v>
-      </c>
-      <c r="BI56" s="165" t="s">
-        <v>1197</v>
-      </c>
-      <c r="BJ56" s="165" t="s">
-        <v>1194</v>
-      </c>
-      <c r="BK56" s="165" t="s">
-        <v>1195</v>
-      </c>
-      <c r="BL56" s="165" t="s">
-        <v>1196</v>
-      </c>
-      <c r="BM56" s="165" t="s">
-        <v>1197</v>
-      </c>
-      <c r="BN56" s="165" t="s">
-        <v>1194</v>
-      </c>
-      <c r="BO56" s="165" t="s">
-        <v>1195</v>
-      </c>
-      <c r="BP56" s="165" t="s">
-        <v>1196</v>
-      </c>
-      <c r="BQ56" s="165" t="s">
-        <v>1197</v>
-      </c>
-      <c r="BR56" s="165" t="s">
-        <v>1194</v>
-      </c>
-      <c r="BS56" s="165" t="s">
-        <v>1195</v>
-      </c>
-      <c r="BT56" s="165" t="s">
-        <v>1196</v>
-      </c>
-      <c r="BU56" s="165" t="s">
-        <v>1197</v>
-      </c>
-      <c r="BV56" s="165" t="s">
-        <v>1194</v>
-      </c>
-      <c r="BW56" s="165" t="s">
-        <v>1195</v>
-      </c>
-      <c r="BX56" s="165" t="s">
-        <v>1196</v>
-      </c>
-      <c r="BY56" s="165"/>
-      <c r="BZ56" s="165" t="s">
-        <v>1194</v>
-      </c>
-      <c r="CA56" s="165" t="s">
-        <v>1195</v>
-      </c>
-      <c r="CB56" s="165" t="s">
-        <v>1196</v>
-      </c>
-      <c r="CC56" s="165"/>
-    </row>
-    <row r="57" customFormat="false" ht="34.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="165"/>
-      <c r="B57" s="165"/>
-      <c r="C57" s="165"/>
-      <c r="D57" s="166" t="s">
+      <c r="B59" s="133"/>
+      <c r="C59" s="133" t="n">
+        <v>15</v>
+      </c>
+      <c r="D59" s="133"/>
+      <c r="E59" s="133"/>
+      <c r="F59" s="134"/>
+      <c r="G59" s="134" t="n">
+        <v>14</v>
+      </c>
+      <c r="H59" s="134"/>
+      <c r="I59" s="134" t="n">
+        <v>14</v>
+      </c>
+      <c r="J59" s="135"/>
+      <c r="K59" s="135" t="n">
+        <v>15</v>
+      </c>
+      <c r="L59" s="135"/>
+      <c r="M59" s="135" t="n">
+        <v>15</v>
+      </c>
+      <c r="N59" s="136"/>
+      <c r="O59" s="136" t="n">
+        <v>15</v>
+      </c>
+      <c r="P59" s="136"/>
+      <c r="Q59" s="136" t="n">
+        <v>15</v>
+      </c>
+      <c r="R59" s="137"/>
+      <c r="S59" s="137" t="n">
+        <v>15</v>
+      </c>
+      <c r="T59" s="137"/>
+      <c r="U59" s="137" t="n">
+        <v>15</v>
+      </c>
+      <c r="V59" s="138"/>
+      <c r="W59" s="138" t="n">
+        <v>15</v>
+      </c>
+      <c r="X59" s="138"/>
+      <c r="Y59" s="138" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z59" s="139"/>
+      <c r="AA59" s="139" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB59" s="139"/>
+      <c r="AC59" s="139" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD59" s="140"/>
+      <c r="AE59" s="140" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF59" s="140"/>
+      <c r="AG59" s="140"/>
+      <c r="AH59" s="141"/>
+      <c r="AI59" s="141" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ59" s="141"/>
+      <c r="AK59" s="141"/>
+      <c r="AL59" s="142"/>
+      <c r="AM59" s="142" t="n">
+        <v>13</v>
+      </c>
+      <c r="AN59" s="142"/>
+      <c r="AO59" s="142" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP59" s="143"/>
+      <c r="AQ59" s="143" t="n">
+        <v>15</v>
+      </c>
+      <c r="AR59" s="143"/>
+      <c r="AS59" s="143" t="n">
+        <v>15</v>
+      </c>
+      <c r="AT59" s="144"/>
+      <c r="AU59" s="144" t="n">
+        <v>15</v>
+      </c>
+      <c r="AV59" s="144"/>
+      <c r="AW59" s="144" t="n">
+        <v>15</v>
+      </c>
+      <c r="AX59" s="145"/>
+      <c r="AY59" s="146" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ59" s="145"/>
+      <c r="BA59" s="145" t="n">
+        <v>15</v>
+      </c>
+      <c r="BB59" s="147"/>
+      <c r="BC59" s="148" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD59" s="147"/>
+      <c r="BE59" s="147" t="n">
+        <v>15</v>
+      </c>
+      <c r="BF59" s="149"/>
+      <c r="BG59" s="150" t="n">
+        <v>15</v>
+      </c>
+      <c r="BH59" s="149"/>
+      <c r="BI59" s="149" t="n">
+        <v>15</v>
+      </c>
+      <c r="BJ59" s="151"/>
+      <c r="BK59" s="152" t="n">
+        <v>15</v>
+      </c>
+      <c r="BL59" s="151"/>
+      <c r="BM59" s="151" t="n">
+        <v>15</v>
+      </c>
+      <c r="BN59" s="134"/>
+      <c r="BO59" s="134" t="n">
+        <v>15</v>
+      </c>
+      <c r="BP59" s="134"/>
+      <c r="BQ59" s="134" t="n">
+        <v>15</v>
+      </c>
+      <c r="BR59" s="153"/>
+      <c r="BS59" s="153" t="n">
+        <v>15</v>
+      </c>
+      <c r="BT59" s="153"/>
+      <c r="BU59" s="153" t="n">
+        <v>15</v>
+      </c>
+      <c r="BV59" s="154"/>
+      <c r="BW59" s="154" t="n">
+        <v>15</v>
+      </c>
+      <c r="BX59" s="154"/>
+      <c r="BY59" s="154" t="n">
+        <v>15</v>
+      </c>
+      <c r="BZ59" s="155"/>
+      <c r="CA59" s="155" t="n">
+        <v>15</v>
+      </c>
+      <c r="CB59" s="155"/>
+      <c r="CC59" s="156" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" s="157" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="132" t="s">
         <v>1198</v>
       </c>
-      <c r="E57" s="166"/>
-      <c r="F57" s="165"/>
-      <c r="G57" s="165"/>
-      <c r="H57" s="166" t="s">
-        <v>1198</v>
-      </c>
-      <c r="I57" s="166"/>
-      <c r="J57" s="165"/>
-      <c r="K57" s="165"/>
-      <c r="L57" s="166" t="s">
-        <v>1198</v>
-      </c>
-      <c r="M57" s="166"/>
-      <c r="N57" s="165"/>
-      <c r="O57" s="165"/>
-      <c r="P57" s="166" t="s">
-        <v>1198</v>
-      </c>
-      <c r="Q57" s="166"/>
-      <c r="R57" s="165"/>
-      <c r="S57" s="165"/>
-      <c r="T57" s="166" t="s">
-        <v>1198</v>
-      </c>
-      <c r="U57" s="166"/>
-      <c r="V57" s="165"/>
-      <c r="W57" s="165"/>
-      <c r="X57" s="166" t="s">
-        <v>1198</v>
-      </c>
-      <c r="Y57" s="166"/>
-      <c r="Z57" s="165"/>
-      <c r="AA57" s="165"/>
-      <c r="AB57" s="166" t="s">
-        <v>1198</v>
-      </c>
-      <c r="AC57" s="166"/>
-      <c r="AD57" s="165"/>
-      <c r="AE57" s="165"/>
-      <c r="AF57" s="166" t="s">
-        <v>1198</v>
-      </c>
-      <c r="AG57" s="166"/>
-      <c r="AH57" s="165"/>
-      <c r="AI57" s="165"/>
-      <c r="AJ57" s="166" t="s">
-        <v>1198</v>
-      </c>
-      <c r="AK57" s="166"/>
-      <c r="AL57" s="165"/>
-      <c r="AM57" s="165"/>
-      <c r="AN57" s="166" t="s">
-        <v>1198</v>
-      </c>
-      <c r="AO57" s="166"/>
-      <c r="AP57" s="165"/>
-      <c r="AQ57" s="165"/>
-      <c r="AR57" s="166" t="s">
-        <v>1198</v>
-      </c>
-      <c r="AS57" s="166"/>
-      <c r="AT57" s="165"/>
-      <c r="AU57" s="165"/>
-      <c r="AV57" s="166" t="s">
-        <v>1198</v>
-      </c>
-      <c r="AW57" s="166"/>
-      <c r="AX57" s="165"/>
-      <c r="AY57" s="165"/>
-      <c r="AZ57" s="166" t="s">
-        <v>1198</v>
-      </c>
-      <c r="BA57" s="166"/>
-      <c r="BB57" s="165"/>
-      <c r="BC57" s="165"/>
-      <c r="BD57" s="166" t="s">
-        <v>1198</v>
-      </c>
-      <c r="BE57" s="166"/>
-      <c r="BF57" s="165"/>
-      <c r="BG57" s="165"/>
-      <c r="BH57" s="166" t="s">
-        <v>1198</v>
-      </c>
-      <c r="BI57" s="166"/>
-      <c r="BJ57" s="165"/>
-      <c r="BK57" s="165"/>
-      <c r="BL57" s="166" t="s">
-        <v>1198</v>
-      </c>
-      <c r="BM57" s="166"/>
-      <c r="BN57" s="165"/>
-      <c r="BO57" s="165"/>
-      <c r="BP57" s="166" t="s">
-        <v>1198</v>
-      </c>
-      <c r="BQ57" s="166"/>
-      <c r="BR57" s="165"/>
-      <c r="BS57" s="165"/>
-      <c r="BT57" s="166" t="s">
-        <v>1198</v>
-      </c>
-      <c r="BU57" s="166"/>
-      <c r="BV57" s="165"/>
-      <c r="BW57" s="165"/>
-      <c r="BX57" s="166" t="s">
-        <v>1198</v>
-      </c>
-      <c r="BY57" s="166"/>
-      <c r="BZ57" s="165"/>
-      <c r="CA57" s="165"/>
-      <c r="CB57" s="166" t="s">
-        <v>1198</v>
-      </c>
-      <c r="CC57" s="166"/>
-    </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="165"/>
-      <c r="B58" s="165"/>
-      <c r="C58" s="165"/>
-      <c r="D58" s="165"/>
-      <c r="E58" s="165"/>
-      <c r="F58" s="165"/>
-      <c r="G58" s="165"/>
-      <c r="H58" s="165"/>
-      <c r="I58" s="165"/>
-      <c r="J58" s="165"/>
-      <c r="K58" s="165"/>
-      <c r="L58" s="165"/>
-      <c r="M58" s="165"/>
-      <c r="N58" s="165"/>
-      <c r="O58" s="165"/>
-      <c r="P58" s="165"/>
-      <c r="Q58" s="165"/>
-      <c r="R58" s="165"/>
-      <c r="S58" s="165"/>
-      <c r="T58" s="165"/>
-      <c r="U58" s="165"/>
-      <c r="V58" s="165"/>
-      <c r="W58" s="165"/>
-      <c r="X58" s="165"/>
-      <c r="Y58" s="165"/>
-      <c r="Z58" s="165"/>
-      <c r="AA58" s="165"/>
-      <c r="AB58" s="165"/>
-      <c r="AC58" s="165"/>
-      <c r="AD58" s="165"/>
-      <c r="AE58" s="165"/>
-      <c r="AF58" s="165"/>
-      <c r="AG58" s="165"/>
-      <c r="AH58" s="165"/>
-      <c r="AI58" s="165"/>
-      <c r="AJ58" s="165"/>
-      <c r="AK58" s="165"/>
-      <c r="AL58" s="165"/>
-      <c r="AM58" s="165"/>
-      <c r="AN58" s="165"/>
-      <c r="AO58" s="165"/>
-      <c r="AP58" s="165"/>
-      <c r="AQ58" s="165"/>
-      <c r="AR58" s="165"/>
-      <c r="AS58" s="165"/>
-      <c r="AT58" s="165"/>
-      <c r="AU58" s="165"/>
-      <c r="AV58" s="165"/>
-      <c r="AW58" s="165"/>
-      <c r="AX58" s="165"/>
-      <c r="AY58" s="165"/>
-      <c r="AZ58" s="165"/>
-      <c r="BA58" s="165"/>
-      <c r="BB58" s="165"/>
-      <c r="BC58" s="165"/>
-      <c r="BD58" s="165"/>
-      <c r="BE58" s="165"/>
-      <c r="BF58" s="165"/>
-      <c r="BG58" s="165"/>
-      <c r="BH58" s="165"/>
-      <c r="BI58" s="165"/>
-      <c r="BJ58" s="165"/>
-      <c r="BK58" s="165"/>
-      <c r="BL58" s="165"/>
-      <c r="BM58" s="165"/>
-      <c r="BN58" s="165"/>
-      <c r="BO58" s="165"/>
-      <c r="BP58" s="165"/>
-      <c r="BQ58" s="165"/>
-      <c r="BR58" s="165"/>
-      <c r="BS58" s="165"/>
-      <c r="BT58" s="165"/>
-      <c r="BU58" s="165"/>
-      <c r="BV58" s="165"/>
-      <c r="BW58" s="165"/>
-      <c r="BX58" s="165"/>
-      <c r="BY58" s="165"/>
-      <c r="BZ58" s="165"/>
-      <c r="CA58" s="165"/>
-      <c r="CB58" s="165"/>
-      <c r="CC58" s="165"/>
-    </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="165"/>
-      <c r="B59" s="167" t="s">
+      <c r="B60" s="133"/>
+      <c r="C60" s="133" t="n">
+        <v>35</v>
+      </c>
+      <c r="D60" s="133"/>
+      <c r="E60" s="133"/>
+      <c r="F60" s="134"/>
+      <c r="G60" s="134" t="n">
+        <v>30</v>
+      </c>
+      <c r="H60" s="134"/>
+      <c r="I60" s="134" t="n">
+        <v>52</v>
+      </c>
+      <c r="J60" s="135"/>
+      <c r="K60" s="135" t="n">
+        <v>30</v>
+      </c>
+      <c r="L60" s="135"/>
+      <c r="M60" s="135" t="n">
+        <v>50</v>
+      </c>
+      <c r="N60" s="136"/>
+      <c r="O60" s="136" t="n">
+        <v>30</v>
+      </c>
+      <c r="P60" s="136"/>
+      <c r="Q60" s="136" t="n">
+        <v>50</v>
+      </c>
+      <c r="R60" s="137"/>
+      <c r="S60" s="137" t="n">
+        <v>30</v>
+      </c>
+      <c r="T60" s="137"/>
+      <c r="U60" s="137" t="n">
+        <v>50</v>
+      </c>
+      <c r="V60" s="138"/>
+      <c r="W60" s="138" t="n">
+        <v>30</v>
+      </c>
+      <c r="X60" s="138"/>
+      <c r="Y60" s="138" t="n">
+        <v>50</v>
+      </c>
+      <c r="Z60" s="139"/>
+      <c r="AA60" s="139" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB60" s="139"/>
+      <c r="AC60" s="139" t="n">
+        <v>50</v>
+      </c>
+      <c r="AD60" s="140"/>
+      <c r="AE60" s="140" t="n">
+        <v>35</v>
+      </c>
+      <c r="AF60" s="140"/>
+      <c r="AG60" s="140"/>
+      <c r="AH60" s="141"/>
+      <c r="AI60" s="141" t="n">
+        <v>35</v>
+      </c>
+      <c r="AJ60" s="141"/>
+      <c r="AK60" s="141"/>
+      <c r="AL60" s="142"/>
+      <c r="AM60" s="142" t="n">
+        <v>30</v>
+      </c>
+      <c r="AN60" s="142"/>
+      <c r="AO60" s="142" t="n">
+        <v>52</v>
+      </c>
+      <c r="AP60" s="143"/>
+      <c r="AQ60" s="143" t="n">
+        <v>30</v>
+      </c>
+      <c r="AR60" s="143"/>
+      <c r="AS60" s="143" t="n">
+        <v>50</v>
+      </c>
+      <c r="AT60" s="144"/>
+      <c r="AU60" s="144" t="n">
+        <v>30</v>
+      </c>
+      <c r="AV60" s="144"/>
+      <c r="AW60" s="144" t="n">
+        <v>50</v>
+      </c>
+      <c r="AX60" s="145"/>
+      <c r="AY60" s="146" t="n">
+        <v>30</v>
+      </c>
+      <c r="AZ60" s="145"/>
+      <c r="BA60" s="145" t="n">
+        <v>50</v>
+      </c>
+      <c r="BB60" s="147"/>
+      <c r="BC60" s="148" t="n">
+        <v>30</v>
+      </c>
+      <c r="BD60" s="147"/>
+      <c r="BE60" s="147" t="n">
+        <v>50</v>
+      </c>
+      <c r="BF60" s="149"/>
+      <c r="BG60" s="150" t="n">
+        <v>30</v>
+      </c>
+      <c r="BH60" s="149"/>
+      <c r="BI60" s="149" t="n">
+        <v>50</v>
+      </c>
+      <c r="BJ60" s="151"/>
+      <c r="BK60" s="152" t="n">
+        <v>30</v>
+      </c>
+      <c r="BL60" s="151"/>
+      <c r="BM60" s="151" t="n">
+        <v>50</v>
+      </c>
+      <c r="BN60" s="134"/>
+      <c r="BO60" s="134" t="n">
+        <v>30</v>
+      </c>
+      <c r="BP60" s="134"/>
+      <c r="BQ60" s="134" t="n">
+        <v>50</v>
+      </c>
+      <c r="BR60" s="153"/>
+      <c r="BS60" s="153" t="n">
+        <v>30</v>
+      </c>
+      <c r="BT60" s="153"/>
+      <c r="BU60" s="153" t="n">
+        <v>50</v>
+      </c>
+      <c r="BV60" s="154"/>
+      <c r="BW60" s="154" t="n">
+        <v>30</v>
+      </c>
+      <c r="BX60" s="154"/>
+      <c r="BY60" s="154" t="n">
+        <v>50</v>
+      </c>
+      <c r="BZ60" s="155"/>
+      <c r="CA60" s="155" t="n">
+        <v>20</v>
+      </c>
+      <c r="CB60" s="155"/>
+      <c r="CC60" s="156" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" s="157" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="132" t="s">
         <v>1199</v>
       </c>
-      <c r="C59" s="167"/>
-      <c r="D59" s="167"/>
-      <c r="E59" s="167"/>
-      <c r="F59" s="167" t="s">
+      <c r="B61" s="133"/>
+      <c r="C61" s="133" t="n">
+        <v>15</v>
+      </c>
+      <c r="D61" s="133"/>
+      <c r="E61" s="133"/>
+      <c r="F61" s="134"/>
+      <c r="G61" s="134" t="n">
+        <v>14</v>
+      </c>
+      <c r="H61" s="134"/>
+      <c r="I61" s="134" t="n">
+        <v>14</v>
+      </c>
+      <c r="J61" s="135"/>
+      <c r="K61" s="135" t="n">
+        <v>15</v>
+      </c>
+      <c r="L61" s="135"/>
+      <c r="M61" s="135" t="n">
+        <v>15</v>
+      </c>
+      <c r="N61" s="136"/>
+      <c r="O61" s="136" t="n">
+        <v>15</v>
+      </c>
+      <c r="P61" s="136"/>
+      <c r="Q61" s="136" t="n">
+        <v>15</v>
+      </c>
+      <c r="R61" s="137"/>
+      <c r="S61" s="137" t="n">
+        <v>15</v>
+      </c>
+      <c r="T61" s="137"/>
+      <c r="U61" s="137" t="n">
+        <v>15</v>
+      </c>
+      <c r="V61" s="138"/>
+      <c r="W61" s="138" t="n">
+        <v>15</v>
+      </c>
+      <c r="X61" s="138"/>
+      <c r="Y61" s="138" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z61" s="139"/>
+      <c r="AA61" s="139" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB61" s="139"/>
+      <c r="AC61" s="139" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD61" s="140"/>
+      <c r="AE61" s="140" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF61" s="140"/>
+      <c r="AG61" s="140"/>
+      <c r="AH61" s="141"/>
+      <c r="AI61" s="141" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ61" s="141"/>
+      <c r="AK61" s="141"/>
+      <c r="AL61" s="142"/>
+      <c r="AM61" s="142" t="n">
+        <v>13</v>
+      </c>
+      <c r="AN61" s="142"/>
+      <c r="AO61" s="142" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP61" s="143"/>
+      <c r="AQ61" s="143" t="n">
+        <v>15</v>
+      </c>
+      <c r="AR61" s="143"/>
+      <c r="AS61" s="143" t="n">
+        <v>15</v>
+      </c>
+      <c r="AT61" s="144"/>
+      <c r="AU61" s="144" t="n">
+        <v>15</v>
+      </c>
+      <c r="AV61" s="144"/>
+      <c r="AW61" s="144" t="n">
+        <v>15</v>
+      </c>
+      <c r="AX61" s="145"/>
+      <c r="AY61" s="146" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ61" s="145"/>
+      <c r="BA61" s="145" t="n">
+        <v>15</v>
+      </c>
+      <c r="BB61" s="147"/>
+      <c r="BC61" s="148" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD61" s="147"/>
+      <c r="BE61" s="147" t="n">
+        <v>15</v>
+      </c>
+      <c r="BF61" s="149"/>
+      <c r="BG61" s="150" t="n">
+        <v>15</v>
+      </c>
+      <c r="BH61" s="149"/>
+      <c r="BI61" s="149" t="n">
+        <v>15</v>
+      </c>
+      <c r="BJ61" s="151"/>
+      <c r="BK61" s="152" t="n">
+        <v>15</v>
+      </c>
+      <c r="BL61" s="151"/>
+      <c r="BM61" s="151" t="n">
+        <v>15</v>
+      </c>
+      <c r="BN61" s="134"/>
+      <c r="BO61" s="134" t="n">
+        <v>15</v>
+      </c>
+      <c r="BP61" s="134"/>
+      <c r="BQ61" s="134" t="n">
+        <v>15</v>
+      </c>
+      <c r="BR61" s="153"/>
+      <c r="BS61" s="153" t="n">
+        <v>15</v>
+      </c>
+      <c r="BT61" s="153"/>
+      <c r="BU61" s="153" t="n">
+        <v>15</v>
+      </c>
+      <c r="BV61" s="154"/>
+      <c r="BW61" s="154" t="n">
+        <v>15</v>
+      </c>
+      <c r="BX61" s="154"/>
+      <c r="BY61" s="154" t="n">
+        <v>15</v>
+      </c>
+      <c r="BZ61" s="155"/>
+      <c r="CA61" s="155" t="n">
+        <v>15</v>
+      </c>
+      <c r="CB61" s="155"/>
+      <c r="CC61" s="156" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="158"/>
+      <c r="B62" s="158" t="s">
         <v>1200</v>
       </c>
-      <c r="G59" s="167"/>
-      <c r="H59" s="167"/>
-      <c r="I59" s="167"/>
-      <c r="J59" s="167" t="s">
+      <c r="C62" s="158" t="s">
         <v>1201</v>
       </c>
-      <c r="K59" s="167"/>
-      <c r="L59" s="167"/>
-      <c r="M59" s="167"/>
-      <c r="N59" s="167" t="s">
+      <c r="D62" s="158" t="s">
         <v>1202</v>
       </c>
-      <c r="O59" s="167"/>
-      <c r="P59" s="167"/>
-      <c r="Q59" s="167"/>
-      <c r="R59" s="167" t="s">
+      <c r="E62" s="158" t="s">
         <v>1203</v>
       </c>
-      <c r="S59" s="167"/>
-      <c r="T59" s="167"/>
-      <c r="U59" s="167"/>
-      <c r="V59" s="167" t="s">
+      <c r="F62" s="158" t="s">
+        <v>1200</v>
+      </c>
+      <c r="G62" s="158" t="s">
+        <v>1201</v>
+      </c>
+      <c r="H62" s="158" t="s">
+        <v>1202</v>
+      </c>
+      <c r="I62" s="158" t="s">
+        <v>1203</v>
+      </c>
+      <c r="J62" s="158" t="s">
+        <v>1200</v>
+      </c>
+      <c r="K62" s="158" t="s">
+        <v>1201</v>
+      </c>
+      <c r="L62" s="158" t="s">
+        <v>1202</v>
+      </c>
+      <c r="M62" s="158" t="s">
+        <v>1203</v>
+      </c>
+      <c r="N62" s="158" t="s">
+        <v>1200</v>
+      </c>
+      <c r="O62" s="158" t="s">
+        <v>1201</v>
+      </c>
+      <c r="P62" s="158" t="s">
+        <v>1202</v>
+      </c>
+      <c r="Q62" s="158" t="s">
+        <v>1203</v>
+      </c>
+      <c r="R62" s="158" t="s">
+        <v>1200</v>
+      </c>
+      <c r="S62" s="158" t="s">
+        <v>1201</v>
+      </c>
+      <c r="T62" s="158" t="s">
+        <v>1202</v>
+      </c>
+      <c r="U62" s="158" t="s">
+        <v>1203</v>
+      </c>
+      <c r="V62" s="158" t="s">
+        <v>1200</v>
+      </c>
+      <c r="W62" s="158" t="s">
+        <v>1201</v>
+      </c>
+      <c r="X62" s="158" t="s">
+        <v>1202</v>
+      </c>
+      <c r="Y62" s="158" t="s">
+        <v>1203</v>
+      </c>
+      <c r="Z62" s="158" t="s">
+        <v>1200</v>
+      </c>
+      <c r="AA62" s="158" t="s">
+        <v>1201</v>
+      </c>
+      <c r="AB62" s="158" t="s">
+        <v>1202</v>
+      </c>
+      <c r="AC62" s="158" t="s">
+        <v>1203</v>
+      </c>
+      <c r="AD62" s="158" t="s">
+        <v>1200</v>
+      </c>
+      <c r="AE62" s="158" t="s">
+        <v>1201</v>
+      </c>
+      <c r="AF62" s="158" t="s">
+        <v>1202</v>
+      </c>
+      <c r="AG62" s="158" t="s">
+        <v>1203</v>
+      </c>
+      <c r="AH62" s="158" t="s">
+        <v>1200</v>
+      </c>
+      <c r="AI62" s="158" t="s">
+        <v>1201</v>
+      </c>
+      <c r="AJ62" s="158" t="s">
+        <v>1202</v>
+      </c>
+      <c r="AK62" s="158" t="s">
+        <v>1203</v>
+      </c>
+      <c r="AL62" s="158" t="s">
+        <v>1200</v>
+      </c>
+      <c r="AM62" s="158" t="s">
+        <v>1201</v>
+      </c>
+      <c r="AN62" s="158" t="s">
+        <v>1202</v>
+      </c>
+      <c r="AO62" s="158" t="s">
+        <v>1203</v>
+      </c>
+      <c r="AP62" s="158" t="s">
+        <v>1200</v>
+      </c>
+      <c r="AQ62" s="158" t="s">
+        <v>1201</v>
+      </c>
+      <c r="AR62" s="158" t="s">
+        <v>1202</v>
+      </c>
+      <c r="AS62" s="158" t="s">
+        <v>1203</v>
+      </c>
+      <c r="AT62" s="158" t="s">
+        <v>1200</v>
+      </c>
+      <c r="AU62" s="158" t="s">
+        <v>1201</v>
+      </c>
+      <c r="AV62" s="158" t="s">
+        <v>1202</v>
+      </c>
+      <c r="AW62" s="158" t="s">
+        <v>1203</v>
+      </c>
+      <c r="AX62" s="158" t="s">
+        <v>1200</v>
+      </c>
+      <c r="AY62" s="158" t="s">
+        <v>1201</v>
+      </c>
+      <c r="AZ62" s="158" t="s">
+        <v>1202</v>
+      </c>
+      <c r="BA62" s="158" t="s">
+        <v>1203</v>
+      </c>
+      <c r="BB62" s="158" t="s">
+        <v>1200</v>
+      </c>
+      <c r="BC62" s="158" t="s">
+        <v>1201</v>
+      </c>
+      <c r="BD62" s="158" t="s">
+        <v>1202</v>
+      </c>
+      <c r="BE62" s="158" t="s">
+        <v>1203</v>
+      </c>
+      <c r="BF62" s="158" t="s">
+        <v>1200</v>
+      </c>
+      <c r="BG62" s="158" t="s">
+        <v>1201</v>
+      </c>
+      <c r="BH62" s="158" t="s">
+        <v>1202</v>
+      </c>
+      <c r="BI62" s="158" t="s">
+        <v>1203</v>
+      </c>
+      <c r="BJ62" s="158" t="s">
+        <v>1200</v>
+      </c>
+      <c r="BK62" s="158" t="s">
+        <v>1201</v>
+      </c>
+      <c r="BL62" s="158" t="s">
+        <v>1202</v>
+      </c>
+      <c r="BM62" s="158" t="s">
+        <v>1203</v>
+      </c>
+      <c r="BN62" s="158" t="s">
+        <v>1200</v>
+      </c>
+      <c r="BO62" s="158" t="s">
+        <v>1201</v>
+      </c>
+      <c r="BP62" s="158" t="s">
+        <v>1202</v>
+      </c>
+      <c r="BQ62" s="158" t="s">
+        <v>1203</v>
+      </c>
+      <c r="BR62" s="158" t="s">
+        <v>1200</v>
+      </c>
+      <c r="BS62" s="158" t="s">
+        <v>1201</v>
+      </c>
+      <c r="BT62" s="158" t="s">
+        <v>1202</v>
+      </c>
+      <c r="BU62" s="158" t="s">
+        <v>1203</v>
+      </c>
+      <c r="BV62" s="158" t="s">
+        <v>1200</v>
+      </c>
+      <c r="BW62" s="158" t="s">
+        <v>1201</v>
+      </c>
+      <c r="BX62" s="158" t="s">
+        <v>1202</v>
+      </c>
+      <c r="BY62" s="158"/>
+      <c r="BZ62" s="158" t="s">
+        <v>1200</v>
+      </c>
+      <c r="CA62" s="158" t="s">
+        <v>1201</v>
+      </c>
+      <c r="CB62" s="158" t="s">
+        <v>1202</v>
+      </c>
+      <c r="CC62" s="158"/>
+    </row>
+    <row r="63" customFormat="false" ht="34.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="158"/>
+      <c r="B63" s="158"/>
+      <c r="C63" s="158"/>
+      <c r="D63" s="159" t="s">
         <v>1204</v>
       </c>
-      <c r="W59" s="167"/>
-      <c r="X59" s="167"/>
-      <c r="Y59" s="167"/>
-      <c r="Z59" s="167" t="s">
+      <c r="E63" s="159"/>
+      <c r="F63" s="158"/>
+      <c r="G63" s="158"/>
+      <c r="H63" s="159" t="s">
+        <v>1204</v>
+      </c>
+      <c r="I63" s="159"/>
+      <c r="J63" s="158"/>
+      <c r="K63" s="158"/>
+      <c r="L63" s="159" t="s">
+        <v>1204</v>
+      </c>
+      <c r="M63" s="159"/>
+      <c r="N63" s="158"/>
+      <c r="O63" s="158"/>
+      <c r="P63" s="159" t="s">
+        <v>1204</v>
+      </c>
+      <c r="Q63" s="159"/>
+      <c r="R63" s="158"/>
+      <c r="S63" s="158"/>
+      <c r="T63" s="159" t="s">
+        <v>1204</v>
+      </c>
+      <c r="U63" s="159"/>
+      <c r="V63" s="158"/>
+      <c r="W63" s="158"/>
+      <c r="X63" s="159" t="s">
+        <v>1204</v>
+      </c>
+      <c r="Y63" s="159"/>
+      <c r="Z63" s="158"/>
+      <c r="AA63" s="158"/>
+      <c r="AB63" s="159" t="s">
+        <v>1204</v>
+      </c>
+      <c r="AC63" s="159"/>
+      <c r="AD63" s="158"/>
+      <c r="AE63" s="158"/>
+      <c r="AF63" s="159" t="s">
+        <v>1204</v>
+      </c>
+      <c r="AG63" s="159"/>
+      <c r="AH63" s="158"/>
+      <c r="AI63" s="158"/>
+      <c r="AJ63" s="159" t="s">
+        <v>1204</v>
+      </c>
+      <c r="AK63" s="159"/>
+      <c r="AL63" s="158"/>
+      <c r="AM63" s="158"/>
+      <c r="AN63" s="159" t="s">
+        <v>1204</v>
+      </c>
+      <c r="AO63" s="159"/>
+      <c r="AP63" s="158"/>
+      <c r="AQ63" s="158"/>
+      <c r="AR63" s="159" t="s">
+        <v>1204</v>
+      </c>
+      <c r="AS63" s="159"/>
+      <c r="AT63" s="158"/>
+      <c r="AU63" s="158"/>
+      <c r="AV63" s="159" t="s">
+        <v>1204</v>
+      </c>
+      <c r="AW63" s="159"/>
+      <c r="AX63" s="158"/>
+      <c r="AY63" s="158"/>
+      <c r="AZ63" s="159" t="s">
+        <v>1204</v>
+      </c>
+      <c r="BA63" s="159"/>
+      <c r="BB63" s="158"/>
+      <c r="BC63" s="158"/>
+      <c r="BD63" s="159" t="s">
+        <v>1204</v>
+      </c>
+      <c r="BE63" s="159"/>
+      <c r="BF63" s="158"/>
+      <c r="BG63" s="158"/>
+      <c r="BH63" s="159" t="s">
+        <v>1204</v>
+      </c>
+      <c r="BI63" s="159"/>
+      <c r="BJ63" s="158"/>
+      <c r="BK63" s="158"/>
+      <c r="BL63" s="159" t="s">
+        <v>1204</v>
+      </c>
+      <c r="BM63" s="159"/>
+      <c r="BN63" s="158"/>
+      <c r="BO63" s="158"/>
+      <c r="BP63" s="159" t="s">
+        <v>1204</v>
+      </c>
+      <c r="BQ63" s="159"/>
+      <c r="BR63" s="158"/>
+      <c r="BS63" s="158"/>
+      <c r="BT63" s="159" t="s">
+        <v>1204</v>
+      </c>
+      <c r="BU63" s="159"/>
+      <c r="BV63" s="158"/>
+      <c r="BW63" s="158"/>
+      <c r="BX63" s="159" t="s">
+        <v>1204</v>
+      </c>
+      <c r="BY63" s="159"/>
+      <c r="BZ63" s="158"/>
+      <c r="CA63" s="158"/>
+      <c r="CB63" s="159" t="s">
+        <v>1204</v>
+      </c>
+      <c r="CC63" s="159"/>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="158"/>
+      <c r="B64" s="158"/>
+      <c r="C64" s="158"/>
+      <c r="D64" s="158"/>
+      <c r="E64" s="158"/>
+      <c r="F64" s="158"/>
+      <c r="G64" s="158"/>
+      <c r="H64" s="158"/>
+      <c r="I64" s="158"/>
+      <c r="J64" s="158"/>
+      <c r="K64" s="158"/>
+      <c r="L64" s="158"/>
+      <c r="M64" s="158"/>
+      <c r="N64" s="158"/>
+      <c r="O64" s="158"/>
+      <c r="P64" s="158"/>
+      <c r="Q64" s="158"/>
+      <c r="R64" s="158"/>
+      <c r="S64" s="158"/>
+      <c r="T64" s="158"/>
+      <c r="U64" s="158"/>
+      <c r="V64" s="158"/>
+      <c r="W64" s="158"/>
+      <c r="X64" s="158"/>
+      <c r="Y64" s="158"/>
+      <c r="Z64" s="158"/>
+      <c r="AA64" s="158"/>
+      <c r="AB64" s="158"/>
+      <c r="AC64" s="158"/>
+      <c r="AD64" s="158"/>
+      <c r="AE64" s="158"/>
+      <c r="AF64" s="158"/>
+      <c r="AG64" s="158"/>
+      <c r="AH64" s="158"/>
+      <c r="AI64" s="158"/>
+      <c r="AJ64" s="158"/>
+      <c r="AK64" s="158"/>
+      <c r="AL64" s="158"/>
+      <c r="AM64" s="158"/>
+      <c r="AN64" s="158"/>
+      <c r="AO64" s="158"/>
+      <c r="AP64" s="158"/>
+      <c r="AQ64" s="158"/>
+      <c r="AR64" s="158"/>
+      <c r="AS64" s="158"/>
+      <c r="AT64" s="158"/>
+      <c r="AU64" s="158"/>
+      <c r="AV64" s="158"/>
+      <c r="AW64" s="158"/>
+      <c r="AX64" s="158"/>
+      <c r="AY64" s="158"/>
+      <c r="AZ64" s="158"/>
+      <c r="BA64" s="158"/>
+      <c r="BB64" s="158"/>
+      <c r="BC64" s="158"/>
+      <c r="BD64" s="158"/>
+      <c r="BE64" s="158"/>
+      <c r="BF64" s="158"/>
+      <c r="BG64" s="158"/>
+      <c r="BH64" s="158"/>
+      <c r="BI64" s="158"/>
+      <c r="BJ64" s="158"/>
+      <c r="BK64" s="158"/>
+      <c r="BL64" s="158"/>
+      <c r="BM64" s="158"/>
+      <c r="BN64" s="158"/>
+      <c r="BO64" s="158"/>
+      <c r="BP64" s="158"/>
+      <c r="BQ64" s="158"/>
+      <c r="BR64" s="158"/>
+      <c r="BS64" s="158"/>
+      <c r="BT64" s="158"/>
+      <c r="BU64" s="158"/>
+      <c r="BV64" s="158"/>
+      <c r="BW64" s="158"/>
+      <c r="BX64" s="158"/>
+      <c r="BY64" s="158"/>
+      <c r="BZ64" s="158"/>
+      <c r="CA64" s="158"/>
+      <c r="CB64" s="158"/>
+      <c r="CC64" s="158"/>
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="158"/>
+      <c r="B65" s="160" t="s">
         <v>1205</v>
       </c>
-      <c r="AA59" s="167"/>
-      <c r="AB59" s="167"/>
-      <c r="AC59" s="167"/>
-      <c r="AD59" s="167" t="s">
+      <c r="C65" s="160"/>
+      <c r="D65" s="160"/>
+      <c r="E65" s="160"/>
+      <c r="F65" s="160" t="s">
         <v>1206</v>
       </c>
-      <c r="AE59" s="167"/>
-      <c r="AF59" s="167"/>
-      <c r="AG59" s="167"/>
-      <c r="AH59" s="167" t="s">
+      <c r="G65" s="160"/>
+      <c r="H65" s="160"/>
+      <c r="I65" s="160"/>
+      <c r="J65" s="160" t="s">
         <v>1207</v>
       </c>
-      <c r="AI59" s="167"/>
-      <c r="AJ59" s="167"/>
-      <c r="AK59" s="167"/>
-      <c r="AL59" s="167" t="s">
+      <c r="K65" s="160"/>
+      <c r="L65" s="160"/>
+      <c r="M65" s="160"/>
+      <c r="N65" s="160" t="s">
         <v>1208</v>
       </c>
-      <c r="AM59" s="167"/>
-      <c r="AN59" s="167"/>
-      <c r="AO59" s="167"/>
-      <c r="AP59" s="167" t="s">
+      <c r="O65" s="160"/>
+      <c r="P65" s="160"/>
+      <c r="Q65" s="160"/>
+      <c r="R65" s="160" t="s">
         <v>1209</v>
       </c>
-      <c r="AQ59" s="167"/>
-      <c r="AR59" s="167"/>
-      <c r="AS59" s="167"/>
-      <c r="AT59" s="167" t="s">
+      <c r="S65" s="160"/>
+      <c r="T65" s="160"/>
+      <c r="U65" s="160"/>
+      <c r="V65" s="160" t="s">
         <v>1210</v>
       </c>
-      <c r="AU59" s="167"/>
-      <c r="AV59" s="167"/>
-      <c r="AW59" s="167"/>
-      <c r="AX59" s="167" t="s">
+      <c r="W65" s="160"/>
+      <c r="X65" s="160"/>
+      <c r="Y65" s="160"/>
+      <c r="Z65" s="160" t="s">
         <v>1211</v>
       </c>
-      <c r="AY59" s="167"/>
-      <c r="AZ59" s="167"/>
-      <c r="BA59" s="167"/>
-      <c r="BB59" s="167" t="s">
+      <c r="AA65" s="160"/>
+      <c r="AB65" s="160"/>
+      <c r="AC65" s="160"/>
+      <c r="AD65" s="160" t="s">
         <v>1212</v>
       </c>
-      <c r="BC59" s="167"/>
-      <c r="BD59" s="167"/>
-      <c r="BE59" s="167"/>
-      <c r="BF59" s="167" t="s">
+      <c r="AE65" s="160"/>
+      <c r="AF65" s="160"/>
+      <c r="AG65" s="160"/>
+      <c r="AH65" s="160" t="s">
         <v>1213</v>
       </c>
-      <c r="BG59" s="167"/>
-      <c r="BH59" s="167"/>
-      <c r="BI59" s="167"/>
-      <c r="BJ59" s="167" t="s">
+      <c r="AI65" s="160"/>
+      <c r="AJ65" s="160"/>
+      <c r="AK65" s="160"/>
+      <c r="AL65" s="160" t="s">
         <v>1214</v>
       </c>
-      <c r="BK59" s="167"/>
-      <c r="BL59" s="167"/>
-      <c r="BM59" s="167"/>
-      <c r="BN59" s="167" t="s">
+      <c r="AM65" s="160"/>
+      <c r="AN65" s="160"/>
+      <c r="AO65" s="160"/>
+      <c r="AP65" s="160" t="s">
         <v>1215</v>
       </c>
-      <c r="BO59" s="167"/>
-      <c r="BP59" s="167"/>
-      <c r="BQ59" s="167"/>
-      <c r="BR59" s="167" t="s">
+      <c r="AQ65" s="160"/>
+      <c r="AR65" s="160"/>
+      <c r="AS65" s="160"/>
+      <c r="AT65" s="160" t="s">
         <v>1216</v>
       </c>
-      <c r="BS59" s="167"/>
-      <c r="BT59" s="167"/>
-      <c r="BU59" s="167"/>
-      <c r="BV59" s="167" t="s">
+      <c r="AU65" s="160"/>
+      <c r="AV65" s="160"/>
+      <c r="AW65" s="160"/>
+      <c r="AX65" s="160" t="s">
         <v>1217</v>
       </c>
-      <c r="BW59" s="167"/>
-      <c r="BX59" s="167"/>
-      <c r="BY59" s="167"/>
-      <c r="BZ59" s="167" t="s">
+      <c r="AY65" s="160"/>
+      <c r="AZ65" s="160"/>
+      <c r="BA65" s="160"/>
+      <c r="BB65" s="160" t="s">
         <v>1218</v>
       </c>
-      <c r="CA59" s="167"/>
-      <c r="CB59" s="167"/>
-      <c r="CC59" s="167"/>
-    </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="165"/>
-      <c r="B60" s="165"/>
-      <c r="C60" s="165"/>
-      <c r="D60" s="165"/>
-      <c r="E60" s="165"/>
-      <c r="F60" s="165"/>
-      <c r="G60" s="165"/>
-      <c r="H60" s="165"/>
-      <c r="I60" s="165"/>
-      <c r="J60" s="165"/>
-      <c r="K60" s="165"/>
-      <c r="L60" s="165"/>
-      <c r="M60" s="165"/>
-      <c r="N60" s="165"/>
-      <c r="O60" s="165"/>
-      <c r="P60" s="165"/>
-      <c r="Q60" s="165"/>
-      <c r="R60" s="165"/>
-      <c r="S60" s="165"/>
-      <c r="T60" s="165"/>
-      <c r="U60" s="165"/>
-      <c r="V60" s="165"/>
-      <c r="W60" s="165"/>
-      <c r="X60" s="165"/>
-      <c r="Y60" s="165"/>
-      <c r="Z60" s="165"/>
-      <c r="AA60" s="165"/>
-      <c r="AB60" s="165"/>
-      <c r="AC60" s="165"/>
-      <c r="AD60" s="165"/>
-      <c r="AE60" s="165"/>
-      <c r="AF60" s="165"/>
-      <c r="AG60" s="165"/>
-      <c r="AH60" s="165"/>
-      <c r="AI60" s="165"/>
-      <c r="AJ60" s="165"/>
-      <c r="AK60" s="165"/>
-      <c r="AL60" s="165"/>
-      <c r="AM60" s="165"/>
-      <c r="AN60" s="165"/>
-      <c r="AO60" s="165"/>
-      <c r="AP60" s="165"/>
-      <c r="AQ60" s="165"/>
-      <c r="AR60" s="165"/>
-      <c r="AS60" s="165"/>
-      <c r="AT60" s="165"/>
-      <c r="AU60" s="165"/>
-      <c r="AV60" s="165"/>
-      <c r="AW60" s="165"/>
-      <c r="AX60" s="165"/>
-      <c r="AY60" s="165"/>
-      <c r="AZ60" s="165"/>
-      <c r="BA60" s="165"/>
-      <c r="BB60" s="165"/>
-      <c r="BC60" s="165"/>
-      <c r="BD60" s="165"/>
-      <c r="BE60" s="165"/>
-      <c r="BF60" s="165"/>
-      <c r="BG60" s="165"/>
-      <c r="BH60" s="165"/>
-      <c r="BI60" s="165"/>
-      <c r="BJ60" s="165"/>
-      <c r="BK60" s="165"/>
-      <c r="BL60" s="165"/>
-      <c r="BM60" s="165"/>
-      <c r="BN60" s="165"/>
-      <c r="BO60" s="165"/>
-      <c r="BP60" s="165"/>
-      <c r="BQ60" s="165"/>
-      <c r="BR60" s="165"/>
-      <c r="BS60" s="165"/>
-      <c r="BT60" s="165"/>
-      <c r="BU60" s="165"/>
-      <c r="BV60" s="165"/>
-      <c r="BW60" s="165"/>
-      <c r="BX60" s="165"/>
-      <c r="BY60" s="165"/>
-      <c r="BZ60" s="165"/>
-      <c r="CA60" s="165"/>
-      <c r="CB60" s="165"/>
-      <c r="CC60" s="165"/>
-    </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="165"/>
-      <c r="B61" s="165"/>
-      <c r="C61" s="165"/>
-      <c r="D61" s="165"/>
-      <c r="E61" s="165"/>
-      <c r="F61" s="165"/>
-      <c r="G61" s="165"/>
-      <c r="H61" s="165"/>
-      <c r="I61" s="165"/>
-      <c r="J61" s="165"/>
-      <c r="K61" s="165"/>
-      <c r="L61" s="165"/>
-      <c r="M61" s="165"/>
-      <c r="N61" s="165"/>
-      <c r="O61" s="165"/>
-      <c r="P61" s="165"/>
-      <c r="Q61" s="165"/>
-      <c r="R61" s="165"/>
-      <c r="S61" s="165"/>
-      <c r="T61" s="165"/>
-      <c r="U61" s="165"/>
-      <c r="V61" s="165"/>
-      <c r="W61" s="165"/>
-      <c r="X61" s="165"/>
-      <c r="Y61" s="165"/>
-      <c r="Z61" s="165"/>
-      <c r="AA61" s="165"/>
-      <c r="AB61" s="165"/>
-      <c r="AC61" s="165"/>
-      <c r="AD61" s="165"/>
-      <c r="AE61" s="165"/>
-      <c r="AF61" s="165"/>
-      <c r="AG61" s="165"/>
-      <c r="AH61" s="165"/>
-      <c r="AI61" s="165"/>
-      <c r="AJ61" s="165"/>
-      <c r="AK61" s="165"/>
-      <c r="AL61" s="165"/>
-      <c r="AM61" s="165"/>
-      <c r="AN61" s="165"/>
-      <c r="AO61" s="165"/>
-      <c r="AP61" s="165"/>
-      <c r="AQ61" s="165"/>
-      <c r="AR61" s="165"/>
-      <c r="AS61" s="165"/>
-      <c r="AT61" s="165"/>
-      <c r="AU61" s="165"/>
-      <c r="AV61" s="165"/>
-      <c r="AW61" s="165"/>
-      <c r="AX61" s="165"/>
-      <c r="AY61" s="165"/>
-      <c r="AZ61" s="165"/>
-      <c r="BA61" s="165"/>
-      <c r="BB61" s="165"/>
-      <c r="BC61" s="165"/>
-      <c r="BD61" s="165"/>
-      <c r="BE61" s="165"/>
-      <c r="BF61" s="165"/>
-      <c r="BG61" s="165"/>
-      <c r="BH61" s="165"/>
-      <c r="BI61" s="165"/>
-      <c r="BJ61" s="165"/>
-      <c r="BK61" s="165"/>
-      <c r="BL61" s="165"/>
-      <c r="BM61" s="165"/>
-      <c r="BN61" s="165"/>
-      <c r="BO61" s="165"/>
-      <c r="BP61" s="165"/>
-      <c r="BQ61" s="165"/>
-      <c r="BR61" s="165"/>
-      <c r="BS61" s="165"/>
-      <c r="BT61" s="165"/>
-      <c r="BU61" s="165"/>
-      <c r="BV61" s="165"/>
-      <c r="BW61" s="165"/>
-      <c r="BX61" s="165"/>
-      <c r="BY61" s="165"/>
-      <c r="BZ61" s="165"/>
-      <c r="CA61" s="165"/>
-      <c r="CB61" s="165"/>
-      <c r="CC61" s="165"/>
-    </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="165"/>
-      <c r="B62" s="165"/>
-      <c r="C62" s="165"/>
-      <c r="D62" s="165"/>
-      <c r="E62" s="165"/>
-      <c r="F62" s="165"/>
-      <c r="G62" s="165"/>
-      <c r="H62" s="165"/>
-      <c r="I62" s="165"/>
-      <c r="J62" s="165"/>
-      <c r="K62" s="165"/>
-      <c r="L62" s="165"/>
-      <c r="M62" s="165"/>
-      <c r="N62" s="165"/>
-      <c r="O62" s="165"/>
-      <c r="P62" s="165"/>
-      <c r="Q62" s="165"/>
-      <c r="R62" s="165"/>
-      <c r="S62" s="165"/>
-      <c r="T62" s="165"/>
-      <c r="U62" s="165"/>
-      <c r="V62" s="165"/>
-      <c r="W62" s="165"/>
-      <c r="X62" s="165"/>
-      <c r="Y62" s="165"/>
-      <c r="Z62" s="165"/>
-      <c r="AA62" s="165"/>
-      <c r="AB62" s="165"/>
-      <c r="AC62" s="165"/>
-      <c r="AD62" s="165"/>
-      <c r="AE62" s="165"/>
-      <c r="AF62" s="165"/>
-      <c r="AG62" s="165"/>
-      <c r="AH62" s="165"/>
-      <c r="AI62" s="165"/>
-      <c r="AJ62" s="165"/>
-      <c r="AK62" s="165"/>
-      <c r="AL62" s="165"/>
-      <c r="AM62" s="165"/>
-      <c r="AN62" s="165"/>
-      <c r="AO62" s="165"/>
-      <c r="AP62" s="165"/>
-      <c r="AQ62" s="165"/>
-      <c r="AR62" s="165"/>
-      <c r="AS62" s="165"/>
-      <c r="AT62" s="165"/>
-      <c r="AU62" s="165"/>
-      <c r="AV62" s="165"/>
-      <c r="AW62" s="165"/>
-      <c r="AX62" s="165"/>
-      <c r="AY62" s="165"/>
-      <c r="AZ62" s="165"/>
-      <c r="BA62" s="165"/>
-      <c r="BB62" s="165"/>
-      <c r="BC62" s="165"/>
-      <c r="BD62" s="165"/>
-      <c r="BE62" s="165"/>
-      <c r="BF62" s="165"/>
-      <c r="BG62" s="165"/>
-      <c r="BH62" s="165"/>
-      <c r="BI62" s="165"/>
-      <c r="BJ62" s="165"/>
-      <c r="BK62" s="165"/>
-      <c r="BL62" s="165"/>
-      <c r="BM62" s="165"/>
-      <c r="BN62" s="165"/>
-      <c r="BO62" s="165"/>
-      <c r="BP62" s="165"/>
-      <c r="BQ62" s="165"/>
-      <c r="BR62" s="165"/>
-      <c r="BS62" s="165"/>
-      <c r="BT62" s="165"/>
-      <c r="BU62" s="165"/>
-      <c r="BV62" s="165"/>
-      <c r="BW62" s="165"/>
-      <c r="BX62" s="165"/>
-      <c r="BY62" s="165"/>
-      <c r="BZ62" s="165"/>
-      <c r="CA62" s="165"/>
-      <c r="CB62" s="165"/>
-      <c r="CC62" s="165"/>
-    </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="165"/>
-      <c r="B63" s="165"/>
-      <c r="C63" s="165"/>
-      <c r="D63" s="165"/>
-      <c r="E63" s="165"/>
-      <c r="F63" s="165"/>
-      <c r="G63" s="165"/>
-      <c r="H63" s="165"/>
-      <c r="I63" s="165"/>
-      <c r="J63" s="165"/>
-      <c r="K63" s="165"/>
-      <c r="L63" s="165"/>
-      <c r="M63" s="165"/>
-      <c r="N63" s="165"/>
-      <c r="O63" s="165"/>
-      <c r="P63" s="165"/>
-      <c r="Q63" s="165"/>
-      <c r="R63" s="165"/>
-      <c r="S63" s="165"/>
-      <c r="T63" s="165"/>
-      <c r="U63" s="165"/>
-      <c r="V63" s="165"/>
-      <c r="W63" s="165"/>
-      <c r="X63" s="165"/>
-      <c r="Y63" s="165"/>
-      <c r="Z63" s="165"/>
-      <c r="AA63" s="165"/>
-      <c r="AB63" s="165"/>
-      <c r="AC63" s="165"/>
-      <c r="AD63" s="165"/>
-      <c r="AE63" s="165"/>
-      <c r="AF63" s="165"/>
-      <c r="AG63" s="165"/>
-      <c r="AH63" s="165"/>
-      <c r="AI63" s="165"/>
-      <c r="AJ63" s="165"/>
-      <c r="AK63" s="165"/>
-      <c r="AL63" s="165"/>
-      <c r="AM63" s="165"/>
-      <c r="AN63" s="165"/>
-      <c r="AO63" s="165"/>
-      <c r="AP63" s="165"/>
-      <c r="AQ63" s="165"/>
-      <c r="AR63" s="165"/>
-      <c r="AS63" s="165"/>
-      <c r="AT63" s="165"/>
-      <c r="AU63" s="165"/>
-      <c r="AV63" s="165"/>
-      <c r="AW63" s="165"/>
-      <c r="AX63" s="165"/>
-      <c r="AY63" s="165"/>
-      <c r="AZ63" s="165"/>
-      <c r="BA63" s="165"/>
-      <c r="BB63" s="165"/>
-      <c r="BC63" s="165"/>
-      <c r="BD63" s="165"/>
-      <c r="BE63" s="165"/>
-      <c r="BF63" s="165"/>
-      <c r="BG63" s="165"/>
-      <c r="BH63" s="165"/>
-      <c r="BI63" s="165"/>
-      <c r="BJ63" s="165"/>
-      <c r="BK63" s="165"/>
-      <c r="BL63" s="165"/>
-      <c r="BM63" s="165"/>
-      <c r="BN63" s="165"/>
-      <c r="BO63" s="165"/>
-      <c r="BP63" s="165"/>
-      <c r="BQ63" s="165"/>
-      <c r="BR63" s="165"/>
-      <c r="BS63" s="165"/>
-      <c r="BT63" s="165"/>
-      <c r="BU63" s="165"/>
-      <c r="BV63" s="165"/>
-      <c r="BW63" s="165"/>
-      <c r="BX63" s="165"/>
-      <c r="BY63" s="165"/>
-      <c r="BZ63" s="165"/>
-      <c r="CA63" s="165"/>
-      <c r="CB63" s="165"/>
-      <c r="CC63" s="165"/>
+      <c r="BC65" s="160"/>
+      <c r="BD65" s="160"/>
+      <c r="BE65" s="160"/>
+      <c r="BF65" s="160" t="s">
+        <v>1219</v>
+      </c>
+      <c r="BG65" s="160"/>
+      <c r="BH65" s="160"/>
+      <c r="BI65" s="160"/>
+      <c r="BJ65" s="160" t="s">
+        <v>1220</v>
+      </c>
+      <c r="BK65" s="160"/>
+      <c r="BL65" s="160"/>
+      <c r="BM65" s="160"/>
+      <c r="BN65" s="160" t="s">
+        <v>1221</v>
+      </c>
+      <c r="BO65" s="160"/>
+      <c r="BP65" s="160"/>
+      <c r="BQ65" s="160"/>
+      <c r="BR65" s="160" t="s">
+        <v>1222</v>
+      </c>
+      <c r="BS65" s="160"/>
+      <c r="BT65" s="160"/>
+      <c r="BU65" s="160"/>
+      <c r="BV65" s="160" t="s">
+        <v>1223</v>
+      </c>
+      <c r="BW65" s="160"/>
+      <c r="BX65" s="160"/>
+      <c r="BY65" s="160"/>
+      <c r="BZ65" s="160" t="s">
+        <v>1224</v>
+      </c>
+      <c r="CA65" s="160"/>
+      <c r="CB65" s="160"/>
+      <c r="CC65" s="160"/>
+    </row>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="158"/>
+      <c r="B66" s="158"/>
+      <c r="C66" s="158"/>
+      <c r="D66" s="158"/>
+      <c r="E66" s="158"/>
+      <c r="F66" s="158"/>
+      <c r="G66" s="158"/>
+      <c r="H66" s="158"/>
+      <c r="I66" s="158"/>
+      <c r="J66" s="158"/>
+      <c r="K66" s="158"/>
+      <c r="L66" s="158"/>
+      <c r="M66" s="158"/>
+      <c r="N66" s="158"/>
+      <c r="O66" s="158"/>
+      <c r="P66" s="158"/>
+      <c r="Q66" s="158"/>
+      <c r="R66" s="158"/>
+      <c r="S66" s="158"/>
+      <c r="T66" s="158"/>
+      <c r="U66" s="158"/>
+      <c r="V66" s="158"/>
+      <c r="W66" s="158"/>
+      <c r="X66" s="158"/>
+      <c r="Y66" s="158"/>
+      <c r="Z66" s="158"/>
+      <c r="AA66" s="158"/>
+      <c r="AB66" s="158"/>
+      <c r="AC66" s="158"/>
+      <c r="AD66" s="158"/>
+      <c r="AE66" s="158"/>
+      <c r="AF66" s="158"/>
+      <c r="AG66" s="158"/>
+      <c r="AH66" s="158"/>
+      <c r="AI66" s="158"/>
+      <c r="AJ66" s="158"/>
+      <c r="AK66" s="158"/>
+      <c r="AL66" s="158"/>
+      <c r="AM66" s="158"/>
+      <c r="AN66" s="158"/>
+      <c r="AO66" s="158"/>
+      <c r="AP66" s="158"/>
+      <c r="AQ66" s="158"/>
+      <c r="AR66" s="158"/>
+      <c r="AS66" s="158"/>
+      <c r="AT66" s="158"/>
+      <c r="AU66" s="158"/>
+      <c r="AV66" s="158"/>
+      <c r="AW66" s="158"/>
+      <c r="AX66" s="158"/>
+      <c r="AY66" s="158"/>
+      <c r="AZ66" s="158"/>
+      <c r="BA66" s="158"/>
+      <c r="BB66" s="158"/>
+      <c r="BC66" s="158"/>
+      <c r="BD66" s="158"/>
+      <c r="BE66" s="158"/>
+      <c r="BF66" s="158"/>
+      <c r="BG66" s="158"/>
+      <c r="BH66" s="158"/>
+      <c r="BI66" s="158"/>
+      <c r="BJ66" s="158"/>
+      <c r="BK66" s="158"/>
+      <c r="BL66" s="158"/>
+      <c r="BM66" s="158"/>
+      <c r="BN66" s="158"/>
+      <c r="BO66" s="158"/>
+      <c r="BP66" s="158"/>
+      <c r="BQ66" s="158"/>
+      <c r="BR66" s="158"/>
+      <c r="BS66" s="158"/>
+      <c r="BT66" s="158"/>
+      <c r="BU66" s="158"/>
+      <c r="BV66" s="158"/>
+      <c r="BW66" s="158"/>
+      <c r="BX66" s="158"/>
+      <c r="BY66" s="158"/>
+      <c r="BZ66" s="158"/>
+      <c r="CA66" s="158"/>
+      <c r="CB66" s="158"/>
+      <c r="CC66" s="158"/>
+    </row>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="158"/>
+      <c r="B67" s="158"/>
+      <c r="C67" s="158"/>
+      <c r="D67" s="158"/>
+      <c r="E67" s="158"/>
+      <c r="F67" s="158"/>
+      <c r="G67" s="158"/>
+      <c r="H67" s="158"/>
+      <c r="I67" s="158"/>
+      <c r="J67" s="158"/>
+      <c r="K67" s="158"/>
+      <c r="L67" s="158"/>
+      <c r="M67" s="158"/>
+      <c r="N67" s="158"/>
+      <c r="O67" s="158"/>
+      <c r="P67" s="158"/>
+      <c r="Q67" s="158"/>
+      <c r="R67" s="158"/>
+      <c r="S67" s="158"/>
+      <c r="T67" s="158"/>
+      <c r="U67" s="158"/>
+      <c r="V67" s="158"/>
+      <c r="W67" s="158"/>
+      <c r="X67" s="158"/>
+      <c r="Y67" s="158"/>
+      <c r="Z67" s="158"/>
+      <c r="AA67" s="158"/>
+      <c r="AB67" s="158"/>
+      <c r="AC67" s="158"/>
+      <c r="AD67" s="158"/>
+      <c r="AE67" s="158"/>
+      <c r="AF67" s="158"/>
+      <c r="AG67" s="158"/>
+      <c r="AH67" s="158"/>
+      <c r="AI67" s="158"/>
+      <c r="AJ67" s="158"/>
+      <c r="AK67" s="158"/>
+      <c r="AL67" s="158"/>
+      <c r="AM67" s="158"/>
+      <c r="AN67" s="158"/>
+      <c r="AO67" s="158"/>
+      <c r="AP67" s="158"/>
+      <c r="AQ67" s="158"/>
+      <c r="AR67" s="158"/>
+      <c r="AS67" s="158"/>
+      <c r="AT67" s="158"/>
+      <c r="AU67" s="158"/>
+      <c r="AV67" s="158"/>
+      <c r="AW67" s="158"/>
+      <c r="AX67" s="158"/>
+      <c r="AY67" s="158"/>
+      <c r="AZ67" s="158"/>
+      <c r="BA67" s="158"/>
+      <c r="BB67" s="158"/>
+      <c r="BC67" s="158"/>
+      <c r="BD67" s="158"/>
+      <c r="BE67" s="158"/>
+      <c r="BF67" s="158"/>
+      <c r="BG67" s="158"/>
+      <c r="BH67" s="158"/>
+      <c r="BI67" s="158"/>
+      <c r="BJ67" s="158"/>
+      <c r="BK67" s="158"/>
+      <c r="BL67" s="158"/>
+      <c r="BM67" s="158"/>
+      <c r="BN67" s="158"/>
+      <c r="BO67" s="158"/>
+      <c r="BP67" s="158"/>
+      <c r="BQ67" s="158"/>
+      <c r="BR67" s="158"/>
+      <c r="BS67" s="158"/>
+      <c r="BT67" s="158"/>
+      <c r="BU67" s="158"/>
+      <c r="BV67" s="158"/>
+      <c r="BW67" s="158"/>
+      <c r="BX67" s="158"/>
+      <c r="BY67" s="158"/>
+      <c r="BZ67" s="158"/>
+      <c r="CA67" s="158"/>
+      <c r="CB67" s="158"/>
+      <c r="CC67" s="158"/>
+    </row>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="158"/>
+      <c r="B68" s="158"/>
+      <c r="C68" s="158"/>
+      <c r="D68" s="158"/>
+      <c r="E68" s="158"/>
+      <c r="F68" s="158"/>
+      <c r="G68" s="158"/>
+      <c r="H68" s="158"/>
+      <c r="I68" s="158"/>
+      <c r="J68" s="158"/>
+      <c r="K68" s="158"/>
+      <c r="L68" s="158"/>
+      <c r="M68" s="158"/>
+      <c r="N68" s="158"/>
+      <c r="O68" s="158"/>
+      <c r="P68" s="158"/>
+      <c r="Q68" s="158"/>
+      <c r="R68" s="158"/>
+      <c r="S68" s="158"/>
+      <c r="T68" s="158"/>
+      <c r="U68" s="158"/>
+      <c r="V68" s="158"/>
+      <c r="W68" s="158"/>
+      <c r="X68" s="158"/>
+      <c r="Y68" s="158"/>
+      <c r="Z68" s="158"/>
+      <c r="AA68" s="158"/>
+      <c r="AB68" s="158"/>
+      <c r="AC68" s="158"/>
+      <c r="AD68" s="158"/>
+      <c r="AE68" s="158"/>
+      <c r="AF68" s="158"/>
+      <c r="AG68" s="158"/>
+      <c r="AH68" s="158"/>
+      <c r="AI68" s="158"/>
+      <c r="AJ68" s="158"/>
+      <c r="AK68" s="158"/>
+      <c r="AL68" s="158"/>
+      <c r="AM68" s="158"/>
+      <c r="AN68" s="158"/>
+      <c r="AO68" s="158"/>
+      <c r="AP68" s="158"/>
+      <c r="AQ68" s="158"/>
+      <c r="AR68" s="158"/>
+      <c r="AS68" s="158"/>
+      <c r="AT68" s="158"/>
+      <c r="AU68" s="158"/>
+      <c r="AV68" s="158"/>
+      <c r="AW68" s="158"/>
+      <c r="AX68" s="158"/>
+      <c r="AY68" s="158"/>
+      <c r="AZ68" s="158"/>
+      <c r="BA68" s="158"/>
+      <c r="BB68" s="158"/>
+      <c r="BC68" s="158"/>
+      <c r="BD68" s="158"/>
+      <c r="BE68" s="158"/>
+      <c r="BF68" s="158"/>
+      <c r="BG68" s="158"/>
+      <c r="BH68" s="158"/>
+      <c r="BI68" s="158"/>
+      <c r="BJ68" s="158"/>
+      <c r="BK68" s="158"/>
+      <c r="BL68" s="158"/>
+      <c r="BM68" s="158"/>
+      <c r="BN68" s="158"/>
+      <c r="BO68" s="158"/>
+      <c r="BP68" s="158"/>
+      <c r="BQ68" s="158"/>
+      <c r="BR68" s="158"/>
+      <c r="BS68" s="158"/>
+      <c r="BT68" s="158"/>
+      <c r="BU68" s="158"/>
+      <c r="BV68" s="158"/>
+      <c r="BW68" s="158"/>
+      <c r="BX68" s="158"/>
+      <c r="BY68" s="158"/>
+      <c r="BZ68" s="158"/>
+      <c r="CA68" s="158"/>
+      <c r="CB68" s="158"/>
+      <c r="CC68" s="158"/>
+    </row>
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="158"/>
+      <c r="B69" s="158"/>
+      <c r="C69" s="158"/>
+      <c r="D69" s="158"/>
+      <c r="E69" s="158"/>
+      <c r="F69" s="158"/>
+      <c r="G69" s="158"/>
+      <c r="H69" s="158"/>
+      <c r="I69" s="158"/>
+      <c r="J69" s="158"/>
+      <c r="K69" s="158"/>
+      <c r="L69" s="158"/>
+      <c r="M69" s="158"/>
+      <c r="N69" s="158"/>
+      <c r="O69" s="158"/>
+      <c r="P69" s="158"/>
+      <c r="Q69" s="158"/>
+      <c r="R69" s="158"/>
+      <c r="S69" s="158"/>
+      <c r="T69" s="158"/>
+      <c r="U69" s="158"/>
+      <c r="V69" s="158"/>
+      <c r="W69" s="158"/>
+      <c r="X69" s="158"/>
+      <c r="Y69" s="158"/>
+      <c r="Z69" s="158"/>
+      <c r="AA69" s="158"/>
+      <c r="AB69" s="158"/>
+      <c r="AC69" s="158"/>
+      <c r="AD69" s="158"/>
+      <c r="AE69" s="158"/>
+      <c r="AF69" s="158"/>
+      <c r="AG69" s="158"/>
+      <c r="AH69" s="158"/>
+      <c r="AI69" s="158"/>
+      <c r="AJ69" s="158"/>
+      <c r="AK69" s="158"/>
+      <c r="AL69" s="158"/>
+      <c r="AM69" s="158"/>
+      <c r="AN69" s="158"/>
+      <c r="AO69" s="158"/>
+      <c r="AP69" s="158"/>
+      <c r="AQ69" s="158"/>
+      <c r="AR69" s="158"/>
+      <c r="AS69" s="158"/>
+      <c r="AT69" s="158"/>
+      <c r="AU69" s="158"/>
+      <c r="AV69" s="158"/>
+      <c r="AW69" s="158"/>
+      <c r="AX69" s="158"/>
+      <c r="AY69" s="158"/>
+      <c r="AZ69" s="158"/>
+      <c r="BA69" s="158"/>
+      <c r="BB69" s="158"/>
+      <c r="BC69" s="158"/>
+      <c r="BD69" s="158"/>
+      <c r="BE69" s="158"/>
+      <c r="BF69" s="158"/>
+      <c r="BG69" s="158"/>
+      <c r="BH69" s="158"/>
+      <c r="BI69" s="158"/>
+      <c r="BJ69" s="158"/>
+      <c r="BK69" s="158"/>
+      <c r="BL69" s="158"/>
+      <c r="BM69" s="158"/>
+      <c r="BN69" s="158"/>
+      <c r="BO69" s="158"/>
+      <c r="BP69" s="158"/>
+      <c r="BQ69" s="158"/>
+      <c r="BR69" s="158"/>
+      <c r="BS69" s="158"/>
+      <c r="BT69" s="158"/>
+      <c r="BU69" s="158"/>
+      <c r="BV69" s="158"/>
+      <c r="BW69" s="158"/>
+      <c r="BX69" s="158"/>
+      <c r="BY69" s="158"/>
+      <c r="BZ69" s="158"/>
+      <c r="CA69" s="158"/>
+      <c r="CB69" s="158"/>
+      <c r="CC69" s="158"/>
     </row>
   </sheetData>
   <mergeCells count="40">
@@ -37485,39 +38419,39 @@
     <mergeCell ref="BR1:BU1"/>
     <mergeCell ref="BV1:BY1"/>
     <mergeCell ref="BZ1:CC1"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="F59:H59"/>
-    <mergeCell ref="J59:L59"/>
-    <mergeCell ref="N59:P59"/>
-    <mergeCell ref="R59:T59"/>
-    <mergeCell ref="V59:X59"/>
-    <mergeCell ref="Z59:AB59"/>
-    <mergeCell ref="AD59:AF59"/>
-    <mergeCell ref="AH59:AJ59"/>
-    <mergeCell ref="AL59:AN59"/>
-    <mergeCell ref="AP59:AR59"/>
-    <mergeCell ref="AT59:AV59"/>
-    <mergeCell ref="AX59:AZ59"/>
-    <mergeCell ref="BB59:BD59"/>
-    <mergeCell ref="BF59:BH59"/>
-    <mergeCell ref="BJ59:BL59"/>
-    <mergeCell ref="BN59:BP59"/>
-    <mergeCell ref="BR59:BT59"/>
-    <mergeCell ref="BV59:BX59"/>
-    <mergeCell ref="BZ59:CB59"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="F65:H65"/>
+    <mergeCell ref="J65:L65"/>
+    <mergeCell ref="N65:P65"/>
+    <mergeCell ref="R65:T65"/>
+    <mergeCell ref="V65:X65"/>
+    <mergeCell ref="Z65:AB65"/>
+    <mergeCell ref="AD65:AF65"/>
+    <mergeCell ref="AH65:AJ65"/>
+    <mergeCell ref="AL65:AN65"/>
+    <mergeCell ref="AP65:AR65"/>
+    <mergeCell ref="AT65:AV65"/>
+    <mergeCell ref="AX65:AZ65"/>
+    <mergeCell ref="BB65:BD65"/>
+    <mergeCell ref="BF65:BH65"/>
+    <mergeCell ref="BJ65:BL65"/>
+    <mergeCell ref="BN65:BP65"/>
+    <mergeCell ref="BR65:BT65"/>
+    <mergeCell ref="BV65:BX65"/>
+    <mergeCell ref="BZ65:CB65"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" display="ISO 639-1 &gt;&gt;&#10;https://en.wikipedia.org/wiki/List_of_ISO_639-1_codes"/>
-    <hyperlink ref="B59" r:id="rId2" display="https://www.branah.com/english"/>
-    <hyperlink ref="R59" r:id="rId3" display="https://www.branah.com/portuguese"/>
-    <hyperlink ref="V59" r:id="rId4" display="https://www.branah.com/italian"/>
-    <hyperlink ref="AP59" r:id="rId5" display="https://www.branah.com/greek"/>
-    <hyperlink ref="AT59" r:id="rId6" display="https://www.branah.com/ukrainian"/>
-    <hyperlink ref="AX59" r:id="rId7" display="https://www.branah.com/russian"/>
-    <hyperlink ref="BB59" r:id="rId8" display="https://www.branah.com/belarusian"/>
-    <hyperlink ref="BF59" r:id="rId9" display="https://www.branah.com/kazakh"/>
-    <hyperlink ref="BJ59" r:id="rId10" display="https://www.branah.com/bulgarian"/>
-    <hyperlink ref="BR59" r:id="rId11" display="https://www.branah.com/romanian"/>
+    <hyperlink ref="B65" r:id="rId2" display="https://www.branah.com/english"/>
+    <hyperlink ref="R65" r:id="rId3" display="https://www.branah.com/portuguese"/>
+    <hyperlink ref="V65" r:id="rId4" display="https://www.branah.com/italian"/>
+    <hyperlink ref="AP65" r:id="rId5" display="https://www.branah.com/greek"/>
+    <hyperlink ref="AT65" r:id="rId6" display="https://www.branah.com/ukrainian"/>
+    <hyperlink ref="AX65" r:id="rId7" display="https://www.branah.com/russian"/>
+    <hyperlink ref="BB65" r:id="rId8" display="https://www.branah.com/belarusian"/>
+    <hyperlink ref="BF65" r:id="rId9" display="https://www.branah.com/kazakh"/>
+    <hyperlink ref="BJ65" r:id="rId10" display="https://www.branah.com/bulgarian"/>
+    <hyperlink ref="BR65" r:id="rId11" display="https://www.branah.com/romanian"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -37540,90 +38474,90 @@
       <selection pane="topLeft" activeCell="O82" activeCellId="0" sqref="O82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="168" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="161" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="168" t="s">
+      <c r="A1" s="161" t="s">
         <v>1013</v>
       </c>
-      <c r="B1" s="169" t="s">
-        <v>1219</v>
-      </c>
-      <c r="C1" s="169" t="s">
-        <v>1220</v>
-      </c>
-      <c r="D1" s="169" t="s">
-        <v>1221</v>
-      </c>
-      <c r="E1" s="169" t="s">
-        <v>1222</v>
-      </c>
-      <c r="F1" s="169" t="s">
-        <v>1223</v>
-      </c>
-      <c r="G1" s="169" t="s">
-        <v>1224</v>
-      </c>
-      <c r="H1" s="169" t="s">
+      <c r="B1" s="162" t="s">
         <v>1225</v>
       </c>
-      <c r="I1" s="169" t="s">
+      <c r="C1" s="162" t="s">
         <v>1226</v>
       </c>
-      <c r="J1" s="169" t="s">
+      <c r="D1" s="162" t="s">
         <v>1227</v>
       </c>
-      <c r="K1" s="169" t="s">
+      <c r="E1" s="162" t="s">
         <v>1228</v>
       </c>
+      <c r="F1" s="162" t="s">
+        <v>1229</v>
+      </c>
+      <c r="G1" s="162" t="s">
+        <v>1230</v>
+      </c>
+      <c r="H1" s="162" t="s">
+        <v>1231</v>
+      </c>
+      <c r="I1" s="162" t="s">
+        <v>1232</v>
+      </c>
+      <c r="J1" s="162" t="s">
+        <v>1233</v>
+      </c>
+      <c r="K1" s="162" t="s">
+        <v>1234</v>
+      </c>
       <c r="N1" s="1" t="s">
-        <v>1229</v>
+        <v>1235</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>1230</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="169" t="str">
+      <c r="B2" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(B1))</f>
         <v>C0</v>
       </c>
-      <c r="C2" s="169" t="str">
+      <c r="C2" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(C1))</f>
         <v>C1</v>
       </c>
-      <c r="D2" s="169" t="str">
+      <c r="D2" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(D1))</f>
         <v>C2</v>
       </c>
-      <c r="E2" s="169" t="str">
+      <c r="E2" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(E1))</f>
         <v>C3</v>
       </c>
-      <c r="F2" s="169" t="str">
+      <c r="F2" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(F1))</f>
         <v>C4</v>
       </c>
-      <c r="G2" s="169" t="str">
+      <c r="G2" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(G1))</f>
         <v>C5</v>
       </c>
-      <c r="H2" s="169" t="str">
+      <c r="H2" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(H1))</f>
         <v>C6</v>
       </c>
-      <c r="I2" s="169" t="str">
+      <c r="I2" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(I1))</f>
         <v>100</v>
       </c>
-      <c r="J2" s="169" t="str">
+      <c r="J2" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(J1))</f>
         <v>102</v>
       </c>
-      <c r="K2" s="169" t="str">
+      <c r="K2" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(K1))</f>
         <v>104</v>
       </c>
@@ -37637,78 +38571,78 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="168" t="s">
+      <c r="A3" s="161" t="s">
         <v>1012</v>
       </c>
-      <c r="B3" s="169" t="s">
-        <v>1231</v>
-      </c>
-      <c r="C3" s="169" t="s">
-        <v>1232</v>
-      </c>
-      <c r="D3" s="169" t="s">
-        <v>1233</v>
-      </c>
-      <c r="E3" s="169" t="s">
-        <v>1234</v>
-      </c>
-      <c r="F3" s="169" t="s">
-        <v>1235</v>
-      </c>
-      <c r="G3" s="169" t="s">
-        <v>1236</v>
-      </c>
-      <c r="H3" s="169" t="s">
+      <c r="B3" s="162" t="s">
         <v>1237</v>
       </c>
-      <c r="I3" s="169" t="s">
+      <c r="C3" s="162" t="s">
         <v>1238</v>
       </c>
-      <c r="J3" s="169" t="s">
+      <c r="D3" s="162" t="s">
         <v>1239</v>
       </c>
-      <c r="K3" s="169" t="s">
+      <c r="E3" s="162" t="s">
         <v>1240</v>
       </c>
+      <c r="F3" s="162" t="s">
+        <v>1241</v>
+      </c>
+      <c r="G3" s="162" t="s">
+        <v>1242</v>
+      </c>
+      <c r="H3" s="162" t="s">
+        <v>1243</v>
+      </c>
+      <c r="I3" s="162" t="s">
+        <v>1244</v>
+      </c>
+      <c r="J3" s="162" t="s">
+        <v>1245</v>
+      </c>
+      <c r="K3" s="162" t="s">
+        <v>1246</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="169" t="str">
+      <c r="B4" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(B3))</f>
         <v>E0</v>
       </c>
-      <c r="C4" s="169" t="str">
+      <c r="C4" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(C3))</f>
         <v>E1</v>
       </c>
-      <c r="D4" s="169" t="str">
+      <c r="D4" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(D3))</f>
         <v>E2</v>
       </c>
-      <c r="E4" s="169" t="str">
+      <c r="E4" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(E3))</f>
         <v>E3</v>
       </c>
-      <c r="F4" s="169" t="str">
+      <c r="F4" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(F3))</f>
         <v>E4</v>
       </c>
-      <c r="G4" s="169" t="str">
+      <c r="G4" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(G3))</f>
         <v>E5</v>
       </c>
-      <c r="H4" s="169" t="str">
+      <c r="H4" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(H3))</f>
         <v>E6</v>
       </c>
-      <c r="I4" s="169" t="str">
+      <c r="I4" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(I3))</f>
         <v>101</v>
       </c>
-      <c r="J4" s="169" t="str">
+      <c r="J4" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(J3))</f>
         <v>103</v>
       </c>
-      <c r="K4" s="169" t="str">
+      <c r="K4" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(K3))</f>
         <v>105</v>
       </c>
@@ -37722,48 +38656,48 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="168" t="s">
+      <c r="A5" s="161" t="s">
         <v>1022</v>
       </c>
-      <c r="B5" s="169" t="s">
-        <v>1241</v>
-      </c>
-      <c r="C5" s="169" t="s">
-        <v>1242</v>
-      </c>
-      <c r="D5" s="169" t="s">
-        <v>1243</v>
-      </c>
-      <c r="E5" s="169" t="s">
-        <v>1244</v>
-      </c>
-      <c r="F5" s="169" t="s">
-        <v>1245</v>
-      </c>
-      <c r="J5" s="169"/>
+      <c r="B5" s="162" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C5" s="162" t="s">
+        <v>1248</v>
+      </c>
+      <c r="D5" s="162" t="s">
+        <v>1249</v>
+      </c>
+      <c r="E5" s="162" t="s">
+        <v>1250</v>
+      </c>
+      <c r="F5" s="162" t="s">
+        <v>1251</v>
+      </c>
+      <c r="J5" s="162"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="169" t="str">
+      <c r="B6" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(B5))</f>
         <v>C7</v>
       </c>
-      <c r="C6" s="169" t="str">
+      <c r="C6" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(C5))</f>
         <v>106</v>
       </c>
-      <c r="D6" s="169" t="str">
+      <c r="D6" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(D5))</f>
         <v>108</v>
       </c>
-      <c r="E6" s="169" t="str">
+      <c r="E6" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(E5))</f>
         <v>10A</v>
       </c>
-      <c r="F6" s="169" t="str">
+      <c r="F6" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(F5))</f>
         <v>10C</v>
       </c>
-      <c r="J6" s="169"/>
+      <c r="J6" s="162"/>
       <c r="N6" s="1" t="n">
         <f aca="false">MIN(com.sun.star.sheet.addin.Analysis.getHex2Dec(B6),com.sun.star.sheet.addin.Analysis.getHex2Dec(C6),com.sun.star.sheet.addin.Analysis.getHex2Dec(D6),com.sun.star.sheet.addin.Analysis.getHex2Dec(E6),com.sun.star.sheet.addin.Analysis.getHex2Dec(F6))</f>
         <v>199</v>
@@ -37774,43 +38708,43 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="168" t="s">
+      <c r="A7" s="161" t="s">
         <v>1021</v>
       </c>
-      <c r="B7" s="169" t="s">
-        <v>1246</v>
-      </c>
-      <c r="C7" s="169" t="s">
-        <v>1247</v>
-      </c>
-      <c r="D7" s="169" t="s">
-        <v>1248</v>
-      </c>
-      <c r="E7" s="169" t="s">
-        <v>1249</v>
-      </c>
-      <c r="F7" s="169" t="s">
-        <v>1250</v>
+      <c r="B7" s="162" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C7" s="162" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D7" s="162" t="s">
+        <v>1254</v>
+      </c>
+      <c r="E7" s="162" t="s">
+        <v>1255</v>
+      </c>
+      <c r="F7" s="162" t="s">
+        <v>1256</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="169" t="str">
+      <c r="B8" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(B7))</f>
         <v>E7</v>
       </c>
-      <c r="C8" s="169" t="str">
+      <c r="C8" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(C7))</f>
         <v>107</v>
       </c>
-      <c r="D8" s="169" t="str">
+      <c r="D8" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(D7))</f>
         <v>109</v>
       </c>
-      <c r="E8" s="169" t="str">
+      <c r="E8" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(E7))</f>
         <v>10B</v>
       </c>
-      <c r="F8" s="169" t="str">
+      <c r="F8" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(F7))</f>
         <v>10D</v>
       </c>
@@ -37824,34 +38758,34 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="168" t="s">
+      <c r="A9" s="161" t="s">
         <v>1025</v>
       </c>
-      <c r="B9" s="169" t="s">
-        <v>1251</v>
-      </c>
-      <c r="C9" s="169" t="s">
-        <v>1252</v>
-      </c>
-      <c r="D9" s="169" t="s">
-        <v>1253</v>
-      </c>
-      <c r="J9" s="169"/>
+      <c r="B9" s="162" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C9" s="162" t="s">
+        <v>1258</v>
+      </c>
+      <c r="D9" s="162" t="s">
+        <v>1259</v>
+      </c>
+      <c r="J9" s="162"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="169" t="str">
+      <c r="B10" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(B9))</f>
         <v>D0</v>
       </c>
-      <c r="C10" s="169" t="str">
+      <c r="C10" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(C9))</f>
         <v>10E</v>
       </c>
-      <c r="D10" s="169" t="str">
+      <c r="D10" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(D9))</f>
         <v>110</v>
       </c>
-      <c r="J10" s="169"/>
+      <c r="J10" s="162"/>
       <c r="N10" s="1" t="n">
         <f aca="false">MIN(com.sun.star.sheet.addin.Analysis.getHex2Dec(B10),com.sun.star.sheet.addin.Analysis.getHex2Dec(C10),com.sun.star.sheet.addin.Analysis.getHex2Dec(D10))</f>
         <v>208</v>
@@ -37862,38 +38796,38 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="168" t="s">
+      <c r="A11" s="161" t="s">
         <v>1024</v>
       </c>
-      <c r="B11" s="169" t="s">
-        <v>1254</v>
-      </c>
-      <c r="C11" s="169" t="s">
-        <v>1255</v>
-      </c>
-      <c r="D11" s="169" t="s">
-        <v>1256</v>
-      </c>
-      <c r="E11" s="169"/>
-      <c r="G11" s="169"/>
+      <c r="B11" s="162" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C11" s="162" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D11" s="162" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E11" s="162"/>
+      <c r="G11" s="162"/>
       <c r="S11" s="12"/>
       <c r="T11" s="12"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="169" t="str">
+      <c r="B12" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(B11))</f>
         <v>F0</v>
       </c>
-      <c r="C12" s="169" t="str">
+      <c r="C12" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(C11))</f>
         <v>10F</v>
       </c>
-      <c r="D12" s="169" t="str">
+      <c r="D12" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(D11))</f>
         <v>111</v>
       </c>
-      <c r="E12" s="169"/>
-      <c r="G12" s="169"/>
+      <c r="E12" s="162"/>
+      <c r="G12" s="162"/>
       <c r="N12" s="1" t="n">
         <f aca="false">MIN(com.sun.star.sheet.addin.Analysis.getHex2Dec(B12),com.sun.star.sheet.addin.Analysis.getHex2Dec(C12),com.sun.star.sheet.addin.Analysis.getHex2Dec(D12))</f>
         <v>240</v>
@@ -37906,71 +38840,71 @@
       <c r="T12" s="12"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="168" t="s">
+      <c r="A13" s="161" t="s">
         <v>1030</v>
       </c>
-      <c r="B13" s="169" t="s">
-        <v>1257</v>
-      </c>
-      <c r="C13" s="169" t="s">
-        <v>1258</v>
-      </c>
-      <c r="D13" s="169" t="s">
-        <v>1259</v>
-      </c>
-      <c r="E13" s="169" t="s">
-        <v>1260</v>
-      </c>
-      <c r="F13" s="169" t="s">
-        <v>1261</v>
-      </c>
-      <c r="G13" s="169" t="s">
-        <v>1262</v>
-      </c>
-      <c r="H13" s="169" t="s">
+      <c r="B13" s="162" t="s">
         <v>1263</v>
       </c>
-      <c r="I13" s="169" t="s">
+      <c r="C13" s="162" t="s">
         <v>1264</v>
       </c>
-      <c r="J13" s="169" t="s">
+      <c r="D13" s="162" t="s">
         <v>1265</v>
       </c>
+      <c r="E13" s="162" t="s">
+        <v>1266</v>
+      </c>
+      <c r="F13" s="162" t="s">
+        <v>1267</v>
+      </c>
+      <c r="G13" s="162" t="s">
+        <v>1268</v>
+      </c>
+      <c r="H13" s="162" t="s">
+        <v>1269</v>
+      </c>
+      <c r="I13" s="162" t="s">
+        <v>1270</v>
+      </c>
+      <c r="J13" s="162" t="s">
+        <v>1271</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="169" t="str">
+      <c r="B14" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(B13))</f>
         <v>C8</v>
       </c>
-      <c r="C14" s="169" t="str">
+      <c r="C14" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(C13))</f>
         <v>C9</v>
       </c>
-      <c r="D14" s="169" t="str">
+      <c r="D14" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(D13))</f>
         <v>CA</v>
       </c>
-      <c r="E14" s="169" t="str">
+      <c r="E14" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(E13))</f>
         <v>CB</v>
       </c>
-      <c r="F14" s="169" t="str">
+      <c r="F14" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(F13))</f>
         <v>112</v>
       </c>
-      <c r="G14" s="169" t="str">
+      <c r="G14" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(G13))</f>
         <v>114</v>
       </c>
-      <c r="H14" s="169" t="str">
+      <c r="H14" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(H13))</f>
         <v>116</v>
       </c>
-      <c r="I14" s="169" t="str">
+      <c r="I14" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(I13))</f>
         <v>118</v>
       </c>
-      <c r="J14" s="169" t="str">
+      <c r="J14" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(J13))</f>
         <v>11A</v>
       </c>
@@ -37984,71 +38918,71 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="168" t="s">
+      <c r="A15" s="161" t="s">
         <v>1029</v>
       </c>
-      <c r="B15" s="169" t="s">
-        <v>1266</v>
-      </c>
-      <c r="C15" s="169" t="s">
-        <v>1267</v>
-      </c>
-      <c r="D15" s="169" t="s">
-        <v>1268</v>
-      </c>
-      <c r="E15" s="169" t="s">
-        <v>1269</v>
-      </c>
-      <c r="F15" s="169" t="s">
-        <v>1270</v>
-      </c>
-      <c r="G15" s="169" t="s">
-        <v>1271</v>
-      </c>
-      <c r="H15" s="169" t="s">
+      <c r="B15" s="162" t="s">
         <v>1272</v>
       </c>
-      <c r="I15" s="169" t="s">
+      <c r="C15" s="162" t="s">
         <v>1273</v>
       </c>
-      <c r="J15" s="169" t="s">
+      <c r="D15" s="162" t="s">
         <v>1274</v>
       </c>
+      <c r="E15" s="162" t="s">
+        <v>1275</v>
+      </c>
+      <c r="F15" s="162" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G15" s="162" t="s">
+        <v>1277</v>
+      </c>
+      <c r="H15" s="162" t="s">
+        <v>1278</v>
+      </c>
+      <c r="I15" s="162" t="s">
+        <v>1279</v>
+      </c>
+      <c r="J15" s="162" t="s">
+        <v>1280</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="169" t="str">
+      <c r="B16" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(B15))</f>
         <v>E8</v>
       </c>
-      <c r="C16" s="169" t="str">
+      <c r="C16" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(C15))</f>
         <v>E9</v>
       </c>
-      <c r="D16" s="169" t="str">
+      <c r="D16" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(D15))</f>
         <v>EA</v>
       </c>
-      <c r="E16" s="169" t="str">
+      <c r="E16" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(E15))</f>
         <v>EB</v>
       </c>
-      <c r="F16" s="169" t="str">
+      <c r="F16" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(F15))</f>
         <v>113</v>
       </c>
-      <c r="G16" s="169" t="str">
+      <c r="G16" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(G15))</f>
         <v>115</v>
       </c>
-      <c r="H16" s="169" t="str">
+      <c r="H16" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(H15))</f>
         <v>117</v>
       </c>
-      <c r="I16" s="169" t="str">
+      <c r="I16" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(I15))</f>
         <v>119</v>
       </c>
-      <c r="J16" s="169" t="str">
+      <c r="J16" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(J15))</f>
         <v>11B</v>
       </c>
@@ -38062,36 +38996,36 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="168" t="s">
+      <c r="A17" s="161" t="s">
         <v>1038</v>
       </c>
-      <c r="B17" s="169" t="s">
-        <v>1275</v>
-      </c>
-      <c r="C17" s="169" t="s">
-        <v>1276</v>
-      </c>
-      <c r="D17" s="169" t="s">
-        <v>1277</v>
-      </c>
-      <c r="E17" s="169" t="s">
-        <v>1278</v>
+      <c r="B17" s="162" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C17" s="162" t="s">
+        <v>1282</v>
+      </c>
+      <c r="D17" s="162" t="s">
+        <v>1283</v>
+      </c>
+      <c r="E17" s="162" t="s">
+        <v>1284</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="169" t="str">
+      <c r="B18" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(B17))</f>
         <v>11C</v>
       </c>
-      <c r="C18" s="169" t="str">
+      <c r="C18" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(C17))</f>
         <v>11E</v>
       </c>
-      <c r="D18" s="169" t="str">
+      <c r="D18" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(D17))</f>
         <v>120</v>
       </c>
-      <c r="E18" s="169" t="str">
+      <c r="E18" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(E17))</f>
         <v>122</v>
       </c>
@@ -38105,36 +39039,36 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="168" t="s">
+      <c r="A19" s="161" t="s">
         <v>1037</v>
       </c>
-      <c r="B19" s="169" t="s">
-        <v>1279</v>
-      </c>
-      <c r="C19" s="169" t="s">
-        <v>1280</v>
-      </c>
-      <c r="D19" s="169" t="s">
-        <v>1281</v>
-      </c>
-      <c r="E19" s="169" t="s">
-        <v>1282</v>
+      <c r="B19" s="162" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C19" s="162" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D19" s="162" t="s">
+        <v>1287</v>
+      </c>
+      <c r="E19" s="162" t="s">
+        <v>1288</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="169" t="str">
+      <c r="B20" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(B19))</f>
         <v>11D</v>
       </c>
-      <c r="C20" s="169" t="str">
+      <c r="C20" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(C19))</f>
         <v>11F</v>
       </c>
-      <c r="D20" s="169" t="str">
+      <c r="D20" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(D19))</f>
         <v>121</v>
       </c>
-      <c r="E20" s="169" t="str">
+      <c r="E20" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(E19))</f>
         <v>123</v>
       </c>
@@ -38148,23 +39082,23 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="168" t="s">
+      <c r="A21" s="161" t="s">
         <v>1041</v>
       </c>
-      <c r="B21" s="169" t="s">
-        <v>1283</v>
-      </c>
-      <c r="C21" s="169" t="s">
-        <v>1284</v>
-      </c>
-      <c r="R21" s="169"/>
+      <c r="B21" s="162" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C21" s="162" t="s">
+        <v>1290</v>
+      </c>
+      <c r="R21" s="162"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="169" t="str">
+      <c r="B22" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(B21))</f>
         <v>124</v>
       </c>
-      <c r="C22" s="169" t="str">
+      <c r="C22" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(C21))</f>
         <v>126</v>
       </c>
@@ -38176,25 +39110,25 @@
         <f aca="false">MAX(com.sun.star.sheet.addin.Analysis.getHex2Dec(B22),com.sun.star.sheet.addin.Analysis.getHex2Dec(C22),com.sun.star.sheet.addin.Analysis.getHex2Dec(D22),com.sun.star.sheet.addin.Analysis.getHex2Dec(E22),com.sun.star.sheet.addin.Analysis.getHex2Dec(F22),com.sun.star.sheet.addin.Analysis.getHex2Dec(G22),com.sun.star.sheet.addin.Analysis.getHex2Dec(H22),com.sun.star.sheet.addin.Analysis.getHex2Dec(I22),com.sun.star.sheet.addin.Analysis.getHex2Dec(J22),com.sun.star.sheet.addin.Analysis.getHex2Dec(K22))</f>
         <v>294</v>
       </c>
-      <c r="R22" s="169"/>
+      <c r="R22" s="162"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="168" t="s">
+      <c r="A23" s="161" t="s">
         <v>1040</v>
       </c>
-      <c r="B23" s="169" t="s">
-        <v>1285</v>
-      </c>
-      <c r="C23" s="169" t="s">
-        <v>1286</v>
+      <c r="B23" s="162" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C23" s="162" t="s">
+        <v>1292</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="169" t="str">
+      <c r="B24" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(B23))</f>
         <v>125</v>
       </c>
-      <c r="C24" s="169" t="str">
+      <c r="C24" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(C23))</f>
         <v>127</v>
       </c>
@@ -38208,78 +39142,78 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="168" t="s">
+      <c r="A25" s="161" t="s">
         <v>1044</v>
       </c>
-      <c r="B25" s="169" t="s">
-        <v>1287</v>
-      </c>
-      <c r="C25" s="169" t="s">
-        <v>1288</v>
-      </c>
-      <c r="D25" s="169" t="s">
-        <v>1289</v>
-      </c>
-      <c r="E25" s="169" t="s">
-        <v>1290</v>
-      </c>
-      <c r="F25" s="169" t="s">
-        <v>1291</v>
-      </c>
-      <c r="G25" s="169" t="s">
-        <v>1292</v>
-      </c>
-      <c r="H25" s="169" t="s">
+      <c r="B25" s="162" t="s">
         <v>1293</v>
       </c>
-      <c r="I25" s="169" t="s">
+      <c r="C25" s="162" t="s">
         <v>1294</v>
       </c>
-      <c r="J25" s="169" t="s">
+      <c r="D25" s="162" t="s">
         <v>1295</v>
       </c>
-      <c r="K25" s="169" t="s">
+      <c r="E25" s="162" t="s">
         <v>1296</v>
       </c>
+      <c r="F25" s="162" t="s">
+        <v>1297</v>
+      </c>
+      <c r="G25" s="162" t="s">
+        <v>1298</v>
+      </c>
+      <c r="H25" s="162" t="s">
+        <v>1299</v>
+      </c>
+      <c r="I25" s="162" t="s">
+        <v>1300</v>
+      </c>
+      <c r="J25" s="162" t="s">
+        <v>1301</v>
+      </c>
+      <c r="K25" s="162" t="s">
+        <v>1302</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="169" t="str">
+      <c r="B26" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(B25))</f>
         <v>CC</v>
       </c>
-      <c r="C26" s="169" t="str">
+      <c r="C26" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(C25))</f>
         <v>CD</v>
       </c>
-      <c r="D26" s="169" t="str">
+      <c r="D26" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(D25))</f>
         <v>CE</v>
       </c>
-      <c r="E26" s="169" t="str">
+      <c r="E26" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(E25))</f>
         <v>CF</v>
       </c>
-      <c r="F26" s="169" t="str">
+      <c r="F26" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(F25))</f>
         <v>128</v>
       </c>
-      <c r="G26" s="169" t="str">
+      <c r="G26" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(G25))</f>
         <v>12A</v>
       </c>
-      <c r="H26" s="169" t="str">
+      <c r="H26" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(H25))</f>
         <v>12C</v>
       </c>
-      <c r="I26" s="169" t="str">
+      <c r="I26" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(I25))</f>
         <v>12E</v>
       </c>
-      <c r="J26" s="169" t="str">
+      <c r="J26" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(J25))</f>
         <v>130</v>
       </c>
-      <c r="K26" s="169" t="str">
+      <c r="K26" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(K25))</f>
         <v>132</v>
       </c>
@@ -38293,78 +39227,78 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="168" t="s">
+      <c r="A27" s="161" t="s">
         <v>1044</v>
       </c>
-      <c r="B27" s="169" t="s">
-        <v>1297</v>
-      </c>
-      <c r="C27" s="169" t="s">
-        <v>1298</v>
-      </c>
-      <c r="D27" s="169" t="s">
-        <v>1299</v>
-      </c>
-      <c r="E27" s="169" t="s">
-        <v>1300</v>
-      </c>
-      <c r="F27" s="169" t="s">
-        <v>1301</v>
-      </c>
-      <c r="G27" s="169" t="s">
-        <v>1302</v>
-      </c>
-      <c r="H27" s="169" t="s">
+      <c r="B27" s="162" t="s">
         <v>1303</v>
       </c>
-      <c r="I27" s="169" t="s">
+      <c r="C27" s="162" t="s">
         <v>1304</v>
       </c>
-      <c r="J27" s="169" t="s">
+      <c r="D27" s="162" t="s">
         <v>1305</v>
       </c>
-      <c r="K27" s="169" t="s">
+      <c r="E27" s="162" t="s">
         <v>1306</v>
       </c>
+      <c r="F27" s="162" t="s">
+        <v>1307</v>
+      </c>
+      <c r="G27" s="162" t="s">
+        <v>1308</v>
+      </c>
+      <c r="H27" s="162" t="s">
+        <v>1309</v>
+      </c>
+      <c r="I27" s="162" t="s">
+        <v>1310</v>
+      </c>
+      <c r="J27" s="162" t="s">
+        <v>1311</v>
+      </c>
+      <c r="K27" s="162" t="s">
+        <v>1312</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="169" t="str">
+      <c r="B28" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(B27))</f>
         <v>EC</v>
       </c>
-      <c r="C28" s="169" t="str">
+      <c r="C28" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(C27))</f>
         <v>ED</v>
       </c>
-      <c r="D28" s="169" t="str">
+      <c r="D28" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(D27))</f>
         <v>EE</v>
       </c>
-      <c r="E28" s="169" t="str">
+      <c r="E28" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(E27))</f>
         <v>EF</v>
       </c>
-      <c r="F28" s="169" t="str">
+      <c r="F28" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(F27))</f>
         <v>129</v>
       </c>
-      <c r="G28" s="169" t="str">
+      <c r="G28" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(G27))</f>
         <v>12B</v>
       </c>
-      <c r="H28" s="169" t="str">
+      <c r="H28" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(H27))</f>
         <v>12D</v>
       </c>
-      <c r="I28" s="169" t="str">
+      <c r="I28" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(I27))</f>
         <v>12F</v>
       </c>
-      <c r="J28" s="169" t="str">
+      <c r="J28" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(J27))</f>
         <v>131</v>
       </c>
-      <c r="K28" s="169" t="str">
+      <c r="K28" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(K27))</f>
         <v>133</v>
       </c>
@@ -38378,15 +39312,15 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="168" t="s">
+      <c r="A29" s="161" t="s">
         <v>1047</v>
       </c>
-      <c r="B29" s="169" t="s">
-        <v>1307</v>
+      <c r="B29" s="162" t="s">
+        <v>1313</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="169" t="str">
+      <c r="B30" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(B29))</f>
         <v>134</v>
       </c>
@@ -38400,15 +39334,15 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="168" t="s">
+      <c r="A31" s="161" t="s">
         <v>1046</v>
       </c>
-      <c r="B31" s="169" t="s">
-        <v>1308</v>
+      <c r="B31" s="162" t="s">
+        <v>1314</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="169" t="str">
+      <c r="B32" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(B31))</f>
         <v>135</v>
       </c>
@@ -38422,15 +39356,15 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="168" t="s">
+      <c r="A33" s="161" t="s">
         <v>1050</v>
       </c>
-      <c r="B33" s="169" t="s">
-        <v>1309</v>
+      <c r="B33" s="162" t="s">
+        <v>1315</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="169" t="str">
+      <c r="B34" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(B33))</f>
         <v>136</v>
       </c>
@@ -38444,22 +39378,22 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="168" t="s">
+      <c r="A35" s="161" t="s">
         <v>1049</v>
       </c>
-      <c r="B35" s="169" t="s">
-        <v>1310</v>
-      </c>
-      <c r="C35" s="169" t="s">
-        <v>1311</v>
+      <c r="B35" s="162" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C35" s="162" t="s">
+        <v>1317</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="169" t="str">
+      <c r="B36" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(B35))</f>
         <v>137</v>
       </c>
-      <c r="C36" s="169" t="str">
+      <c r="C36" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(C35))</f>
         <v>138</v>
       </c>
@@ -38473,43 +39407,43 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="168" t="s">
+      <c r="A37" s="161" t="s">
         <v>1053</v>
       </c>
-      <c r="B37" s="169" t="s">
-        <v>1312</v>
-      </c>
-      <c r="C37" s="169" t="s">
-        <v>1313</v>
-      </c>
-      <c r="D37" s="169" t="s">
-        <v>1314</v>
-      </c>
-      <c r="E37" s="169" t="s">
-        <v>1315</v>
-      </c>
-      <c r="F37" s="169" t="s">
-        <v>1316</v>
+      <c r="B37" s="162" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C37" s="162" t="s">
+        <v>1319</v>
+      </c>
+      <c r="D37" s="162" t="s">
+        <v>1320</v>
+      </c>
+      <c r="E37" s="162" t="s">
+        <v>1321</v>
+      </c>
+      <c r="F37" s="162" t="s">
+        <v>1322</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="169" t="str">
+      <c r="B38" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(B37))</f>
         <v>139</v>
       </c>
-      <c r="C38" s="169" t="str">
+      <c r="C38" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(C37))</f>
         <v>13B</v>
       </c>
-      <c r="D38" s="169" t="str">
+      <c r="D38" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(D37))</f>
         <v>13D</v>
       </c>
-      <c r="E38" s="169" t="str">
+      <c r="E38" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(E37))</f>
         <v>13F</v>
       </c>
-      <c r="F38" s="169" t="str">
+      <c r="F38" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(F37))</f>
         <v>141</v>
       </c>
@@ -38523,43 +39457,43 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="168" t="s">
+      <c r="A39" s="161" t="s">
         <v>1052</v>
       </c>
-      <c r="B39" s="169" t="s">
-        <v>1317</v>
-      </c>
-      <c r="C39" s="169" t="s">
-        <v>1318</v>
-      </c>
-      <c r="D39" s="169" t="s">
-        <v>1319</v>
-      </c>
-      <c r="E39" s="169" t="s">
-        <v>1320</v>
-      </c>
-      <c r="F39" s="169" t="s">
-        <v>1321</v>
+      <c r="B39" s="162" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C39" s="162" t="s">
+        <v>1324</v>
+      </c>
+      <c r="D39" s="162" t="s">
+        <v>1325</v>
+      </c>
+      <c r="E39" s="162" t="s">
+        <v>1326</v>
+      </c>
+      <c r="F39" s="162" t="s">
+        <v>1327</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="169" t="str">
+      <c r="B40" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(B39))</f>
         <v>13A</v>
       </c>
-      <c r="C40" s="169" t="str">
+      <c r="C40" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(C39))</f>
         <v>13C</v>
       </c>
-      <c r="D40" s="169" t="str">
+      <c r="D40" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(D39))</f>
         <v>13E</v>
       </c>
-      <c r="E40" s="169" t="str">
+      <c r="E40" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(E39))</f>
         <v>140</v>
       </c>
-      <c r="F40" s="169" t="str">
+      <c r="F40" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(F39))</f>
         <v>142</v>
       </c>
@@ -38573,43 +39507,43 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="168" t="s">
+      <c r="A41" s="161" t="s">
         <v>1063</v>
       </c>
-      <c r="B41" s="169" t="s">
-        <v>1322</v>
-      </c>
-      <c r="C41" s="169" t="s">
-        <v>1323</v>
-      </c>
-      <c r="D41" s="169" t="s">
-        <v>1324</v>
-      </c>
-      <c r="E41" s="169" t="s">
-        <v>1325</v>
-      </c>
-      <c r="F41" s="169" t="s">
-        <v>1326</v>
+      <c r="B41" s="162" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C41" s="162" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D41" s="162" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E41" s="162" t="s">
+        <v>1331</v>
+      </c>
+      <c r="F41" s="162" t="s">
+        <v>1332</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="169" t="str">
+      <c r="B42" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(B41))</f>
         <v>D1</v>
       </c>
-      <c r="C42" s="169" t="str">
+      <c r="C42" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(C41))</f>
         <v>143</v>
       </c>
-      <c r="D42" s="169" t="str">
+      <c r="D42" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(D41))</f>
         <v>145</v>
       </c>
-      <c r="E42" s="169" t="str">
+      <c r="E42" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(E41))</f>
         <v>147</v>
       </c>
-      <c r="F42" s="169" t="str">
+      <c r="F42" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(F41))</f>
         <v>14A</v>
       </c>
@@ -38623,50 +39557,50 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="168" t="s">
+      <c r="A43" s="161" t="s">
         <v>1062</v>
       </c>
-      <c r="B43" s="169" t="s">
-        <v>1327</v>
-      </c>
-      <c r="C43" s="169" t="s">
-        <v>1328</v>
-      </c>
-      <c r="D43" s="169" t="s">
-        <v>1329</v>
-      </c>
-      <c r="E43" s="169" t="s">
-        <v>1330</v>
-      </c>
-      <c r="F43" s="169" t="s">
-        <v>1331</v>
-      </c>
-      <c r="G43" s="169" t="s">
-        <v>1332</v>
+      <c r="B43" s="162" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C43" s="162" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D43" s="162" t="s">
+        <v>1335</v>
+      </c>
+      <c r="E43" s="162" t="s">
+        <v>1336</v>
+      </c>
+      <c r="F43" s="162" t="s">
+        <v>1337</v>
+      </c>
+      <c r="G43" s="162" t="s">
+        <v>1338</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="169" t="str">
+      <c r="B44" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(B43))</f>
         <v>F1</v>
       </c>
-      <c r="C44" s="169" t="str">
+      <c r="C44" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(C43))</f>
         <v>144</v>
       </c>
-      <c r="D44" s="169" t="str">
+      <c r="D44" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(D43))</f>
         <v>146</v>
       </c>
-      <c r="E44" s="169" t="str">
+      <c r="E44" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(E43))</f>
         <v>148</v>
       </c>
-      <c r="F44" s="169" t="str">
+      <c r="F44" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(F43))</f>
         <v>14B</v>
       </c>
-      <c r="G44" s="169" t="str">
+      <c r="G44" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(G43))</f>
         <v>149</v>
       </c>
@@ -38680,78 +39614,78 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="168" t="s">
+      <c r="A45" s="161" t="s">
         <v>1067</v>
       </c>
-      <c r="B45" s="169" t="s">
-        <v>1333</v>
-      </c>
-      <c r="C45" s="169" t="s">
-        <v>1334</v>
-      </c>
-      <c r="D45" s="169" t="s">
-        <v>1335</v>
-      </c>
-      <c r="E45" s="169" t="s">
-        <v>1336</v>
-      </c>
-      <c r="F45" s="169" t="s">
-        <v>1337</v>
-      </c>
-      <c r="G45" s="169" t="s">
-        <v>1338</v>
-      </c>
-      <c r="H45" s="169" t="s">
+      <c r="B45" s="162" t="s">
         <v>1339</v>
       </c>
-      <c r="I45" s="169" t="s">
+      <c r="C45" s="162" t="s">
         <v>1340</v>
       </c>
-      <c r="J45" s="169" t="s">
+      <c r="D45" s="162" t="s">
         <v>1341</v>
       </c>
-      <c r="K45" s="169" t="s">
+      <c r="E45" s="162" t="s">
         <v>1342</v>
       </c>
+      <c r="F45" s="162" t="s">
+        <v>1343</v>
+      </c>
+      <c r="G45" s="162" t="s">
+        <v>1344</v>
+      </c>
+      <c r="H45" s="162" t="s">
+        <v>1345</v>
+      </c>
+      <c r="I45" s="162" t="s">
+        <v>1346</v>
+      </c>
+      <c r="J45" s="162" t="s">
+        <v>1347</v>
+      </c>
+      <c r="K45" s="162" t="s">
+        <v>1348</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="169" t="str">
+      <c r="B46" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(B45))</f>
         <v>D2</v>
       </c>
-      <c r="C46" s="169" t="str">
+      <c r="C46" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(C45))</f>
         <v>D3</v>
       </c>
-      <c r="D46" s="169" t="str">
+      <c r="D46" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(D45))</f>
         <v>D4</v>
       </c>
-      <c r="E46" s="169" t="str">
+      <c r="E46" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(E45))</f>
         <v>D5</v>
       </c>
-      <c r="F46" s="169" t="str">
+      <c r="F46" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(F45))</f>
         <v>D6</v>
       </c>
-      <c r="G46" s="169" t="str">
+      <c r="G46" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(G45))</f>
         <v>14C</v>
       </c>
-      <c r="H46" s="169" t="str">
+      <c r="H46" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(H45))</f>
         <v>14E</v>
       </c>
-      <c r="I46" s="169" t="str">
+      <c r="I46" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(I45))</f>
         <v>150</v>
       </c>
-      <c r="J46" s="169" t="str">
+      <c r="J46" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(J45))</f>
         <v>152</v>
       </c>
-      <c r="K46" s="169" t="str">
+      <c r="K46" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(K45))</f>
         <v>D8</v>
       </c>
@@ -38765,78 +39699,78 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="168" t="s">
+      <c r="A47" s="161" t="s">
         <v>1066</v>
       </c>
-      <c r="B47" s="169" t="s">
-        <v>1343</v>
-      </c>
-      <c r="C47" s="169" t="s">
-        <v>1344</v>
-      </c>
-      <c r="D47" s="169" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E47" s="169" t="s">
-        <v>1346</v>
-      </c>
-      <c r="F47" s="169" t="s">
-        <v>1347</v>
-      </c>
-      <c r="G47" s="169" t="s">
-        <v>1348</v>
-      </c>
-      <c r="H47" s="169" t="s">
+      <c r="B47" s="162" t="s">
         <v>1349</v>
       </c>
-      <c r="I47" s="169" t="s">
+      <c r="C47" s="162" t="s">
         <v>1350</v>
       </c>
-      <c r="J47" s="169" t="s">
+      <c r="D47" s="162" t="s">
         <v>1351</v>
       </c>
-      <c r="K47" s="169" t="s">
+      <c r="E47" s="162" t="s">
         <v>1352</v>
       </c>
+      <c r="F47" s="162" t="s">
+        <v>1353</v>
+      </c>
+      <c r="G47" s="162" t="s">
+        <v>1354</v>
+      </c>
+      <c r="H47" s="162" t="s">
+        <v>1355</v>
+      </c>
+      <c r="I47" s="162" t="s">
+        <v>1356</v>
+      </c>
+      <c r="J47" s="162" t="s">
+        <v>1357</v>
+      </c>
+      <c r="K47" s="162" t="s">
+        <v>1358</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="169" t="str">
+      <c r="B48" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(B47))</f>
         <v>F2</v>
       </c>
-      <c r="C48" s="169" t="str">
+      <c r="C48" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(C47))</f>
         <v>F3</v>
       </c>
-      <c r="D48" s="169" t="str">
+      <c r="D48" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(D47))</f>
         <v>F4</v>
       </c>
-      <c r="E48" s="169" t="str">
+      <c r="E48" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(E47))</f>
         <v>F5</v>
       </c>
-      <c r="F48" s="169" t="str">
+      <c r="F48" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(F47))</f>
         <v>F6</v>
       </c>
-      <c r="G48" s="169" t="str">
+      <c r="G48" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(G47))</f>
         <v>14D</v>
       </c>
-      <c r="H48" s="169" t="str">
+      <c r="H48" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(H47))</f>
         <v>14F</v>
       </c>
-      <c r="I48" s="169" t="str">
+      <c r="I48" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(I47))</f>
         <v>151</v>
       </c>
-      <c r="J48" s="169" t="str">
+      <c r="J48" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(J47))</f>
         <v>153</v>
       </c>
-      <c r="K48" s="169" t="str">
+      <c r="K48" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(K47))</f>
         <v>F8</v>
       </c>
@@ -38850,29 +39784,29 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="168" t="s">
+      <c r="A49" s="161" t="s">
         <v>1078</v>
       </c>
-      <c r="B49" s="169" t="s">
-        <v>1353</v>
-      </c>
-      <c r="C49" s="169" t="s">
-        <v>1354</v>
-      </c>
-      <c r="D49" s="169" t="s">
-        <v>1355</v>
+      <c r="B49" s="162" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C49" s="162" t="s">
+        <v>1360</v>
+      </c>
+      <c r="D49" s="162" t="s">
+        <v>1361</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="169" t="str">
+      <c r="B50" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(B49))</f>
         <v>154</v>
       </c>
-      <c r="C50" s="169" t="str">
+      <c r="C50" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(C49))</f>
         <v>156</v>
       </c>
-      <c r="D50" s="169" t="str">
+      <c r="D50" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(D49))</f>
         <v>158</v>
       </c>
@@ -38886,29 +39820,29 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="168" t="s">
+      <c r="A51" s="161" t="s">
         <v>1077</v>
       </c>
-      <c r="B51" s="169" t="s">
-        <v>1356</v>
-      </c>
-      <c r="C51" s="169" t="s">
-        <v>1357</v>
-      </c>
-      <c r="D51" s="169" t="s">
-        <v>1358</v>
+      <c r="B51" s="162" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C51" s="162" t="s">
+        <v>1363</v>
+      </c>
+      <c r="D51" s="162" t="s">
+        <v>1364</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="169" t="str">
+      <c r="B52" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(B51))</f>
         <v>155</v>
       </c>
-      <c r="C52" s="169" t="str">
+      <c r="C52" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(C51))</f>
         <v>157</v>
       </c>
-      <c r="D52" s="169" t="str">
+      <c r="D52" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(D51))</f>
         <v>159</v>
       </c>
@@ -38922,43 +39856,43 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="168" t="s">
+      <c r="A53" s="161" t="s">
         <v>1082</v>
       </c>
-      <c r="B53" s="169" t="s">
-        <v>1359</v>
-      </c>
-      <c r="C53" s="169" t="s">
-        <v>1360</v>
-      </c>
-      <c r="D53" s="169" t="s">
-        <v>1361</v>
-      </c>
-      <c r="E53" s="169" t="s">
-        <v>1362</v>
-      </c>
-      <c r="F53" s="169" t="s">
-        <v>1363</v>
+      <c r="B53" s="162" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C53" s="162" t="s">
+        <v>1366</v>
+      </c>
+      <c r="D53" s="162" t="s">
+        <v>1367</v>
+      </c>
+      <c r="E53" s="162" t="s">
+        <v>1368</v>
+      </c>
+      <c r="F53" s="162" t="s">
+        <v>1369</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="170" t="str">
+      <c r="B54" s="163" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(B53))</f>
         <v>1E9E</v>
       </c>
-      <c r="C54" s="169" t="str">
+      <c r="C54" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(C53))</f>
         <v>15A</v>
       </c>
-      <c r="D54" s="169" t="str">
+      <c r="D54" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(D53))</f>
         <v>15C</v>
       </c>
-      <c r="E54" s="169" t="str">
+      <c r="E54" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(E53))</f>
         <v>15E</v>
       </c>
-      <c r="F54" s="169" t="str">
+      <c r="F54" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(F53))</f>
         <v>160</v>
       </c>
@@ -38972,43 +39906,43 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="168" t="s">
+      <c r="A55" s="161" t="s">
         <v>1081</v>
       </c>
-      <c r="B55" s="169" t="s">
-        <v>1364</v>
-      </c>
-      <c r="C55" s="169" t="s">
-        <v>1365</v>
-      </c>
-      <c r="D55" s="169" t="s">
-        <v>1366</v>
-      </c>
-      <c r="E55" s="169" t="s">
-        <v>1367</v>
-      </c>
-      <c r="F55" s="169" t="s">
-        <v>1368</v>
+      <c r="B55" s="162" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C55" s="162" t="s">
+        <v>1371</v>
+      </c>
+      <c r="D55" s="162" t="s">
+        <v>1372</v>
+      </c>
+      <c r="E55" s="162" t="s">
+        <v>1373</v>
+      </c>
+      <c r="F55" s="162" t="s">
+        <v>1374</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="169" t="str">
+      <c r="B56" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(B55))</f>
         <v>DF</v>
       </c>
-      <c r="C56" s="169" t="str">
+      <c r="C56" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(C55))</f>
         <v>15B</v>
       </c>
-      <c r="D56" s="169" t="str">
+      <c r="D56" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(D55))</f>
         <v>15D</v>
       </c>
-      <c r="E56" s="169" t="str">
+      <c r="E56" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(E55))</f>
         <v>15F</v>
       </c>
-      <c r="F56" s="169" t="str">
+      <c r="F56" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(F55))</f>
         <v>161</v>
       </c>
@@ -39022,36 +39956,36 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="168" t="s">
+      <c r="A57" s="161" t="s">
         <v>1086</v>
       </c>
-      <c r="B57" s="169" t="s">
-        <v>1369</v>
-      </c>
-      <c r="C57" s="169" t="s">
-        <v>1370</v>
-      </c>
-      <c r="D57" s="169" t="s">
-        <v>1371</v>
-      </c>
-      <c r="E57" s="169" t="s">
-        <v>1372</v>
+      <c r="B57" s="162" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C57" s="162" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D57" s="162" t="s">
+        <v>1377</v>
+      </c>
+      <c r="E57" s="162" t="s">
+        <v>1378</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="169" t="str">
+      <c r="B58" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(B57))</f>
         <v>DE</v>
       </c>
-      <c r="C58" s="169" t="str">
+      <c r="C58" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(C57))</f>
         <v>162</v>
       </c>
-      <c r="D58" s="169" t="str">
+      <c r="D58" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(D57))</f>
         <v>164</v>
       </c>
-      <c r="E58" s="169" t="str">
+      <c r="E58" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(E57))</f>
         <v>166</v>
       </c>
@@ -39065,36 +39999,36 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="168" t="s">
+      <c r="A59" s="161" t="s">
         <v>1085</v>
       </c>
-      <c r="B59" s="169" t="s">
-        <v>1373</v>
-      </c>
-      <c r="C59" s="169" t="s">
-        <v>1374</v>
-      </c>
-      <c r="D59" s="169" t="s">
-        <v>1375</v>
-      </c>
-      <c r="E59" s="169" t="s">
-        <v>1376</v>
+      <c r="B59" s="162" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C59" s="162" t="s">
+        <v>1380</v>
+      </c>
+      <c r="D59" s="162" t="s">
+        <v>1381</v>
+      </c>
+      <c r="E59" s="162" t="s">
+        <v>1382</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="169" t="str">
+      <c r="B60" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(B59))</f>
         <v>FE</v>
       </c>
-      <c r="C60" s="169" t="str">
+      <c r="C60" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(C59))</f>
         <v>163</v>
       </c>
-      <c r="D60" s="169" t="str">
+      <c r="D60" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(D59))</f>
         <v>165</v>
       </c>
-      <c r="E60" s="169" t="str">
+      <c r="E60" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(E59))</f>
         <v>167</v>
       </c>
@@ -39108,78 +40042,78 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="168" t="s">
+      <c r="A61" s="161" t="s">
         <v>1089</v>
       </c>
-      <c r="B61" s="169" t="s">
-        <v>1377</v>
-      </c>
-      <c r="C61" s="169" t="s">
-        <v>1378</v>
-      </c>
-      <c r="D61" s="169" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E61" s="169" t="s">
-        <v>1380</v>
-      </c>
-      <c r="F61" s="169" t="s">
-        <v>1381</v>
-      </c>
-      <c r="G61" s="169" t="s">
-        <v>1382</v>
-      </c>
-      <c r="H61" s="169" t="s">
+      <c r="B61" s="162" t="s">
         <v>1383</v>
       </c>
-      <c r="I61" s="169" t="s">
+      <c r="C61" s="162" t="s">
         <v>1384</v>
       </c>
-      <c r="J61" s="169" t="s">
+      <c r="D61" s="162" t="s">
         <v>1385</v>
       </c>
-      <c r="K61" s="169" t="s">
+      <c r="E61" s="162" t="s">
         <v>1386</v>
       </c>
+      <c r="F61" s="162" t="s">
+        <v>1387</v>
+      </c>
+      <c r="G61" s="162" t="s">
+        <v>1388</v>
+      </c>
+      <c r="H61" s="162" t="s">
+        <v>1389</v>
+      </c>
+      <c r="I61" s="162" t="s">
+        <v>1390</v>
+      </c>
+      <c r="J61" s="162" t="s">
+        <v>1391</v>
+      </c>
+      <c r="K61" s="162" t="s">
+        <v>1392</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="169" t="str">
+      <c r="B62" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(B61))</f>
         <v>D9</v>
       </c>
-      <c r="C62" s="169" t="str">
+      <c r="C62" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(C61))</f>
         <v>DA</v>
       </c>
-      <c r="D62" s="169" t="str">
+      <c r="D62" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(D61))</f>
         <v>DB</v>
       </c>
-      <c r="E62" s="169" t="str">
+      <c r="E62" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(E61))</f>
         <v>DC</v>
       </c>
-      <c r="F62" s="169" t="str">
+      <c r="F62" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(F61))</f>
         <v>168</v>
       </c>
-      <c r="G62" s="169" t="str">
+      <c r="G62" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(G61))</f>
         <v>16A</v>
       </c>
-      <c r="H62" s="169" t="str">
+      <c r="H62" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(H61))</f>
         <v>16C</v>
       </c>
-      <c r="I62" s="169" t="str">
+      <c r="I62" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(I61))</f>
         <v>16E</v>
       </c>
-      <c r="J62" s="169" t="str">
+      <c r="J62" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(J61))</f>
         <v>170</v>
       </c>
-      <c r="K62" s="169" t="str">
+      <c r="K62" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(K61))</f>
         <v>172</v>
       </c>
@@ -39193,78 +40127,78 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="168" t="s">
+      <c r="A63" s="161" t="s">
         <v>1088</v>
       </c>
-      <c r="B63" s="169" t="s">
-        <v>1387</v>
-      </c>
-      <c r="C63" s="169" t="s">
-        <v>1388</v>
-      </c>
-      <c r="D63" s="169" t="s">
-        <v>1389</v>
-      </c>
-      <c r="E63" s="169" t="s">
-        <v>1390</v>
-      </c>
-      <c r="F63" s="169" t="s">
-        <v>1391</v>
-      </c>
-      <c r="G63" s="169" t="s">
-        <v>1392</v>
-      </c>
-      <c r="H63" s="169" t="s">
+      <c r="B63" s="162" t="s">
         <v>1393</v>
       </c>
-      <c r="I63" s="169" t="s">
+      <c r="C63" s="162" t="s">
         <v>1394</v>
       </c>
-      <c r="J63" s="169" t="s">
+      <c r="D63" s="162" t="s">
         <v>1395</v>
       </c>
-      <c r="K63" s="169" t="s">
+      <c r="E63" s="162" t="s">
         <v>1396</v>
       </c>
+      <c r="F63" s="162" t="s">
+        <v>1397</v>
+      </c>
+      <c r="G63" s="162" t="s">
+        <v>1398</v>
+      </c>
+      <c r="H63" s="162" t="s">
+        <v>1399</v>
+      </c>
+      <c r="I63" s="162" t="s">
+        <v>1400</v>
+      </c>
+      <c r="J63" s="162" t="s">
+        <v>1401</v>
+      </c>
+      <c r="K63" s="162" t="s">
+        <v>1402</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="169" t="str">
+      <c r="B64" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(B63))</f>
         <v>F9</v>
       </c>
-      <c r="C64" s="169" t="str">
+      <c r="C64" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(C63))</f>
         <v>FA</v>
       </c>
-      <c r="D64" s="169" t="str">
+      <c r="D64" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(D63))</f>
         <v>FB</v>
       </c>
-      <c r="E64" s="169" t="str">
+      <c r="E64" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(E63))</f>
         <v>FC</v>
       </c>
-      <c r="F64" s="169" t="str">
+      <c r="F64" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(F63))</f>
         <v>169</v>
       </c>
-      <c r="G64" s="169" t="str">
+      <c r="G64" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(G63))</f>
         <v>16B</v>
       </c>
-      <c r="H64" s="169" t="str">
+      <c r="H64" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(H63))</f>
         <v>16D</v>
       </c>
-      <c r="I64" s="169" t="str">
+      <c r="I64" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(I63))</f>
         <v>16F</v>
       </c>
-      <c r="J64" s="169" t="str">
+      <c r="J64" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(J63))</f>
         <v>171</v>
       </c>
-      <c r="K64" s="169" t="str">
+      <c r="K64" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(K63))</f>
         <v>173</v>
       </c>
@@ -39278,15 +40212,15 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="168" t="s">
+      <c r="A65" s="161" t="s">
         <v>1095</v>
       </c>
-      <c r="B65" s="169" t="s">
-        <v>1397</v>
+      <c r="B65" s="162" t="s">
+        <v>1403</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="169" t="str">
+      <c r="B66" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(B65))</f>
         <v>174</v>
       </c>
@@ -39300,15 +40234,15 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="168" t="s">
+      <c r="A67" s="161" t="s">
         <v>1094</v>
       </c>
-      <c r="B67" s="169" t="s">
-        <v>1398</v>
+      <c r="B67" s="162" t="s">
+        <v>1404</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="169" t="str">
+      <c r="B68" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(B67))</f>
         <v>175</v>
       </c>
@@ -39322,29 +40256,29 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="168" t="s">
+      <c r="A69" s="161" t="s">
         <v>1105</v>
       </c>
-      <c r="B69" s="169" t="s">
-        <v>1399</v>
-      </c>
-      <c r="C69" s="169" t="s">
-        <v>1400</v>
-      </c>
-      <c r="D69" s="169" t="s">
-        <v>1401</v>
+      <c r="B69" s="162" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C69" s="162" t="s">
+        <v>1406</v>
+      </c>
+      <c r="D69" s="162" t="s">
+        <v>1407</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="169" t="str">
+      <c r="B70" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(B69))</f>
         <v>DD</v>
       </c>
-      <c r="C70" s="169" t="str">
+      <c r="C70" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(C69))</f>
         <v>176</v>
       </c>
-      <c r="D70" s="169" t="str">
+      <c r="D70" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(D69))</f>
         <v>178</v>
       </c>
@@ -39358,29 +40292,29 @@
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="168" t="s">
+      <c r="A71" s="161" t="s">
         <v>1104</v>
       </c>
-      <c r="B71" s="169" t="s">
-        <v>1402</v>
-      </c>
-      <c r="C71" s="169" t="s">
-        <v>1403</v>
-      </c>
-      <c r="D71" s="169" t="s">
-        <v>1404</v>
+      <c r="B71" s="162" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C71" s="162" t="s">
+        <v>1409</v>
+      </c>
+      <c r="D71" s="162" t="s">
+        <v>1410</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="169" t="str">
+      <c r="B72" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(B71))</f>
         <v>FD</v>
       </c>
-      <c r="C72" s="169" t="str">
+      <c r="C72" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(C71))</f>
         <v>177</v>
       </c>
-      <c r="D72" s="169" t="str">
+      <c r="D72" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(D71))</f>
         <v>FF</v>
       </c>
@@ -39394,29 +40328,29 @@
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="168" t="s">
+      <c r="A73" s="161" t="s">
         <v>1097</v>
       </c>
-      <c r="B73" s="169" t="s">
-        <v>1405</v>
-      </c>
-      <c r="C73" s="169" t="s">
-        <v>1406</v>
-      </c>
-      <c r="D73" s="169" t="s">
-        <v>1407</v>
+      <c r="B73" s="162" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C73" s="162" t="s">
+        <v>1412</v>
+      </c>
+      <c r="D73" s="162" t="s">
+        <v>1413</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="169" t="str">
+      <c r="B74" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(B73))</f>
         <v>179</v>
       </c>
-      <c r="C74" s="169" t="str">
+      <c r="C74" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(C73))</f>
         <v>17B</v>
       </c>
-      <c r="D74" s="169" t="str">
+      <c r="D74" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(D73))</f>
         <v>17D</v>
       </c>
@@ -39430,29 +40364,29 @@
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="168" t="s">
+      <c r="A75" s="161" t="s">
         <v>1096</v>
       </c>
-      <c r="B75" s="169" t="s">
-        <v>1408</v>
-      </c>
-      <c r="C75" s="169" t="s">
-        <v>1409</v>
-      </c>
-      <c r="D75" s="169" t="s">
-        <v>1410</v>
+      <c r="B75" s="162" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C75" s="162" t="s">
+        <v>1415</v>
+      </c>
+      <c r="D75" s="162" t="s">
+        <v>1416</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B76" s="169" t="str">
+      <c r="B76" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(B75))</f>
         <v>17A</v>
       </c>
-      <c r="C76" s="169" t="str">
+      <c r="C76" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(C75))</f>
         <v>17C</v>
       </c>
-      <c r="D76" s="169" t="str">
+      <c r="D76" s="162" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(D75))</f>
         <v>17E</v>
       </c>
@@ -39484,7 +40418,7 @@
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(O79)</f>
         <v>17E</v>
       </c>
-      <c r="Q80" s="170" t="str">
+      <c r="Q80" s="163" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(_xlfn.UNICODE(B53))</f>
         <v>1E9E</v>
       </c>

--- a/keyboards/handwired/polykybd/split72/keymaps/default/lang/lang_lut.xlsx
+++ b/keyboards/handwired/polykybd/split72/keymaps/default/lang/lang_lut.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2892" uniqueCount="1417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2904" uniqueCount="1417">
   <si>
     <t xml:space="preserve">NAME</t>
   </si>
@@ -5351,7 +5351,7 @@
       <selection pane="topLeft" activeCell="I31" activeCellId="0" sqref="I31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.23828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.25390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="39.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="15.74"/>
@@ -28384,11 +28384,11 @@
   <dimension ref="A1:CC69"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="U11" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
-      <selection pane="bottomRight" activeCell="T23" activeCellId="0" sqref="T23"/>
+      <selection pane="topRight" activeCell="U1" activeCellId="0" sqref="U1"/>
+      <selection pane="bottomLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+      <selection pane="bottomRight" activeCell="AE41" activeCellId="0" sqref="AE41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -31935,9 +31935,15 @@
       <c r="AC28" s="94" t="s">
         <v>1112</v>
       </c>
-      <c r="AD28" s="95"/>
-      <c r="AE28" s="95"/>
-      <c r="AF28" s="95"/>
+      <c r="AD28" s="95" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE28" s="95" t="s">
+        <v>1109</v>
+      </c>
+      <c r="AF28" s="95" t="n">
+        <v>1</v>
+      </c>
       <c r="AG28" s="95"/>
       <c r="AH28" s="96" t="s">
         <v>678</v>
@@ -32134,9 +32140,15 @@
       <c r="AC29" s="123" t="s">
         <v>49</v>
       </c>
-      <c r="AD29" s="95"/>
-      <c r="AE29" s="95"/>
-      <c r="AF29" s="95"/>
+      <c r="AD29" s="95" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE29" s="95" t="s">
+        <v>1072</v>
+      </c>
+      <c r="AF29" s="95" t="n">
+        <v>2</v>
+      </c>
       <c r="AG29" s="95"/>
       <c r="AH29" s="96" t="s">
         <v>691</v>
@@ -32335,9 +32347,15 @@
       <c r="AC30" s="94" t="s">
         <v>1116</v>
       </c>
-      <c r="AD30" s="95"/>
-      <c r="AE30" s="95"/>
-      <c r="AF30" s="95"/>
+      <c r="AD30" s="95" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE30" s="95" t="s">
+        <v>1116</v>
+      </c>
+      <c r="AF30" s="95" t="n">
+        <v>3</v>
+      </c>
       <c r="AG30" s="95"/>
       <c r="AH30" s="96" t="s">
         <v>622</v>
@@ -32528,9 +32546,15 @@
       <c r="AC31" s="94" t="s">
         <v>1121</v>
       </c>
-      <c r="AD31" s="95"/>
-      <c r="AE31" s="95"/>
-      <c r="AF31" s="95"/>
+      <c r="AD31" s="95" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE31" s="95" t="s">
+        <v>1121</v>
+      </c>
+      <c r="AF31" s="95" t="n">
+        <v>4</v>
+      </c>
       <c r="AG31" s="95"/>
       <c r="AH31" s="96" t="s">
         <v>626</v>
@@ -32723,9 +32747,15 @@
       <c r="AC32" s="123" t="s">
         <v>98</v>
       </c>
-      <c r="AD32" s="95"/>
-      <c r="AE32" s="95"/>
-      <c r="AF32" s="95"/>
+      <c r="AD32" s="95" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE32" s="95" t="s">
+        <v>1126</v>
+      </c>
+      <c r="AF32" s="95" t="n">
+        <v>5</v>
+      </c>
       <c r="AG32" s="95"/>
       <c r="AH32" s="96" t="s">
         <v>628</v>
@@ -32920,9 +32950,15 @@
         <v>6</v>
       </c>
       <c r="AC33" s="94"/>
-      <c r="AD33" s="95"/>
-      <c r="AE33" s="95"/>
-      <c r="AF33" s="95"/>
+      <c r="AD33" s="95" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE33" s="95" t="s">
+        <v>1118</v>
+      </c>
+      <c r="AF33" s="95" t="n">
+        <v>6</v>
+      </c>
       <c r="AG33" s="95"/>
       <c r="AH33" s="96" t="s">
         <v>630</v>
@@ -33121,9 +33157,15 @@
       <c r="AC34" s="94" t="s">
         <v>1019</v>
       </c>
-      <c r="AD34" s="95"/>
-      <c r="AE34" s="95"/>
-      <c r="AF34" s="95"/>
+      <c r="AD34" s="95" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE34" s="95" t="s">
+        <v>1110</v>
+      </c>
+      <c r="AF34" s="95" t="n">
+        <v>7</v>
+      </c>
       <c r="AG34" s="95"/>
       <c r="AH34" s="96" t="s">
         <v>712</v>
@@ -33320,9 +33362,15 @@
       <c r="AC35" s="94" t="s">
         <v>1035</v>
       </c>
-      <c r="AD35" s="95"/>
-      <c r="AE35" s="95"/>
-      <c r="AF35" s="95"/>
+      <c r="AD35" s="95" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE35" s="95" t="s">
+        <v>1136</v>
+      </c>
+      <c r="AF35" s="95" t="n">
+        <v>8</v>
+      </c>
       <c r="AG35" s="95"/>
       <c r="AH35" s="96" t="s">
         <v>714</v>
@@ -33519,9 +33567,15 @@
       <c r="AC36" s="94" t="s">
         <v>1026</v>
       </c>
-      <c r="AD36" s="95"/>
-      <c r="AE36" s="95"/>
-      <c r="AF36" s="95"/>
+      <c r="AD36" s="95" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE36" s="95" t="s">
+        <v>1127</v>
+      </c>
+      <c r="AF36" s="95" t="n">
+        <v>9</v>
+      </c>
       <c r="AG36" s="95"/>
       <c r="AH36" s="96" t="s">
         <v>716</v>
@@ -33718,9 +33772,15 @@
       <c r="AC37" s="94" t="s">
         <v>1064</v>
       </c>
-      <c r="AD37" s="95"/>
-      <c r="AE37" s="95"/>
-      <c r="AF37" s="95"/>
+      <c r="AD37" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE37" s="95" t="s">
+        <v>1138</v>
+      </c>
+      <c r="AF37" s="95" t="s">
+        <v>12</v>
+      </c>
       <c r="AG37" s="95"/>
       <c r="AH37" s="96" t="s">
         <v>728</v>
@@ -36609,7 +36669,7 @@
       <c r="AG56" s="140"/>
       <c r="AH56" s="141"/>
       <c r="AI56" s="141" t="n">
-        <v>35</v>
+        <v>-1</v>
       </c>
       <c r="AJ56" s="141"/>
       <c r="AK56" s="141"/>
@@ -36768,7 +36828,7 @@
       <c r="AG57" s="140"/>
       <c r="AH57" s="141"/>
       <c r="AI57" s="141" t="n">
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="AJ57" s="141"/>
       <c r="AK57" s="141"/>
@@ -37086,7 +37146,7 @@
       <c r="AG59" s="140"/>
       <c r="AH59" s="141"/>
       <c r="AI59" s="141" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AJ59" s="141"/>
       <c r="AK59" s="141"/>
@@ -37404,7 +37464,7 @@
       <c r="AG61" s="140"/>
       <c r="AH61" s="141"/>
       <c r="AI61" s="141" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AJ61" s="141"/>
       <c r="AK61" s="141"/>
@@ -38474,7 +38534,7 @@
       <selection pane="topLeft" activeCell="O82" activeCellId="0" sqref="O82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="161" width="11.52"/>
   </cols>

--- a/keyboards/handwired/polykybd/split72/keymaps/default/lang/lang_lut.xlsx
+++ b/keyboards/handwired/polykybd/split72/keymaps/default/lang/lang_lut.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2904" uniqueCount="1417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2904" uniqueCount="1429">
   <si>
     <t xml:space="preserve">NAME</t>
   </si>
@@ -3201,6 +3201,9 @@
   </si>
   <si>
     <t xml:space="preserve">M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">u"\f\f" MICRO_SIGN</t>
   </si>
   <si>
     <t xml:space="preserve">,</t>
@@ -3385,9 +3388,18 @@
     <t xml:space="preserve">KC_2</t>
   </si>
   <si>
+    <t xml:space="preserve">u"\f\f" E_WITH_ACUTE_SMALL</t>
+  </si>
+  <si>
     <t xml:space="preserve">'</t>
   </si>
   <si>
+    <t xml:space="preserve">u" " SUPER_SCRIPT_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">u" " MOD_CARON</t>
+  </si>
+  <si>
     <t xml:space="preserve">KC_3</t>
   </si>
   <si>
@@ -3400,6 +3412,9 @@
     <t xml:space="preserve">^</t>
   </si>
   <si>
+    <t xml:space="preserve">u" " SUPER_SCRIPT_3</t>
+  </si>
+  <si>
     <t xml:space="preserve">+</t>
   </si>
   <si>
@@ -3427,6 +3442,9 @@
     <t xml:space="preserve">(</t>
   </si>
   <si>
+    <t xml:space="preserve">u" " EURO_SIGN</t>
+  </si>
+  <si>
     <t xml:space="preserve">5</t>
   </si>
   <si>
@@ -3436,9 +3454,15 @@
     <t xml:space="preserve">-</t>
   </si>
   <si>
+    <t xml:space="preserve">u"\f\f" PILCROW</t>
+  </si>
+  <si>
     <t xml:space="preserve">KC_7</t>
   </si>
   <si>
+    <t xml:space="preserve">u"\f\f" E_WITH_GRAVE_SMALL</t>
+  </si>
+  <si>
     <t xml:space="preserve">.</t>
   </si>
   <si>
@@ -3460,12 +3484,21 @@
     <t xml:space="preserve">)</t>
   </si>
   <si>
+    <t xml:space="preserve">u"\f\f" C_WITH_CEDILLA_SMALL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">u"\f\f" BROKEN_BAR</t>
+  </si>
+  <si>
     <t xml:space="preserve">--</t>
   </si>
   <si>
     <t xml:space="preserve">KC_0</t>
   </si>
   <si>
+    <t xml:space="preserve">u"\f\f" A_WITH_GRAVE_SMALL</t>
+  </si>
+  <si>
     <t xml:space="preserve">KC_ENTER</t>
   </si>
   <si>
@@ -3496,7 +3529,7 @@
     <t xml:space="preserve">=</t>
   </si>
   <si>
-    <t xml:space="preserve">CEDILLA u" " PLUS_MINUS</t>
+    <t xml:space="preserve">u"\f\f\f\f" CEDILLA PLUS_MINUS</t>
   </si>
   <si>
     <t xml:space="preserve">KC_LBRC</t>
@@ -3535,6 +3568,9 @@
     <t xml:space="preserve">KC_BACKSLASH</t>
   </si>
   <si>
+    <t xml:space="preserve">u"\f" SECTION</t>
+  </si>
+  <si>
     <t xml:space="preserve">u"\v" ARABIC_SHADDA</t>
   </si>
   <si>
@@ -3601,7 +3637,7 @@
     <t xml:space="preserve">KC_GRAVE</t>
   </si>
   <si>
-    <t xml:space="preserve">\v\xb2</t>
+    <t xml:space="preserve">u"\v" SUPER_SCRIPT_2</t>
   </si>
   <si>
     <t xml:space="preserve">u"` ~"</t>
@@ -5347,11 +5383,11 @@
   </sheetPr>
   <dimension ref="A1:H1046"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I31" activeCellId="0" sqref="I31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J54" activeCellId="0" sqref="J54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.25390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.37109375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="39.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="15.74"/>
@@ -28384,11 +28420,11 @@
   <dimension ref="A1:CC69"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="U11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="U1" activeCellId="0" sqref="U1"/>
-      <selection pane="bottomLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="AE41" activeCellId="0" sqref="AE41"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="L21" activeCellId="0" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -30083,13 +30119,13 @@
       <c r="G14" s="89"/>
       <c r="H14" s="89"/>
       <c r="I14" s="89" t="s">
-        <v>82</v>
+        <v>1059</v>
       </c>
       <c r="J14" s="90" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="K14" s="90" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="L14" s="90"/>
       <c r="M14" s="90"/>
@@ -30202,13 +30238,13 @@
     </row>
     <row r="15" s="107" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="87" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="B15" s="88" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="C15" s="88" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="D15" s="88"/>
       <c r="E15" s="88"/>
@@ -30310,7 +30346,7 @@
       <c r="BO15" s="89"/>
       <c r="BP15" s="89"/>
       <c r="BQ15" s="89" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="BR15" s="104"/>
       <c r="BS15" s="104"/>
@@ -30327,13 +30363,13 @@
     </row>
     <row r="16" s="107" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="87" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="B16" s="88" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="C16" s="88" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="D16" s="88"/>
       <c r="E16" s="88"/>
@@ -30452,13 +30488,13 @@
     </row>
     <row r="17" s="107" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="87" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="B17" s="88" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="C17" s="88" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D17" s="88"/>
       <c r="E17" s="88"/>
@@ -30579,7 +30615,7 @@
     </row>
     <row r="18" s="107" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="87" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="B18" s="88" t="s">
         <v>1014</v>
@@ -30593,7 +30629,7 @@
       <c r="G18" s="89"/>
       <c r="H18" s="89"/>
       <c r="I18" s="89" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="J18" s="90" t="s">
         <v>1012</v>
@@ -30619,7 +30655,7 @@
       <c r="AA18" s="94"/>
       <c r="AB18" s="94"/>
       <c r="AC18" s="94" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="AD18" s="95" t="s">
         <v>542</v>
@@ -30639,20 +30675,20 @@
         <v>481</v>
       </c>
       <c r="AM18" s="108" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="AN18" s="97" t="s">
         <v>481</v>
       </c>
       <c r="AO18" s="97"/>
       <c r="AP18" s="98" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="AQ18" s="109" t="s">
+        <v>1076</v>
+      </c>
+      <c r="AR18" s="98" t="s">
         <v>1075</v>
-      </c>
-      <c r="AR18" s="98" t="s">
-        <v>1074</v>
       </c>
       <c r="AS18" s="98"/>
       <c r="AT18" s="99" t="s">
@@ -30688,7 +30724,7 @@
       <c r="BH18" s="102"/>
       <c r="BI18" s="102"/>
       <c r="BJ18" s="103" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="BK18" s="122" t="s">
         <v>394</v>
@@ -30716,13 +30752,13 @@
     </row>
     <row r="19" s="107" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="87" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="B19" s="88" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="C19" s="88" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="D19" s="88"/>
       <c r="E19" s="88"/>
@@ -30768,7 +30804,7 @@
         <v>499</v>
       </c>
       <c r="AM19" s="108" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="AN19" s="97" t="s">
         <v>499</v>
@@ -30847,13 +30883,13 @@
     </row>
     <row r="20" s="107" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="87" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="B20" s="88" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="C20" s="88" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="D20" s="88"/>
       <c r="E20" s="88"/>
@@ -30953,7 +30989,7 @@
       <c r="BO20" s="89"/>
       <c r="BP20" s="89"/>
       <c r="BQ20" s="89" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="BR20" s="104"/>
       <c r="BS20" s="104"/>
@@ -30974,13 +31010,13 @@
     </row>
     <row r="21" s="107" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="87" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="B21" s="88" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="C21" s="88" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="D21" s="88"/>
       <c r="E21" s="88"/>
@@ -31095,13 +31131,13 @@
     </row>
     <row r="22" s="107" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="87" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="B22" s="88" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="C22" s="88" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="D22" s="88"/>
       <c r="E22" s="88"/>
@@ -31222,13 +31258,13 @@
     </row>
     <row r="23" s="107" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="87" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="B23" s="88" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="C23" s="88" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="D23" s="88"/>
       <c r="E23" s="88"/>
@@ -31330,7 +31366,7 @@
       <c r="BO23" s="89"/>
       <c r="BP23" s="89"/>
       <c r="BQ23" s="89" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="BR23" s="104"/>
       <c r="BS23" s="104"/>
@@ -31347,13 +31383,13 @@
     </row>
     <row r="24" s="107" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="87" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B24" s="88" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="C24" s="88" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="D24" s="88"/>
       <c r="E24" s="88"/>
@@ -31362,10 +31398,10 @@
       <c r="H24" s="89"/>
       <c r="I24" s="89"/>
       <c r="J24" s="90" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="K24" s="90" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="L24" s="90"/>
       <c r="M24" s="90"/>
@@ -31403,7 +31439,7 @@
         <v>480</v>
       </c>
       <c r="AM24" s="108" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="AN24" s="97" t="s">
         <v>480</v>
@@ -31480,13 +31516,13 @@
     </row>
     <row r="25" s="107" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="87" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="B25" s="88" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="C25" s="88" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="D25" s="88"/>
       <c r="E25" s="88"/>
@@ -31530,7 +31566,7 @@
         <v>454</v>
       </c>
       <c r="AM25" s="108" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="AN25" s="97" t="s">
         <v>454</v>
@@ -31605,21 +31641,21 @@
     </row>
     <row r="26" s="107" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="87" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="B26" s="88" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="C26" s="88" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="D26" s="88"/>
       <c r="E26" s="88"/>
       <c r="F26" s="89" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="G26" s="89" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="H26" s="89"/>
       <c r="I26" s="89"/>
@@ -31716,10 +31752,10 @@
       <c r="BL26" s="103"/>
       <c r="BM26" s="103"/>
       <c r="BN26" s="89" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="BO26" s="89" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="BP26" s="89"/>
       <c r="BQ26" s="89"/>
@@ -31738,29 +31774,29 @@
     </row>
     <row r="27" s="107" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="87" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="B27" s="88" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="C27" s="88" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="D27" s="88"/>
       <c r="E27" s="88"/>
       <c r="F27" s="89" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="G27" s="89" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="H27" s="89"/>
       <c r="I27" s="89"/>
       <c r="J27" s="90" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="K27" s="90" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="L27" s="90"/>
       <c r="M27" s="90"/>
@@ -31798,7 +31834,7 @@
         <v>459</v>
       </c>
       <c r="AM27" s="97" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="AN27" s="97" t="s">
         <v>459</v>
@@ -31851,10 +31887,10 @@
       <c r="BL27" s="103"/>
       <c r="BM27" s="103"/>
       <c r="BN27" s="89" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="BO27" s="89" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="BP27" s="89"/>
       <c r="BQ27" s="89"/>
@@ -31875,13 +31911,13 @@
     </row>
     <row r="28" s="107" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="87" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="B28" s="88" t="n">
         <v>1</v>
       </c>
       <c r="C28" s="88" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="D28" s="88" t="n">
         <v>1</v>
@@ -31891,12 +31927,12 @@
         <v>1</v>
       </c>
       <c r="G28" s="89" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="H28" s="89"/>
       <c r="I28" s="89"/>
       <c r="J28" s="90" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="K28" s="90" t="n">
         <v>1</v>
@@ -31907,13 +31943,13 @@
         <v>1</v>
       </c>
       <c r="O28" s="91" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="P28" s="91" t="n">
         <v>1</v>
       </c>
       <c r="Q28" s="91" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="R28" s="92"/>
       <c r="S28" s="92"/>
@@ -31927,19 +31963,19 @@
         <v>1</v>
       </c>
       <c r="AA28" s="94" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="AB28" s="94" t="n">
         <v>1</v>
       </c>
       <c r="AC28" s="94" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="AD28" s="95" t="n">
         <v>1</v>
       </c>
       <c r="AE28" s="95" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="AF28" s="95" t="n">
         <v>1</v>
@@ -31955,7 +31991,7 @@
         <v>1</v>
       </c>
       <c r="AM28" s="97" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="AN28" s="97" t="n">
         <v>1</v>
@@ -31967,7 +32003,7 @@
         <v>1</v>
       </c>
       <c r="AQ28" s="98" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="AR28" s="98" t="n">
         <v>1</v>
@@ -31977,7 +32013,7 @@
         <v>1</v>
       </c>
       <c r="AU28" s="99" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="AV28" s="99" t="n">
         <v>1</v>
@@ -31987,7 +32023,7 @@
         <v>1</v>
       </c>
       <c r="AY28" s="100" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="AZ28" s="100" t="n">
         <v>1</v>
@@ -31997,7 +32033,7 @@
         <v>1</v>
       </c>
       <c r="BC28" s="101" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="BD28" s="101" t="n">
         <v>1</v>
@@ -32007,7 +32043,7 @@
         <v>8</v>
       </c>
       <c r="BG28" s="102" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="BH28" s="102" t="s">
         <v>8</v>
@@ -32017,7 +32053,7 @@
         <v>1</v>
       </c>
       <c r="BK28" s="103" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="BL28" s="103" t="n">
         <v>1</v>
@@ -32027,7 +32063,7 @@
         <v>1</v>
       </c>
       <c r="BO28" s="89" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="BP28" s="89"/>
       <c r="BQ28" s="89" t="s">
@@ -32037,7 +32073,7 @@
         <v>1</v>
       </c>
       <c r="BS28" s="104" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="BT28" s="104"/>
       <c r="BU28" s="104" t="s">
@@ -32051,7 +32087,7 @@
         <v>1</v>
       </c>
       <c r="CA28" s="106" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="CB28" s="106" t="n">
         <v>1</v>
@@ -32062,13 +32098,13 @@
     </row>
     <row r="29" s="107" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="87" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="B29" s="88" t="n">
         <v>2</v>
       </c>
       <c r="C29" s="88" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="D29" s="88" t="n">
         <v>2</v>
@@ -32085,14 +32121,14 @@
         <v>76</v>
       </c>
       <c r="J29" s="90" t="s">
-        <v>147</v>
+        <v>1115</v>
       </c>
       <c r="K29" s="90" t="n">
         <v>2</v>
       </c>
       <c r="L29" s="90"/>
       <c r="M29" s="90" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N29" s="91" t="n">
         <v>2</v>
@@ -32104,7 +32140,7 @@
         <v>2</v>
       </c>
       <c r="Q29" s="91" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="R29" s="92" t="n">
         <v>2</v>
@@ -32116,7 +32152,7 @@
         <v>2</v>
       </c>
       <c r="U29" s="92" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="V29" s="93" t="n">
         <v>2</v>
@@ -32132,7 +32168,7 @@
         <v>2</v>
       </c>
       <c r="AA29" s="94" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="AB29" s="94" t="n">
         <v>2</v>
@@ -32144,7 +32180,7 @@
         <v>2</v>
       </c>
       <c r="AE29" s="95" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="AF29" s="95" t="n">
         <v>2</v>
@@ -32160,7 +32196,7 @@
         <v>2</v>
       </c>
       <c r="AM29" s="97" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="AN29" s="97" t="n">
         <v>2</v>
@@ -32172,13 +32208,13 @@
         <v>2</v>
       </c>
       <c r="AQ29" s="98" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="AR29" s="98" t="n">
         <v>2</v>
       </c>
       <c r="AS29" s="98" t="s">
-        <v>76</v>
+        <v>1117</v>
       </c>
       <c r="AT29" s="99" t="n">
         <v>2</v>
@@ -32224,7 +32260,7 @@
         <v>2</v>
       </c>
       <c r="BK29" s="103" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="BL29" s="103" t="n">
         <v>2</v>
@@ -32244,11 +32280,11 @@
         <v>2</v>
       </c>
       <c r="BS29" s="104" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="BT29" s="104"/>
       <c r="BU29" s="104" t="s">
-        <v>186</v>
+        <v>1118</v>
       </c>
       <c r="BV29" s="105"/>
       <c r="BW29" s="105"/>
@@ -32269,13 +32305,13 @@
     </row>
     <row r="30" s="107" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="87" t="s">
-        <v>1115</v>
+        <v>1119</v>
       </c>
       <c r="B30" s="88" t="n">
         <v>3</v>
       </c>
       <c r="C30" s="88" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
       <c r="D30" s="88" t="n">
         <v>3</v>
@@ -32299,7 +32335,7 @@
       </c>
       <c r="L30" s="90"/>
       <c r="M30" s="90" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
       <c r="N30" s="91" t="n">
         <v>3</v>
@@ -32311,19 +32347,19 @@
         <v>3</v>
       </c>
       <c r="Q30" s="91" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
       <c r="R30" s="92" t="n">
         <v>3</v>
       </c>
       <c r="S30" s="92" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
       <c r="T30" s="92" t="n">
         <v>3</v>
       </c>
       <c r="U30" s="92" t="s">
-        <v>1117</v>
+        <v>1121</v>
       </c>
       <c r="V30" s="93" t="n">
         <v>3</v>
@@ -32339,19 +32375,19 @@
         <v>3</v>
       </c>
       <c r="AA30" s="94" t="s">
-        <v>1118</v>
+        <v>1122</v>
       </c>
       <c r="AB30" s="94" t="n">
         <v>3</v>
       </c>
       <c r="AC30" s="94" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
       <c r="AD30" s="95" t="n">
         <v>3</v>
       </c>
       <c r="AE30" s="95" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
       <c r="AF30" s="95" t="n">
         <v>3</v>
@@ -32369,7 +32405,7 @@
         <v>3</v>
       </c>
       <c r="AM30" s="97" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
       <c r="AN30" s="97" t="n">
         <v>3</v>
@@ -32381,13 +32417,13 @@
         <v>3</v>
       </c>
       <c r="AQ30" s="98" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
       <c r="AR30" s="98" t="n">
         <v>3</v>
       </c>
       <c r="AS30" s="98" t="s">
-        <v>78</v>
+        <v>1123</v>
       </c>
       <c r="AT30" s="99" t="n">
         <v>3</v>
@@ -32431,7 +32467,7 @@
         <v>3</v>
       </c>
       <c r="BK30" s="103" t="s">
-        <v>1119</v>
+        <v>1124</v>
       </c>
       <c r="BL30" s="103" t="n">
         <v>3</v>
@@ -32441,21 +32477,21 @@
         <v>3</v>
       </c>
       <c r="BO30" s="89" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
       <c r="BP30" s="89"/>
       <c r="BQ30" s="89" t="s">
-        <v>1118</v>
+        <v>1122</v>
       </c>
       <c r="BR30" s="104" t="n">
         <v>3</v>
       </c>
       <c r="BS30" s="104" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
       <c r="BT30" s="104"/>
       <c r="BU30" s="104" t="s">
-        <v>1118</v>
+        <v>1122</v>
       </c>
       <c r="BV30" s="105"/>
       <c r="BW30" s="105"/>
@@ -32465,7 +32501,7 @@
         <v>3</v>
       </c>
       <c r="CA30" s="106" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
       <c r="CB30" s="106" t="n">
         <v>3</v>
@@ -32476,13 +32512,13 @@
     </row>
     <row r="31" s="107" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="87" t="s">
-        <v>1120</v>
+        <v>1125</v>
       </c>
       <c r="B31" s="88" t="n">
         <v>4</v>
       </c>
       <c r="C31" s="88" t="s">
-        <v>1121</v>
+        <v>1126</v>
       </c>
       <c r="D31" s="88" t="n">
         <v>4</v>
@@ -32492,12 +32528,12 @@
         <v>4</v>
       </c>
       <c r="G31" s="89" t="s">
-        <v>1121</v>
+        <v>1126</v>
       </c>
       <c r="H31" s="89"/>
       <c r="I31" s="89"/>
       <c r="J31" s="90" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="K31" s="90" t="n">
         <v>4</v>
@@ -32510,25 +32546,25 @@
         <v>4</v>
       </c>
       <c r="O31" s="91" t="s">
-        <v>1121</v>
+        <v>1126</v>
       </c>
       <c r="P31" s="91" t="n">
         <v>4</v>
       </c>
       <c r="Q31" s="91" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="R31" s="92" t="n">
         <v>4</v>
       </c>
       <c r="S31" s="92" t="s">
-        <v>1121</v>
+        <v>1126</v>
       </c>
       <c r="T31" s="92" t="n">
         <v>4</v>
       </c>
       <c r="U31" s="92" t="s">
-        <v>1122</v>
+        <v>1127</v>
       </c>
       <c r="V31" s="93"/>
       <c r="W31" s="93"/>
@@ -32538,19 +32574,19 @@
         <v>4</v>
       </c>
       <c r="AA31" s="94" t="s">
-        <v>1119</v>
+        <v>1124</v>
       </c>
       <c r="AB31" s="94" t="n">
         <v>4</v>
       </c>
       <c r="AC31" s="94" t="s">
-        <v>1121</v>
+        <v>1126</v>
       </c>
       <c r="AD31" s="95" t="n">
         <v>4</v>
       </c>
       <c r="AE31" s="95" t="s">
-        <v>1121</v>
+        <v>1126</v>
       </c>
       <c r="AF31" s="95" t="n">
         <v>4</v>
@@ -32568,7 +32604,7 @@
         <v>4</v>
       </c>
       <c r="AM31" s="97" t="s">
-        <v>1121</v>
+        <v>1126</v>
       </c>
       <c r="AN31" s="97" t="n">
         <v>4</v>
@@ -32580,7 +32616,7 @@
         <v>4</v>
       </c>
       <c r="AQ31" s="98" t="s">
-        <v>1121</v>
+        <v>1126</v>
       </c>
       <c r="AR31" s="98" t="n">
         <v>4</v>
@@ -32592,7 +32628,7 @@
         <v>4</v>
       </c>
       <c r="AU31" s="99" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="AV31" s="99" t="n">
         <v>4</v>
@@ -32602,7 +32638,7 @@
         <v>4</v>
       </c>
       <c r="AY31" s="100" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="AZ31" s="100" t="n">
         <v>4</v>
@@ -32612,7 +32648,7 @@
         <v>4</v>
       </c>
       <c r="BC31" s="101" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="BD31" s="101" t="n">
         <v>4</v>
@@ -32650,10 +32686,10 @@
         <v>4</v>
       </c>
       <c r="BS31" s="115" t="s">
-        <v>1121</v>
+        <v>1126</v>
       </c>
       <c r="BT31" s="104" t="s">
-        <v>1123</v>
+        <v>1128</v>
       </c>
       <c r="BU31" s="104" t="s">
         <v>190</v>
@@ -32663,13 +32699,13 @@
       <c r="BX31" s="105"/>
       <c r="BY31" s="105"/>
       <c r="BZ31" s="125" t="s">
-        <v>1124</v>
+        <v>1129</v>
       </c>
       <c r="CA31" s="125" t="s">
-        <v>1121</v>
+        <v>1126</v>
       </c>
       <c r="CB31" s="125" t="s">
-        <v>1124</v>
+        <v>1129</v>
       </c>
       <c r="CC31" s="126" t="s">
         <v>96</v>
@@ -32677,13 +32713,13 @@
     </row>
     <row r="32" s="107" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="87" t="s">
-        <v>1125</v>
+        <v>1130</v>
       </c>
       <c r="B32" s="88" t="n">
         <v>5</v>
       </c>
       <c r="C32" s="88" t="s">
-        <v>1126</v>
+        <v>1131</v>
       </c>
       <c r="D32" s="88" t="n">
         <v>5</v>
@@ -32693,12 +32729,12 @@
         <v>5</v>
       </c>
       <c r="G32" s="89" t="s">
-        <v>1126</v>
+        <v>1131</v>
       </c>
       <c r="H32" s="89"/>
       <c r="I32" s="89"/>
       <c r="J32" s="90" t="s">
-        <v>1127</v>
+        <v>1132</v>
       </c>
       <c r="K32" s="90" t="n">
         <v>5</v>
@@ -32711,25 +32747,25 @@
         <v>5</v>
       </c>
       <c r="O32" s="91" t="s">
-        <v>1126</v>
+        <v>1131</v>
       </c>
       <c r="P32" s="91" t="n">
         <v>5</v>
       </c>
       <c r="Q32" s="91" t="s">
-        <v>578</v>
+        <v>1133</v>
       </c>
       <c r="R32" s="92" t="n">
         <v>5</v>
       </c>
       <c r="S32" s="92" t="s">
-        <v>1126</v>
+        <v>1131</v>
       </c>
       <c r="T32" s="92" t="n">
         <v>5</v>
       </c>
       <c r="U32" s="92" t="s">
-        <v>578</v>
+        <v>1133</v>
       </c>
       <c r="V32" s="93"/>
       <c r="W32" s="93"/>
@@ -32739,7 +32775,7 @@
         <v>5</v>
       </c>
       <c r="AA32" s="94" t="s">
-        <v>1126</v>
+        <v>1131</v>
       </c>
       <c r="AB32" s="94" t="n">
         <v>5</v>
@@ -32751,7 +32787,7 @@
         <v>5</v>
       </c>
       <c r="AE32" s="95" t="s">
-        <v>1126</v>
+        <v>1131</v>
       </c>
       <c r="AF32" s="95" t="n">
         <v>5</v>
@@ -32769,7 +32805,7 @@
         <v>5</v>
       </c>
       <c r="AM32" s="97" t="s">
-        <v>1126</v>
+        <v>1131</v>
       </c>
       <c r="AN32" s="97" t="n">
         <v>5</v>
@@ -32781,7 +32817,7 @@
         <v>5</v>
       </c>
       <c r="AQ32" s="98" t="s">
-        <v>1126</v>
+        <v>1131</v>
       </c>
       <c r="AR32" s="98" t="n">
         <v>5</v>
@@ -32793,7 +32829,7 @@
         <v>5</v>
       </c>
       <c r="AU32" s="99" t="s">
-        <v>1126</v>
+        <v>1131</v>
       </c>
       <c r="AV32" s="99" t="n">
         <v>5</v>
@@ -32803,7 +32839,7 @@
         <v>5</v>
       </c>
       <c r="AY32" s="100" t="s">
-        <v>1126</v>
+        <v>1131</v>
       </c>
       <c r="AZ32" s="100" t="n">
         <v>5</v>
@@ -32813,7 +32849,7 @@
         <v>5</v>
       </c>
       <c r="BC32" s="101" t="s">
-        <v>1126</v>
+        <v>1131</v>
       </c>
       <c r="BD32" s="101" t="n">
         <v>5</v>
@@ -32833,7 +32869,7 @@
         <v>5</v>
       </c>
       <c r="BK32" s="103" t="s">
-        <v>1126</v>
+        <v>1131</v>
       </c>
       <c r="BL32" s="103" t="n">
         <v>5</v>
@@ -32843,7 +32879,7 @@
         <v>5</v>
       </c>
       <c r="BO32" s="89" t="s">
-        <v>1126</v>
+        <v>1131</v>
       </c>
       <c r="BP32" s="89"/>
       <c r="BQ32" s="89" t="s">
@@ -32853,7 +32889,7 @@
         <v>5</v>
       </c>
       <c r="BS32" s="104" t="s">
-        <v>1126</v>
+        <v>1131</v>
       </c>
       <c r="BT32" s="104"/>
       <c r="BU32" s="104" t="s">
@@ -32864,13 +32900,13 @@
       <c r="BX32" s="105"/>
       <c r="BY32" s="105"/>
       <c r="BZ32" s="125" t="s">
-        <v>1128</v>
+        <v>1134</v>
       </c>
       <c r="CA32" s="125" t="s">
-        <v>1126</v>
+        <v>1131</v>
       </c>
       <c r="CB32" s="125" t="s">
-        <v>1128</v>
+        <v>1134</v>
       </c>
       <c r="CC32" s="125" t="s">
         <v>98</v>
@@ -32878,13 +32914,13 @@
     </row>
     <row r="33" s="107" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="87" t="s">
-        <v>1129</v>
+        <v>1135</v>
       </c>
       <c r="B33" s="88" t="n">
         <v>6</v>
       </c>
       <c r="C33" s="88" t="s">
-        <v>1118</v>
+        <v>1122</v>
       </c>
       <c r="D33" s="88" t="n">
         <v>6</v>
@@ -32894,25 +32930,25 @@
         <v>6</v>
       </c>
       <c r="G33" s="89" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="H33" s="89"/>
       <c r="I33" s="89"/>
       <c r="J33" s="90" t="s">
-        <v>1130</v>
+        <v>1136</v>
       </c>
       <c r="K33" s="90" t="n">
         <v>6</v>
       </c>
       <c r="L33" s="90"/>
       <c r="M33" s="90" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="N33" s="91" t="n">
         <v>6</v>
       </c>
       <c r="O33" s="91" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="P33" s="91" t="n">
         <v>6</v>
@@ -32924,7 +32960,7 @@
         <v>6</v>
       </c>
       <c r="S33" s="92" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="T33" s="92" t="n">
         <v>6</v>
@@ -32934,7 +32970,7 @@
         <v>6</v>
       </c>
       <c r="W33" s="93" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="X33" s="93" t="n">
         <v>6</v>
@@ -32944,7 +32980,7 @@
         <v>6</v>
       </c>
       <c r="AA33" s="94" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="AB33" s="94" t="n">
         <v>6</v>
@@ -32954,7 +32990,7 @@
         <v>6</v>
       </c>
       <c r="AE33" s="95" t="s">
-        <v>1118</v>
+        <v>1122</v>
       </c>
       <c r="AF33" s="95" t="n">
         <v>6</v>
@@ -32972,7 +33008,7 @@
         <v>6</v>
       </c>
       <c r="AM33" s="97" t="s">
-        <v>1118</v>
+        <v>1122</v>
       </c>
       <c r="AN33" s="97" t="n">
         <v>6</v>
@@ -32984,19 +33020,19 @@
         <v>6</v>
       </c>
       <c r="AQ33" s="98" t="s">
-        <v>1118</v>
+        <v>1122</v>
       </c>
       <c r="AR33" s="98" t="n">
         <v>6</v>
       </c>
       <c r="AS33" s="109" t="s">
-        <v>84</v>
+        <v>1137</v>
       </c>
       <c r="AT33" s="99" t="n">
         <v>6</v>
       </c>
       <c r="AU33" s="99" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="AV33" s="99" t="n">
         <v>6</v>
@@ -33006,7 +33042,7 @@
         <v>6</v>
       </c>
       <c r="AY33" s="100" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="AZ33" s="100" t="n">
         <v>6</v>
@@ -33016,20 +33052,20 @@
         <v>6</v>
       </c>
       <c r="BC33" s="101" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="BD33" s="101" t="n">
         <v>6</v>
       </c>
       <c r="BE33" s="101"/>
       <c r="BF33" s="102" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="BG33" s="102" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="BH33" s="102" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="BI33" s="102"/>
       <c r="BJ33" s="103" t="n">
@@ -33046,7 +33082,7 @@
         <v>6</v>
       </c>
       <c r="BO33" s="89" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="BP33" s="89"/>
       <c r="BQ33" s="117" t="s">
@@ -33056,7 +33092,7 @@
         <v>6</v>
       </c>
       <c r="BS33" s="104" t="s">
-        <v>1118</v>
+        <v>1122</v>
       </c>
       <c r="BT33" s="104"/>
       <c r="BU33" s="115" t="s">
@@ -33070,7 +33106,7 @@
         <v>6</v>
       </c>
       <c r="CA33" s="106" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="CB33" s="106" t="n">
         <v>6</v>
@@ -33081,13 +33117,13 @@
     </row>
     <row r="34" s="107" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="87" t="s">
-        <v>1131</v>
+        <v>1138</v>
       </c>
       <c r="B34" s="88" t="n">
         <v>7</v>
       </c>
       <c r="C34" s="88" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="D34" s="88" t="n">
         <v>7</v>
@@ -33104,7 +33140,7 @@
         <v>1019</v>
       </c>
       <c r="J34" s="90" t="s">
-        <v>145</v>
+        <v>1139</v>
       </c>
       <c r="K34" s="90" t="n">
         <v>7</v>
@@ -33161,7 +33197,7 @@
         <v>7</v>
       </c>
       <c r="AE34" s="95" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="AF34" s="95" t="n">
         <v>7</v>
@@ -33179,7 +33215,7 @@
         <v>7</v>
       </c>
       <c r="AM34" s="97" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="AN34" s="97" t="n">
         <v>7</v>
@@ -33191,7 +33227,7 @@
         <v>7</v>
       </c>
       <c r="AQ34" s="98" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="AR34" s="98" t="n">
         <v>7</v>
@@ -33201,7 +33237,7 @@
         <v>7</v>
       </c>
       <c r="AU34" s="99" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="AV34" s="99" t="n">
         <v>7</v>
@@ -33211,7 +33247,7 @@
         <v>7</v>
       </c>
       <c r="AY34" s="100" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="AZ34" s="100" t="n">
         <v>7</v>
@@ -33221,27 +33257,27 @@
         <v>7</v>
       </c>
       <c r="BC34" s="101" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="BD34" s="101" t="n">
         <v>7</v>
       </c>
       <c r="BE34" s="101"/>
       <c r="BF34" s="102" t="s">
-        <v>1132</v>
+        <v>1140</v>
       </c>
       <c r="BG34" s="102" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="BH34" s="102" t="s">
-        <v>1132</v>
+        <v>1140</v>
       </c>
       <c r="BI34" s="102"/>
       <c r="BJ34" s="103" t="n">
         <v>7</v>
       </c>
       <c r="BK34" s="103" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="BL34" s="103" t="n">
         <v>7</v>
@@ -33255,17 +33291,17 @@
       </c>
       <c r="BP34" s="89"/>
       <c r="BQ34" s="89" t="s">
-        <v>1133</v>
+        <v>1141</v>
       </c>
       <c r="BR34" s="104" t="n">
         <v>7</v>
       </c>
       <c r="BS34" s="104" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="BT34" s="104"/>
       <c r="BU34" s="104" t="s">
-        <v>1133</v>
+        <v>1141</v>
       </c>
       <c r="BV34" s="105"/>
       <c r="BW34" s="105"/>
@@ -33275,7 +33311,7 @@
         <v>7</v>
       </c>
       <c r="CA34" s="106" t="s">
-        <v>1134</v>
+        <v>1142</v>
       </c>
       <c r="CB34" s="106" t="n">
         <v>7</v>
@@ -33286,13 +33322,13 @@
     </row>
     <row r="35" s="107" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="87" t="s">
-        <v>1135</v>
+        <v>1143</v>
       </c>
       <c r="B35" s="88" t="n">
         <v>8</v>
       </c>
       <c r="C35" s="88" t="s">
-        <v>1136</v>
+        <v>1144</v>
       </c>
       <c r="D35" s="88" t="n">
         <v>8</v>
@@ -33302,14 +33338,14 @@
         <v>8</v>
       </c>
       <c r="G35" s="89" t="s">
-        <v>1127</v>
+        <v>1132</v>
       </c>
       <c r="H35" s="89"/>
       <c r="I35" s="89" t="s">
         <v>1035</v>
       </c>
       <c r="J35" s="90" t="s">
-        <v>1134</v>
+        <v>1142</v>
       </c>
       <c r="K35" s="90" t="n">
         <v>8</v>
@@ -33322,7 +33358,7 @@
         <v>8</v>
       </c>
       <c r="O35" s="91" t="s">
-        <v>1127</v>
+        <v>1132</v>
       </c>
       <c r="P35" s="91" t="n">
         <v>8</v>
@@ -33332,7 +33368,7 @@
         <v>8</v>
       </c>
       <c r="S35" s="92" t="s">
-        <v>1127</v>
+        <v>1132</v>
       </c>
       <c r="T35" s="92" t="n">
         <v>8</v>
@@ -33344,7 +33380,7 @@
         <v>8</v>
       </c>
       <c r="W35" s="93" t="s">
-        <v>1127</v>
+        <v>1132</v>
       </c>
       <c r="X35" s="93" t="n">
         <v>8</v>
@@ -33354,7 +33390,7 @@
         <v>8</v>
       </c>
       <c r="AA35" s="94" t="s">
-        <v>1127</v>
+        <v>1132</v>
       </c>
       <c r="AB35" s="94" t="n">
         <v>8</v>
@@ -33366,7 +33402,7 @@
         <v>8</v>
       </c>
       <c r="AE35" s="95" t="s">
-        <v>1136</v>
+        <v>1144</v>
       </c>
       <c r="AF35" s="95" t="n">
         <v>8</v>
@@ -33384,7 +33420,7 @@
         <v>8</v>
       </c>
       <c r="AM35" s="97" t="s">
-        <v>1136</v>
+        <v>1144</v>
       </c>
       <c r="AN35" s="97" t="n">
         <v>8</v>
@@ -33396,7 +33432,7 @@
         <v>8</v>
       </c>
       <c r="AQ35" s="98" t="s">
-        <v>1136</v>
+        <v>1144</v>
       </c>
       <c r="AR35" s="98" t="n">
         <v>8</v>
@@ -33408,7 +33444,7 @@
         <v>8</v>
       </c>
       <c r="AU35" s="99" t="s">
-        <v>1136</v>
+        <v>1144</v>
       </c>
       <c r="AV35" s="99" t="n">
         <v>8</v>
@@ -33418,7 +33454,7 @@
         <v>8</v>
       </c>
       <c r="AY35" s="100" t="s">
-        <v>1136</v>
+        <v>1144</v>
       </c>
       <c r="AZ35" s="100" t="n">
         <v>8</v>
@@ -33428,7 +33464,7 @@
         <v>8</v>
       </c>
       <c r="BC35" s="101" t="s">
-        <v>1136</v>
+        <v>1144</v>
       </c>
       <c r="BD35" s="101" t="n">
         <v>8</v>
@@ -33456,7 +33492,7 @@
         <v>8</v>
       </c>
       <c r="BO35" s="89" t="s">
-        <v>1127</v>
+        <v>1132</v>
       </c>
       <c r="BP35" s="89"/>
       <c r="BQ35" s="117" t="s">
@@ -33466,7 +33502,7 @@
         <v>8</v>
       </c>
       <c r="BS35" s="104" t="s">
-        <v>1136</v>
+        <v>1144</v>
       </c>
       <c r="BT35" s="104"/>
       <c r="BU35" s="115" t="s">
@@ -33480,7 +33516,7 @@
         <v>8</v>
       </c>
       <c r="CA35" s="106" t="s">
-        <v>1127</v>
+        <v>1132</v>
       </c>
       <c r="CB35" s="106" t="n">
         <v>8</v>
@@ -33491,13 +33527,13 @@
     </row>
     <row r="36" s="107" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="87" t="s">
-        <v>1137</v>
+        <v>1145</v>
       </c>
       <c r="B36" s="88" t="n">
         <v>9</v>
       </c>
       <c r="C36" s="88" t="s">
-        <v>1127</v>
+        <v>1132</v>
       </c>
       <c r="D36" s="88" t="n">
         <v>9</v>
@@ -33507,27 +33543,27 @@
         <v>9</v>
       </c>
       <c r="G36" s="89" t="s">
-        <v>1138</v>
+        <v>1146</v>
       </c>
       <c r="H36" s="89"/>
       <c r="I36" s="89" t="s">
         <v>1026</v>
       </c>
       <c r="J36" s="127" t="s">
-        <v>143</v>
+        <v>1147</v>
       </c>
       <c r="K36" s="90" t="n">
         <v>9</v>
       </c>
       <c r="L36" s="127"/>
       <c r="M36" s="127" t="s">
-        <v>1118</v>
+        <v>1122</v>
       </c>
       <c r="N36" s="91" t="n">
         <v>9</v>
       </c>
       <c r="O36" s="91" t="s">
-        <v>1138</v>
+        <v>1146</v>
       </c>
       <c r="P36" s="91" t="n">
         <v>9</v>
@@ -33537,7 +33573,7 @@
         <v>9</v>
       </c>
       <c r="S36" s="92" t="s">
-        <v>1138</v>
+        <v>1146</v>
       </c>
       <c r="T36" s="92" t="n">
         <v>9</v>
@@ -33549,7 +33585,7 @@
         <v>9</v>
       </c>
       <c r="W36" s="93" t="s">
-        <v>1138</v>
+        <v>1146</v>
       </c>
       <c r="X36" s="93" t="n">
         <v>9</v>
@@ -33559,7 +33595,7 @@
         <v>9</v>
       </c>
       <c r="AA36" s="94" t="s">
-        <v>1138</v>
+        <v>1146</v>
       </c>
       <c r="AB36" s="94" t="n">
         <v>9</v>
@@ -33571,7 +33607,7 @@
         <v>9</v>
       </c>
       <c r="AE36" s="95" t="s">
-        <v>1127</v>
+        <v>1132</v>
       </c>
       <c r="AF36" s="95" t="n">
         <v>9</v>
@@ -33589,7 +33625,7 @@
         <v>9</v>
       </c>
       <c r="AM36" s="97" t="s">
-        <v>1127</v>
+        <v>1132</v>
       </c>
       <c r="AN36" s="97" t="n">
         <v>9</v>
@@ -33601,19 +33637,19 @@
         <v>9</v>
       </c>
       <c r="AQ36" s="98" t="s">
-        <v>1127</v>
+        <v>1132</v>
       </c>
       <c r="AR36" s="98" t="n">
         <v>9</v>
       </c>
       <c r="AS36" s="98" t="s">
-        <v>55</v>
+        <v>1148</v>
       </c>
       <c r="AT36" s="99" t="n">
         <v>9</v>
       </c>
       <c r="AU36" s="99" t="s">
-        <v>1127</v>
+        <v>1132</v>
       </c>
       <c r="AV36" s="99" t="n">
         <v>9</v>
@@ -33623,7 +33659,7 @@
         <v>9</v>
       </c>
       <c r="AY36" s="100" t="s">
-        <v>1127</v>
+        <v>1132</v>
       </c>
       <c r="AZ36" s="100" t="n">
         <v>9</v>
@@ -33633,7 +33669,7 @@
         <v>9</v>
       </c>
       <c r="BC36" s="101" t="s">
-        <v>1127</v>
+        <v>1132</v>
       </c>
       <c r="BD36" s="101" t="n">
         <v>9</v>
@@ -33651,7 +33687,7 @@
         <v>9</v>
       </c>
       <c r="BK36" s="103" t="s">
-        <v>1139</v>
+        <v>1149</v>
       </c>
       <c r="BL36" s="103" t="n">
         <v>9</v>
@@ -33661,7 +33697,7 @@
         <v>9</v>
       </c>
       <c r="BO36" s="89" t="s">
-        <v>1138</v>
+        <v>1146</v>
       </c>
       <c r="BP36" s="89"/>
       <c r="BQ36" s="117" t="s">
@@ -33671,7 +33707,7 @@
         <v>9</v>
       </c>
       <c r="BS36" s="104" t="s">
-        <v>1127</v>
+        <v>1132</v>
       </c>
       <c r="BT36" s="104"/>
       <c r="BU36" s="115" t="s">
@@ -33685,24 +33721,24 @@
         <v>9</v>
       </c>
       <c r="CA36" s="106" t="s">
-        <v>1138</v>
+        <v>1146</v>
       </c>
       <c r="CB36" s="106" t="n">
         <v>9</v>
       </c>
       <c r="CC36" s="106" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="37" s="107" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="87" t="s">
-        <v>1140</v>
+        <v>1150</v>
       </c>
       <c r="B37" s="88" t="s">
         <v>12</v>
       </c>
       <c r="C37" s="88" t="s">
-        <v>1138</v>
+        <v>1146</v>
       </c>
       <c r="D37" s="88" t="s">
         <v>12</v>
@@ -33716,17 +33752,17 @@
       </c>
       <c r="H37" s="89"/>
       <c r="I37" s="89" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="J37" s="127" t="s">
-        <v>137</v>
+        <v>1151</v>
       </c>
       <c r="K37" s="90" t="s">
         <v>12</v>
       </c>
       <c r="L37" s="127"/>
       <c r="M37" s="127" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="N37" s="91" t="s">
         <v>12</v>
@@ -33748,7 +33784,7 @@
         <v>12</v>
       </c>
       <c r="U37" s="92" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="V37" s="93" t="s">
         <v>12</v>
@@ -33770,13 +33806,13 @@
         <v>12</v>
       </c>
       <c r="AC37" s="94" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="AD37" s="95" t="s">
         <v>12</v>
       </c>
       <c r="AE37" s="95" t="s">
-        <v>1138</v>
+        <v>1146</v>
       </c>
       <c r="AF37" s="95" t="s">
         <v>12</v>
@@ -33794,7 +33830,7 @@
         <v>12</v>
       </c>
       <c r="AM37" s="97" t="s">
-        <v>1138</v>
+        <v>1146</v>
       </c>
       <c r="AN37" s="97" t="s">
         <v>12</v>
@@ -33806,7 +33842,7 @@
         <v>12</v>
       </c>
       <c r="AQ37" s="98" t="s">
-        <v>1138</v>
+        <v>1146</v>
       </c>
       <c r="AR37" s="98" t="s">
         <v>12</v>
@@ -33818,7 +33854,7 @@
         <v>12</v>
       </c>
       <c r="AU37" s="99" t="s">
-        <v>1138</v>
+        <v>1146</v>
       </c>
       <c r="AV37" s="99" t="s">
         <v>12</v>
@@ -33828,7 +33864,7 @@
         <v>12</v>
       </c>
       <c r="AY37" s="100" t="s">
-        <v>1138</v>
+        <v>1146</v>
       </c>
       <c r="AZ37" s="100" t="s">
         <v>12</v>
@@ -33838,7 +33874,7 @@
         <v>12</v>
       </c>
       <c r="BC37" s="101" t="s">
-        <v>1138</v>
+        <v>1146</v>
       </c>
       <c r="BD37" s="101" t="s">
         <v>12</v>
@@ -33876,7 +33912,7 @@
         <v>12</v>
       </c>
       <c r="BS37" s="104" t="s">
-        <v>1138</v>
+        <v>1146</v>
       </c>
       <c r="BT37" s="104"/>
       <c r="BU37" s="115" t="s">
@@ -33890,7 +33926,7 @@
         <v>12</v>
       </c>
       <c r="CA37" s="106" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="CB37" s="106" t="s">
         <v>12</v>
@@ -33899,7 +33935,7 @@
     </row>
     <row r="38" s="107" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="87" t="s">
-        <v>1141</v>
+        <v>1152</v>
       </c>
       <c r="B38" s="128" t="s">
         <v>613</v>
@@ -33986,10 +34022,10 @@
     </row>
     <row r="39" s="107" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="87" t="s">
-        <v>1142</v>
+        <v>1153</v>
       </c>
       <c r="B39" s="88" t="s">
-        <v>1143</v>
+        <v>1154</v>
       </c>
       <c r="C39" s="88"/>
       <c r="D39" s="88"/>
@@ -34073,7 +34109,7 @@
     </row>
     <row r="40" s="107" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="87" t="s">
-        <v>1144</v>
+        <v>1155</v>
       </c>
       <c r="B40" s="88" t="s">
         <v>587</v>
@@ -34160,7 +34196,7 @@
     </row>
     <row r="41" s="107" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="87" t="s">
-        <v>1145</v>
+        <v>1156</v>
       </c>
       <c r="B41" s="128" t="s">
         <v>607</v>
@@ -34247,7 +34283,7 @@
     </row>
     <row r="42" s="107" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="87" t="s">
-        <v>1146</v>
+        <v>1157</v>
       </c>
       <c r="B42" s="88" t="s">
         <v>24</v>
@@ -34334,23 +34370,23 @@
     </row>
     <row r="43" s="107" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="87" t="s">
-        <v>1147</v>
+        <v>1158</v>
       </c>
       <c r="B43" s="88" t="s">
-        <v>1130</v>
+        <v>1136</v>
       </c>
       <c r="C43" s="88" t="s">
-        <v>1134</v>
+        <v>1142</v>
       </c>
       <c r="D43" s="88" t="s">
-        <v>1130</v>
+        <v>1136</v>
       </c>
       <c r="E43" s="88"/>
       <c r="F43" s="89" t="s">
         <v>135</v>
       </c>
       <c r="G43" s="89" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="H43" s="89" t="s">
         <v>135</v>
@@ -34359,7 +34395,7 @@
         <v>16</v>
       </c>
       <c r="J43" s="90" t="s">
-        <v>1138</v>
+        <v>1146</v>
       </c>
       <c r="K43" s="127" t="s">
         <v>72</v>
@@ -34369,45 +34405,45 @@
         <v>1026</v>
       </c>
       <c r="N43" s="91" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="O43" s="91" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="P43" s="91" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="Q43" s="91"/>
       <c r="R43" s="92" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="S43" s="92" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="T43" s="92" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="U43" s="92"/>
       <c r="V43" s="93" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="W43" s="93" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="X43" s="93" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="Y43" s="93" t="s">
-        <v>1118</v>
+        <v>1122</v>
       </c>
       <c r="Z43" s="94" t="s">
-        <v>1136</v>
+        <v>1144</v>
       </c>
       <c r="AA43" s="94" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="AB43" s="94" t="s">
-        <v>1136</v>
+        <v>1144</v>
       </c>
       <c r="AC43" s="94" t="s">
         <v>16</v>
@@ -34429,13 +34465,13 @@
       <c r="AN43" s="97"/>
       <c r="AO43" s="97"/>
       <c r="AP43" s="98" t="s">
-        <v>1130</v>
+        <v>1136</v>
       </c>
       <c r="AQ43" s="98" t="s">
-        <v>1134</v>
+        <v>1142</v>
       </c>
       <c r="AR43" s="98" t="s">
-        <v>1130</v>
+        <v>1136</v>
       </c>
       <c r="AS43" s="98" t="s">
         <v>74</v>
@@ -34461,38 +34497,38 @@
       <c r="BH43" s="102"/>
       <c r="BI43" s="102"/>
       <c r="BJ43" s="103" t="s">
-        <v>1130</v>
+        <v>1136</v>
       </c>
       <c r="BK43" s="103" t="s">
-        <v>1121</v>
+        <v>1126</v>
       </c>
       <c r="BL43" s="103" t="s">
-        <v>1130</v>
+        <v>1136</v>
       </c>
       <c r="BM43" s="103"/>
       <c r="BN43" s="89" t="s">
-        <v>1119</v>
+        <v>1124</v>
       </c>
       <c r="BO43" s="89" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="BP43" s="89" t="s">
-        <v>1119</v>
+        <v>1124</v>
       </c>
       <c r="BQ43" s="117" t="s">
         <v>59</v>
       </c>
       <c r="BR43" s="104" t="s">
-        <v>1130</v>
+        <v>1136</v>
       </c>
       <c r="BS43" s="104" t="s">
-        <v>1134</v>
+        <v>1142</v>
       </c>
       <c r="BT43" s="104" t="s">
-        <v>1130</v>
+        <v>1136</v>
       </c>
       <c r="BU43" s="115" t="s">
-        <v>1148</v>
+        <v>1159</v>
       </c>
       <c r="BV43" s="105"/>
       <c r="BW43" s="105"/>
@@ -34502,7 +34538,7 @@
         <v>1054</v>
       </c>
       <c r="CA43" s="106" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="CB43" s="106" t="s">
         <v>1054</v>
@@ -34513,13 +34549,13 @@
     </row>
     <row r="44" s="107" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="87" t="s">
-        <v>1149</v>
+        <v>1160</v>
       </c>
       <c r="B44" s="88" t="s">
         <v>14</v>
       </c>
       <c r="C44" s="88" t="s">
-        <v>1119</v>
+        <v>1124</v>
       </c>
       <c r="D44" s="88" t="s">
         <v>14</v>
@@ -34539,11 +34575,11 @@
         <v>14</v>
       </c>
       <c r="K44" s="90" t="s">
-        <v>1119</v>
+        <v>1124</v>
       </c>
       <c r="L44" s="90"/>
       <c r="M44" s="90" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="N44" s="91" t="s">
         <v>45</v>
@@ -34578,16 +34614,16 @@
         <v>153</v>
       </c>
       <c r="Z44" s="123" t="s">
-        <v>1130</v>
+        <v>1136</v>
       </c>
       <c r="AA44" s="123" t="s">
-        <v>1134</v>
+        <v>1142</v>
       </c>
       <c r="AB44" s="123" t="s">
-        <v>1130</v>
+        <v>1136</v>
       </c>
       <c r="AC44" s="94" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="AD44" s="95"/>
       <c r="AE44" s="95"/>
@@ -34607,7 +34643,7 @@
         <v>14</v>
       </c>
       <c r="AQ44" s="98" t="s">
-        <v>1119</v>
+        <v>1124</v>
       </c>
       <c r="AR44" s="98" t="s">
         <v>14</v>
@@ -34619,7 +34655,7 @@
         <v>14</v>
       </c>
       <c r="AU44" s="99" t="s">
-        <v>1119</v>
+        <v>1124</v>
       </c>
       <c r="AV44" s="99" t="s">
         <v>14</v>
@@ -34629,7 +34665,7 @@
         <v>14</v>
       </c>
       <c r="AY44" s="100" t="s">
-        <v>1119</v>
+        <v>1124</v>
       </c>
       <c r="AZ44" s="100" t="s">
         <v>14</v>
@@ -34639,7 +34675,7 @@
         <v>14</v>
       </c>
       <c r="BC44" s="101" t="s">
-        <v>1119</v>
+        <v>1124</v>
       </c>
       <c r="BD44" s="101" t="s">
         <v>14</v>
@@ -34654,38 +34690,38 @@
       <c r="BH44" s="102"/>
       <c r="BI44" s="102"/>
       <c r="BJ44" s="103" t="s">
-        <v>1132</v>
+        <v>1140</v>
       </c>
       <c r="BK44" s="103" t="s">
         <v>578</v>
       </c>
       <c r="BL44" s="103" t="s">
-        <v>1132</v>
+        <v>1140</v>
       </c>
       <c r="BM44" s="103"/>
       <c r="BN44" s="89" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="BO44" s="89" t="s">
-        <v>1136</v>
+        <v>1144</v>
       </c>
       <c r="BP44" s="89" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="BQ44" s="117" t="s">
         <v>88</v>
       </c>
       <c r="BR44" s="104" t="s">
-        <v>1150</v>
+        <v>1161</v>
       </c>
       <c r="BS44" s="104" t="s">
-        <v>1119</v>
+        <v>1124</v>
       </c>
       <c r="BT44" s="104" t="s">
-        <v>1150</v>
+        <v>1161</v>
       </c>
       <c r="BU44" s="104" t="s">
-        <v>1151</v>
+        <v>1162</v>
       </c>
       <c r="BV44" s="105"/>
       <c r="BW44" s="105"/>
@@ -34695,7 +34731,7 @@
         <v>72</v>
       </c>
       <c r="CA44" s="106" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="CB44" s="116" t="s">
         <v>72</v>
@@ -34706,7 +34742,7 @@
     </row>
     <row r="45" s="107" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="87" t="s">
-        <v>1152</v>
+        <v>1163</v>
       </c>
       <c r="B45" s="88" t="s">
         <v>1035</v>
@@ -34727,7 +34763,7 @@
       <c r="H45" s="89"/>
       <c r="I45" s="89"/>
       <c r="J45" s="90" t="s">
-        <v>1118</v>
+        <v>1122</v>
       </c>
       <c r="K45" s="127" t="s">
         <v>59</v>
@@ -34738,7 +34774,7 @@
         <v>18</v>
       </c>
       <c r="O45" s="91" t="s">
-        <v>1118</v>
+        <v>1122</v>
       </c>
       <c r="P45" s="91" t="s">
         <v>18</v>
@@ -34747,13 +34783,13 @@
         <v>1035</v>
       </c>
       <c r="R45" s="92" t="s">
-        <v>1119</v>
+        <v>1124</v>
       </c>
       <c r="S45" s="92" t="s">
-        <v>1136</v>
+        <v>1144</v>
       </c>
       <c r="T45" s="92" t="s">
-        <v>1119</v>
+        <v>1124</v>
       </c>
       <c r="U45" s="129" t="s">
         <v>59</v>
@@ -34778,7 +34814,7 @@
       </c>
       <c r="AB45" s="94"/>
       <c r="AC45" s="123" t="s">
-        <v>1153</v>
+        <v>1164</v>
       </c>
       <c r="AD45" s="95"/>
       <c r="AE45" s="95"/>
@@ -34796,7 +34832,7 @@
         <v>467</v>
       </c>
       <c r="AM45" s="97" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="AN45" s="97" t="s">
         <v>467</v>
@@ -34855,28 +34891,28 @@
       <c r="BL45" s="103"/>
       <c r="BM45" s="103"/>
       <c r="BN45" s="89" t="s">
-        <v>1154</v>
+        <v>1165</v>
       </c>
       <c r="BO45" s="89" t="s">
-        <v>1155</v>
+        <v>1166</v>
       </c>
       <c r="BP45" s="89" t="s">
-        <v>1154</v>
+        <v>1165</v>
       </c>
       <c r="BQ45" s="117" t="s">
         <v>163</v>
       </c>
       <c r="BR45" s="104" t="s">
-        <v>1156</v>
+        <v>1167</v>
       </c>
       <c r="BS45" s="104" t="s">
-        <v>1157</v>
+        <v>1168</v>
       </c>
       <c r="BT45" s="104" t="s">
-        <v>1156</v>
+        <v>1167</v>
       </c>
       <c r="BU45" s="104" t="s">
-        <v>1158</v>
+        <v>1169</v>
       </c>
       <c r="BV45" s="105"/>
       <c r="BW45" s="105"/>
@@ -34886,7 +34922,7 @@
         <v>59</v>
       </c>
       <c r="CA45" s="106" t="s">
-        <v>1118</v>
+        <v>1122</v>
       </c>
       <c r="CB45" s="116" t="s">
         <v>59</v>
@@ -34895,30 +34931,30 @@
     </row>
     <row r="46" s="107" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="87" t="s">
-        <v>1159</v>
+        <v>1170</v>
       </c>
       <c r="B46" s="88" t="s">
         <v>1026</v>
       </c>
       <c r="C46" s="88" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="D46" s="88" t="s">
         <v>1026</v>
       </c>
       <c r="E46" s="88"/>
       <c r="F46" s="89" t="s">
-        <v>1119</v>
+        <v>1124</v>
       </c>
       <c r="G46" s="89" t="s">
-        <v>1136</v>
+        <v>1144</v>
       </c>
       <c r="H46" s="89"/>
       <c r="I46" s="89" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="J46" s="90" t="s">
-        <v>1121</v>
+        <v>1126</v>
       </c>
       <c r="K46" s="90" t="s">
         <v>49</v>
@@ -34928,13 +34964,13 @@
         <v>51</v>
       </c>
       <c r="N46" s="91" t="s">
-        <v>1119</v>
+        <v>1124</v>
       </c>
       <c r="O46" s="91" t="s">
-        <v>1136</v>
+        <v>1144</v>
       </c>
       <c r="P46" s="91" t="s">
-        <v>1119</v>
+        <v>1124</v>
       </c>
       <c r="Q46" s="91" t="s">
         <v>1026</v>
@@ -34952,13 +34988,13 @@
         <v>1026</v>
       </c>
       <c r="V46" s="130" t="s">
-        <v>1119</v>
+        <v>1124</v>
       </c>
       <c r="W46" s="130" t="s">
-        <v>1136</v>
+        <v>1144</v>
       </c>
       <c r="X46" s="130" t="s">
-        <v>1119</v>
+        <v>1124</v>
       </c>
       <c r="Y46" s="93" t="s">
         <v>1026</v>
@@ -34971,7 +35007,7 @@
       </c>
       <c r="AB46" s="123"/>
       <c r="AC46" s="94" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="AD46" s="95"/>
       <c r="AE46" s="95"/>
@@ -34999,7 +35035,7 @@
         <v>1026</v>
       </c>
       <c r="AQ46" s="98" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="AR46" s="98" t="s">
         <v>1026</v>
@@ -35024,7 +35060,7 @@
       <c r="AZ46" s="100"/>
       <c r="BA46" s="100"/>
       <c r="BB46" s="101" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="BC46" s="101"/>
       <c r="BD46" s="101"/>
@@ -35038,7 +35074,7 @@
       <c r="BH46" s="102"/>
       <c r="BI46" s="102"/>
       <c r="BJ46" s="103" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="BK46" s="103" t="s">
         <v>57</v>
@@ -35046,10 +35082,10 @@
       <c r="BL46" s="103"/>
       <c r="BM46" s="103"/>
       <c r="BN46" s="89" t="s">
-        <v>1160</v>
+        <v>1171</v>
       </c>
       <c r="BO46" s="89" t="s">
-        <v>1161</v>
+        <v>1172</v>
       </c>
       <c r="BP46" s="89"/>
       <c r="BQ46" s="117" t="s">
@@ -35065,47 +35101,47 @@
         <v>117</v>
       </c>
       <c r="BU46" s="104" t="s">
-        <v>1162</v>
+        <v>1173</v>
       </c>
       <c r="BV46" s="124"/>
       <c r="BW46" s="124"/>
       <c r="BX46" s="124"/>
       <c r="BY46" s="124"/>
       <c r="BZ46" s="106" t="s">
-        <v>1136</v>
+        <v>1144</v>
       </c>
       <c r="CA46" s="106" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="CB46" s="106" t="s">
-        <v>1136</v>
+        <v>1144</v>
       </c>
       <c r="CC46" s="106"/>
     </row>
     <row r="47" s="107" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="87" t="s">
-        <v>1163</v>
+        <v>1174</v>
       </c>
       <c r="B47" s="88" t="s">
         <v>16</v>
       </c>
       <c r="C47" s="88" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="D47" s="88" t="s">
         <v>16</v>
       </c>
       <c r="E47" s="88"/>
       <c r="F47" s="89" t="s">
+        <v>1120</v>
+      </c>
+      <c r="G47" s="89" t="s">
         <v>1116</v>
-      </c>
-      <c r="G47" s="89" t="s">
-        <v>1114</v>
       </c>
       <c r="H47" s="89"/>
       <c r="I47" s="89"/>
       <c r="J47" s="90" t="s">
-        <v>1136</v>
+        <v>1144</v>
       </c>
       <c r="K47" s="90" t="s">
         <v>82</v>
@@ -35120,16 +35156,16 @@
       </c>
       <c r="P47" s="91"/>
       <c r="Q47" s="91" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="R47" s="92" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="S47" s="92" t="s">
-        <v>1118</v>
+        <v>1122</v>
       </c>
       <c r="T47" s="92" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="U47" s="92"/>
       <c r="V47" s="93" t="s">
@@ -35142,13 +35178,13 @@
         <v>129</v>
       </c>
       <c r="Y47" s="93" t="s">
-        <v>57</v>
+        <v>1175</v>
       </c>
       <c r="Z47" s="94" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="AA47" s="94" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="AB47" s="94"/>
       <c r="AC47" s="94" t="s">
@@ -35168,7 +35204,7 @@
         <v>475</v>
       </c>
       <c r="AM47" s="108" t="s">
-        <v>1164</v>
+        <v>1176</v>
       </c>
       <c r="AN47" s="97" t="s">
         <v>475</v>
@@ -35178,7 +35214,7 @@
         <v>16</v>
       </c>
       <c r="AQ47" s="109" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="AR47" s="98" t="s">
         <v>16</v>
@@ -35219,73 +35255,73 @@
       <c r="BH47" s="102"/>
       <c r="BI47" s="102"/>
       <c r="BJ47" s="103" t="s">
-        <v>1165</v>
+        <v>1177</v>
       </c>
       <c r="BK47" s="122" t="s">
-        <v>1166</v>
+        <v>1178</v>
       </c>
       <c r="BL47" s="103" t="s">
-        <v>1165</v>
+        <v>1177</v>
       </c>
       <c r="BM47" s="103"/>
       <c r="BN47" s="117" t="s">
         <v>159</v>
       </c>
       <c r="BO47" s="89" t="s">
-        <v>1167</v>
+        <v>1179</v>
       </c>
       <c r="BP47" s="117" t="s">
         <v>159</v>
       </c>
       <c r="BQ47" s="89" t="s">
-        <v>1167</v>
+        <v>1179</v>
       </c>
       <c r="BR47" s="115" t="s">
-        <v>1168</v>
+        <v>1180</v>
       </c>
       <c r="BS47" s="115" t="s">
-        <v>1169</v>
+        <v>1181</v>
       </c>
       <c r="BT47" s="115" t="s">
-        <v>1169</v>
+        <v>1181</v>
       </c>
       <c r="BU47" s="115" t="s">
-        <v>1170</v>
+        <v>1182</v>
       </c>
       <c r="BV47" s="124"/>
       <c r="BW47" s="124"/>
       <c r="BX47" s="124"/>
       <c r="BY47" s="124"/>
       <c r="BZ47" s="106" t="s">
-        <v>1171</v>
+        <v>1183</v>
       </c>
       <c r="CA47" s="106" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="CB47" s="106" t="s">
-        <v>1171</v>
+        <v>1183</v>
       </c>
       <c r="CC47" s="106"/>
     </row>
     <row r="48" s="107" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="87" t="s">
-        <v>1172</v>
+        <v>1184</v>
       </c>
       <c r="B48" s="88" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
       <c r="C48" s="88" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="D48" s="88" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
       <c r="E48" s="88"/>
       <c r="F48" s="89" t="s">
+        <v>1120</v>
+      </c>
+      <c r="G48" s="89" t="s">
         <v>1116</v>
-      </c>
-      <c r="G48" s="89" t="s">
-        <v>1114</v>
       </c>
       <c r="H48" s="89"/>
       <c r="I48" s="89"/>
@@ -35364,16 +35400,16 @@
     </row>
     <row r="49" s="107" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="87" t="s">
-        <v>1173</v>
+        <v>1185</v>
       </c>
       <c r="B49" s="88" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="C49" s="88" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D49" s="88" t="s">
         <v>1075</v>
-      </c>
-      <c r="D49" s="88" t="s">
-        <v>1074</v>
       </c>
       <c r="E49" s="88"/>
       <c r="F49" s="89" t="s">
@@ -35418,7 +35454,7 @@
         <v>121</v>
       </c>
       <c r="Y49" s="93" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="Z49" s="123" t="s">
         <v>181</v>
@@ -35444,7 +35480,7 @@
         <v>500</v>
       </c>
       <c r="AM49" s="97" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="AN49" s="97" t="s">
         <v>500</v>
@@ -35503,33 +35539,33 @@
       <c r="BL49" s="103"/>
       <c r="BM49" s="103"/>
       <c r="BN49" s="89" t="s">
-        <v>1174</v>
+        <v>1186</v>
       </c>
       <c r="BO49" s="89" t="s">
         <v>1055</v>
       </c>
       <c r="BP49" s="89"/>
       <c r="BQ49" s="89" t="s">
-        <v>1121</v>
+        <v>1126</v>
       </c>
       <c r="BR49" s="104" t="s">
-        <v>1175</v>
+        <v>1187</v>
       </c>
       <c r="BS49" s="104" t="s">
-        <v>1176</v>
+        <v>1188</v>
       </c>
       <c r="BT49" s="104" t="s">
-        <v>1176</v>
+        <v>1188</v>
       </c>
       <c r="BU49" s="104" t="s">
-        <v>1177</v>
+        <v>1189</v>
       </c>
       <c r="BV49" s="105"/>
       <c r="BW49" s="105"/>
       <c r="BX49" s="105"/>
       <c r="BY49" s="105"/>
       <c r="BZ49" s="106" t="s">
-        <v>1119</v>
+        <v>1124</v>
       </c>
       <c r="CA49" s="106" t="s">
         <v>74</v>
@@ -35539,16 +35575,16 @@
     </row>
     <row r="50" s="107" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="87" t="s">
-        <v>1178</v>
+        <v>1190</v>
       </c>
       <c r="B50" s="88" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="C50" s="88" t="s">
         <v>8</v>
       </c>
       <c r="D50" s="88" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="E50" s="88"/>
       <c r="F50" s="89" t="s">
@@ -35563,7 +35599,7 @@
         <v>129</v>
       </c>
       <c r="K50" s="90" t="s">
-        <v>1126</v>
+        <v>1131</v>
       </c>
       <c r="L50" s="90"/>
       <c r="M50" s="90"/>
@@ -35599,7 +35635,7 @@
         <v>104</v>
       </c>
       <c r="Y50" s="93" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
       <c r="Z50" s="94" t="s">
         <v>1043</v>
@@ -35630,13 +35666,13 @@
       </c>
       <c r="AO50" s="97"/>
       <c r="AP50" s="98" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="AQ50" s="98" t="s">
         <v>8</v>
       </c>
       <c r="AR50" s="98" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="AS50" s="98"/>
       <c r="AT50" s="99" t="s">
@@ -35680,76 +35716,76 @@
       <c r="BL50" s="103"/>
       <c r="BM50" s="103"/>
       <c r="BN50" s="89" t="s">
-        <v>1179</v>
+        <v>1191</v>
       </c>
       <c r="BO50" s="89" t="s">
-        <v>1180</v>
+        <v>1192</v>
       </c>
       <c r="BP50" s="89" t="s">
-        <v>1179</v>
+        <v>1191</v>
       </c>
       <c r="BQ50" s="117" t="s">
         <v>135</v>
       </c>
       <c r="BR50" s="104" t="s">
-        <v>1181</v>
+        <v>1193</v>
       </c>
       <c r="BS50" s="104" t="s">
-        <v>1182</v>
+        <v>1194</v>
       </c>
       <c r="BT50" s="104" t="s">
-        <v>1182</v>
+        <v>1194</v>
       </c>
       <c r="BU50" s="104" t="s">
-        <v>1183</v>
+        <v>1195</v>
       </c>
       <c r="BV50" s="105"/>
       <c r="BW50" s="105"/>
       <c r="BX50" s="105"/>
       <c r="BY50" s="105"/>
       <c r="BZ50" s="106" t="s">
-        <v>1133</v>
+        <v>1141</v>
       </c>
       <c r="CA50" s="106" t="s">
-        <v>1184</v>
+        <v>1196</v>
       </c>
       <c r="CB50" s="106" t="s">
-        <v>1133</v>
+        <v>1141</v>
       </c>
       <c r="CC50" s="106"/>
     </row>
     <row r="51" s="107" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="87" t="s">
-        <v>1185</v>
+        <v>1197</v>
       </c>
       <c r="B51" s="88" t="s">
         <v>18</v>
       </c>
       <c r="C51" s="88" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="D51" s="88" t="s">
         <v>18</v>
       </c>
       <c r="E51" s="88"/>
       <c r="F51" s="89" t="s">
-        <v>1118</v>
+        <v>1122</v>
       </c>
       <c r="G51" s="89" t="s">
         <v>72</v>
       </c>
       <c r="H51" s="89" t="s">
-        <v>1118</v>
+        <v>1122</v>
       </c>
       <c r="I51" s="89"/>
       <c r="J51" s="90" t="s">
-        <v>1186</v>
+        <v>1198</v>
       </c>
       <c r="K51" s="90" t="s">
         <v>6</v>
       </c>
       <c r="L51" s="90" t="s">
-        <v>1186</v>
+        <v>1198</v>
       </c>
       <c r="M51" s="90"/>
       <c r="N51" s="131" t="s">
@@ -35768,7 +35804,7 @@
         <v>16</v>
       </c>
       <c r="S51" s="129" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="T51" s="129" t="s">
         <v>16</v>
@@ -35778,7 +35814,7 @@
         <v>16</v>
       </c>
       <c r="W51" s="130" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="X51" s="130" t="s">
         <v>16</v>
@@ -35792,7 +35828,7 @@
       </c>
       <c r="AB51" s="123"/>
       <c r="AC51" s="94" t="s">
-        <v>1171</v>
+        <v>1183</v>
       </c>
       <c r="AD51" s="95"/>
       <c r="AE51" s="95"/>
@@ -35805,20 +35841,20 @@
       <c r="AJ51" s="96"/>
       <c r="AK51" s="96"/>
       <c r="AL51" s="97" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="AM51" s="97" t="s">
-        <v>1171</v>
+        <v>1183</v>
       </c>
       <c r="AN51" s="97" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="AO51" s="97"/>
       <c r="AP51" s="98" t="s">
         <v>18</v>
       </c>
       <c r="AQ51" s="98" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="AR51" s="98" t="s">
         <v>18</v>
@@ -35849,23 +35885,23 @@
       <c r="BD51" s="101"/>
       <c r="BE51" s="101"/>
       <c r="BF51" s="102" t="s">
-        <v>1127</v>
+        <v>1132</v>
       </c>
       <c r="BG51" s="121" t="s">
-        <v>1138</v>
+        <v>1146</v>
       </c>
       <c r="BH51" s="102" t="s">
-        <v>1127</v>
+        <v>1132</v>
       </c>
       <c r="BI51" s="102"/>
       <c r="BJ51" s="103" t="s">
-        <v>1127</v>
+        <v>1132</v>
       </c>
       <c r="BK51" s="122" t="s">
-        <v>1138</v>
+        <v>1146</v>
       </c>
       <c r="BL51" s="103" t="s">
-        <v>1127</v>
+        <v>1132</v>
       </c>
       <c r="BM51" s="103"/>
       <c r="BN51" s="117" t="s">
@@ -35881,29 +35917,29 @@
         <v>192</v>
       </c>
       <c r="BR51" s="115" t="s">
-        <v>1165</v>
+        <v>1177</v>
       </c>
       <c r="BS51" s="115" t="s">
-        <v>1166</v>
+        <v>1178</v>
       </c>
       <c r="BT51" s="115" t="s">
-        <v>1165</v>
+        <v>1177</v>
       </c>
       <c r="BU51" s="104" t="s">
-        <v>1187</v>
+        <v>1199</v>
       </c>
       <c r="BV51" s="124"/>
       <c r="BW51" s="124"/>
       <c r="BX51" s="124"/>
       <c r="BY51" s="124"/>
       <c r="BZ51" s="106" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="CA51" s="106" t="s">
         <v>57</v>
       </c>
       <c r="CB51" s="106" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="CC51" s="106" t="s">
         <v>68</v>
@@ -35911,13 +35947,13 @@
     </row>
     <row r="52" s="107" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="87" t="s">
-        <v>1188</v>
+        <v>1200</v>
       </c>
       <c r="B52" s="88" t="s">
         <v>10</v>
       </c>
       <c r="C52" s="88" t="s">
-        <v>1171</v>
+        <v>1183</v>
       </c>
       <c r="D52" s="88" t="s">
         <v>10</v>
@@ -35927,15 +35963,15 @@
         <v>10</v>
       </c>
       <c r="G52" s="89" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="H52" s="89"/>
       <c r="I52" s="89"/>
       <c r="J52" s="90" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="K52" s="90" t="s">
-        <v>1132</v>
+        <v>1140</v>
       </c>
       <c r="L52" s="90"/>
       <c r="M52" s="90"/>
@@ -35943,7 +35979,7 @@
         <v>10</v>
       </c>
       <c r="O52" s="91" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="P52" s="91" t="s">
         <v>10</v>
@@ -35953,7 +35989,7 @@
         <v>10</v>
       </c>
       <c r="S52" s="92" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="T52" s="92" t="s">
         <v>10</v>
@@ -35963,7 +35999,7 @@
         <v>10</v>
       </c>
       <c r="W52" s="93" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="X52" s="93" t="s">
         <v>10</v>
@@ -36005,7 +36041,7 @@
         <v>10</v>
       </c>
       <c r="AQ52" s="98" t="s">
-        <v>1171</v>
+        <v>1183</v>
       </c>
       <c r="AR52" s="98" t="s">
         <v>10</v>
@@ -36055,63 +36091,63 @@
         <v>10</v>
       </c>
       <c r="BO52" s="89" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="BP52" s="89" t="s">
         <v>10</v>
       </c>
       <c r="BQ52" s="89" t="s">
-        <v>1171</v>
+        <v>1183</v>
       </c>
       <c r="BR52" s="104" t="s">
         <v>10</v>
       </c>
       <c r="BS52" s="104" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="BT52" s="104" t="s">
         <v>10</v>
       </c>
       <c r="BU52" s="104" t="s">
-        <v>1189</v>
+        <v>1201</v>
       </c>
       <c r="BV52" s="105"/>
       <c r="BW52" s="105"/>
       <c r="BX52" s="105"/>
       <c r="BY52" s="105"/>
       <c r="BZ52" s="106" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="CA52" s="106" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="CB52" s="106"/>
       <c r="CC52" s="106"/>
     </row>
     <row r="53" s="107" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="87" t="s">
-        <v>1190</v>
+        <v>1202</v>
       </c>
       <c r="B53" s="88" t="s">
-        <v>1132</v>
+        <v>1140</v>
       </c>
       <c r="C53" s="88" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="D53" s="88" t="s">
-        <v>1132</v>
+        <v>1140</v>
       </c>
       <c r="E53" s="88"/>
       <c r="F53" s="89" t="s">
-        <v>1132</v>
+        <v>1140</v>
       </c>
       <c r="G53" s="89" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="H53" s="89"/>
       <c r="I53" s="89"/>
       <c r="J53" s="90" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="K53" s="90" t="s">
         <v>1054</v>
@@ -36119,33 +36155,33 @@
       <c r="L53" s="90"/>
       <c r="M53" s="90"/>
       <c r="N53" s="91" t="s">
-        <v>1132</v>
+        <v>1140</v>
       </c>
       <c r="O53" s="91" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="P53" s="91" t="s">
-        <v>1132</v>
+        <v>1140</v>
       </c>
       <c r="Q53" s="91"/>
       <c r="R53" s="92" t="s">
-        <v>1132</v>
+        <v>1140</v>
       </c>
       <c r="S53" s="92" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="T53" s="92" t="s">
-        <v>1132</v>
+        <v>1140</v>
       </c>
       <c r="U53" s="92"/>
       <c r="V53" s="93" t="s">
-        <v>1132</v>
+        <v>1140</v>
       </c>
       <c r="W53" s="93" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="X53" s="93" t="s">
-        <v>1132</v>
+        <v>1140</v>
       </c>
       <c r="Y53" s="130" t="s">
         <v>94</v>
@@ -36174,20 +36210,20 @@
         <v>477</v>
       </c>
       <c r="AM53" s="97" t="s">
-        <v>1132</v>
+        <v>1140</v>
       </c>
       <c r="AN53" s="97" t="s">
         <v>477</v>
       </c>
       <c r="AO53" s="97"/>
       <c r="AP53" s="98" t="s">
-        <v>1132</v>
+        <v>1140</v>
       </c>
       <c r="AQ53" s="98" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="AR53" s="98" t="s">
-        <v>1132</v>
+        <v>1140</v>
       </c>
       <c r="AS53" s="98"/>
       <c r="AT53" s="99" t="s">
@@ -36231,41 +36267,41 @@
       <c r="BL53" s="103"/>
       <c r="BM53" s="103"/>
       <c r="BN53" s="89" t="s">
-        <v>1132</v>
+        <v>1140</v>
       </c>
       <c r="BO53" s="89" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="BP53" s="89" t="s">
-        <v>1132</v>
+        <v>1140</v>
       </c>
       <c r="BQ53" s="89" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="BR53" s="104" t="s">
-        <v>1132</v>
+        <v>1140</v>
       </c>
       <c r="BS53" s="104" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="BT53" s="104" t="s">
-        <v>1132</v>
+        <v>1140</v>
       </c>
       <c r="BU53" s="104" t="s">
-        <v>1191</v>
+        <v>1203</v>
       </c>
       <c r="BV53" s="105"/>
       <c r="BW53" s="105"/>
       <c r="BX53" s="105"/>
       <c r="BY53" s="105"/>
       <c r="BZ53" s="106" t="s">
-        <v>1132</v>
+        <v>1140</v>
       </c>
       <c r="CA53" s="106" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="CB53" s="106" t="s">
-        <v>1132</v>
+        <v>1140</v>
       </c>
       <c r="CC53" s="106" t="s">
         <v>86</v>
@@ -36273,30 +36309,30 @@
     </row>
     <row r="54" s="107" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="87" t="s">
-        <v>1192</v>
+        <v>1204</v>
       </c>
       <c r="B54" s="88" t="s">
         <v>1054</v>
       </c>
       <c r="C54" s="88" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="D54" s="88" t="s">
         <v>1054</v>
       </c>
       <c r="E54" s="88"/>
       <c r="F54" s="89" t="s">
-        <v>1130</v>
+        <v>1136</v>
       </c>
       <c r="G54" s="89" t="s">
-        <v>1134</v>
+        <v>1142</v>
       </c>
       <c r="H54" s="89" t="s">
-        <v>1130</v>
+        <v>1136</v>
       </c>
       <c r="I54" s="89"/>
       <c r="J54" s="90" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="K54" s="90" t="s">
         <v>57</v>
@@ -36304,45 +36340,45 @@
       <c r="L54" s="90"/>
       <c r="M54" s="90"/>
       <c r="N54" s="91" t="s">
-        <v>1130</v>
+        <v>1136</v>
       </c>
       <c r="O54" s="91" t="s">
-        <v>1134</v>
+        <v>1142</v>
       </c>
       <c r="P54" s="91" t="s">
-        <v>1130</v>
+        <v>1136</v>
       </c>
       <c r="Q54" s="91"/>
       <c r="R54" s="92" t="s">
-        <v>1130</v>
+        <v>1136</v>
       </c>
       <c r="S54" s="92" t="s">
-        <v>1134</v>
+        <v>1142</v>
       </c>
       <c r="T54" s="92" t="s">
-        <v>1130</v>
+        <v>1136</v>
       </c>
       <c r="U54" s="92"/>
       <c r="V54" s="93" t="s">
-        <v>1130</v>
+        <v>1136</v>
       </c>
       <c r="W54" s="93" t="s">
-        <v>1134</v>
+        <v>1142</v>
       </c>
       <c r="X54" s="93" t="s">
-        <v>1130</v>
+        <v>1136</v>
       </c>
       <c r="Y54" s="93" t="s">
         <v>72</v>
       </c>
       <c r="Z54" s="94" t="s">
-        <v>1132</v>
+        <v>1140</v>
       </c>
       <c r="AA54" s="94" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="AB54" s="94" t="s">
-        <v>1132</v>
+        <v>1140</v>
       </c>
       <c r="AC54" s="94"/>
       <c r="AD54" s="95"/>
@@ -36371,47 +36407,47 @@
         <v>1054</v>
       </c>
       <c r="AQ54" s="98" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="AR54" s="98" t="s">
         <v>1054</v>
       </c>
       <c r="AS54" s="98"/>
       <c r="AT54" s="99" t="s">
-        <v>1132</v>
+        <v>1140</v>
       </c>
       <c r="AU54" s="99" t="s">
         <v>10</v>
       </c>
       <c r="AV54" s="99" t="s">
-        <v>1132</v>
+        <v>1140</v>
       </c>
       <c r="AW54" s="99"/>
       <c r="AX54" s="100" t="s">
-        <v>1132</v>
+        <v>1140</v>
       </c>
       <c r="AY54" s="100" t="s">
         <v>10</v>
       </c>
       <c r="AZ54" s="100" t="s">
-        <v>1132</v>
+        <v>1140</v>
       </c>
       <c r="BA54" s="100"/>
       <c r="BB54" s="101" t="s">
-        <v>1132</v>
+        <v>1140</v>
       </c>
       <c r="BC54" s="101" t="s">
         <v>10</v>
       </c>
       <c r="BD54" s="101" t="s">
-        <v>1132</v>
+        <v>1140</v>
       </c>
       <c r="BE54" s="101"/>
       <c r="BF54" s="102" t="s">
         <v>582</v>
       </c>
       <c r="BG54" s="102" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="BH54" s="102" t="s">
         <v>582</v>
@@ -36426,20 +36462,20 @@
       <c r="BL54" s="103"/>
       <c r="BM54" s="103"/>
       <c r="BN54" s="89" t="s">
-        <v>1130</v>
+        <v>1136</v>
       </c>
       <c r="BO54" s="89" t="s">
-        <v>1134</v>
+        <v>1142</v>
       </c>
       <c r="BP54" s="89" t="s">
-        <v>1130</v>
+        <v>1136</v>
       </c>
       <c r="BQ54" s="89"/>
       <c r="BR54" s="104" t="s">
         <v>1054</v>
       </c>
       <c r="BS54" s="104" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="BT54" s="104" t="s">
         <v>1054</v>
@@ -36450,49 +36486,49 @@
       <c r="BX54" s="105"/>
       <c r="BY54" s="105"/>
       <c r="BZ54" s="106" t="s">
-        <v>1130</v>
+        <v>1136</v>
       </c>
       <c r="CA54" s="106" t="s">
-        <v>1150</v>
+        <v>1161</v>
       </c>
       <c r="CB54" s="106" t="s">
-        <v>1130</v>
+        <v>1136</v>
       </c>
       <c r="CC54" s="106"/>
     </row>
     <row r="55" s="157" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="132" t="s">
-        <v>1193</v>
+        <v>1205</v>
       </c>
       <c r="B55" s="133" t="s">
-        <v>1171</v>
+        <v>1183</v>
       </c>
       <c r="C55" s="133" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="D55" s="133" t="s">
-        <v>1171</v>
+        <v>1183</v>
       </c>
       <c r="E55" s="133"/>
       <c r="F55" s="134" t="s">
-        <v>1171</v>
+        <v>1183</v>
       </c>
       <c r="G55" s="134" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="H55" s="134"/>
       <c r="I55" s="134" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="J55" s="135" t="s">
-        <v>1171</v>
+        <v>1183</v>
       </c>
       <c r="K55" s="135" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="L55" s="135"/>
       <c r="M55" s="135" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="N55" s="136"/>
       <c r="O55" s="136"/>
@@ -36522,7 +36558,7 @@
         <v>16</v>
       </c>
       <c r="AM55" s="142" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="AN55" s="142" t="s">
         <v>16</v>
@@ -36560,7 +36596,7 @@
         <v>16</v>
       </c>
       <c r="BG55" s="150" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="BH55" s="149"/>
       <c r="BI55" s="149"/>
@@ -36580,7 +36616,7 @@
         <v>16</v>
       </c>
       <c r="BS55" s="153" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="BT55" s="153" t="s">
         <v>16</v>
@@ -36605,7 +36641,7 @@
     </row>
     <row r="56" s="157" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="132" t="s">
-        <v>1194</v>
+        <v>1206</v>
       </c>
       <c r="B56" s="133"/>
       <c r="C56" s="133" t="n">
@@ -36619,7 +36655,7 @@
       </c>
       <c r="H56" s="134"/>
       <c r="I56" s="134" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J56" s="135"/>
       <c r="K56" s="135" t="n">
@@ -36635,7 +36671,7 @@
       </c>
       <c r="P56" s="136"/>
       <c r="Q56" s="136" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="R56" s="137"/>
       <c r="S56" s="137" t="n">
@@ -36663,7 +36699,7 @@
       </c>
       <c r="AD56" s="140"/>
       <c r="AE56" s="140" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AF56" s="140"/>
       <c r="AG56" s="140"/>
@@ -36735,7 +36771,7 @@
       </c>
       <c r="BP56" s="134"/>
       <c r="BQ56" s="134" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="BR56" s="153"/>
       <c r="BS56" s="153" t="n">
@@ -36743,7 +36779,7 @@
       </c>
       <c r="BT56" s="153"/>
       <c r="BU56" s="153" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BV56" s="154"/>
       <c r="BW56" s="154" t="n">
@@ -36764,7 +36800,7 @@
     </row>
     <row r="57" s="157" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="132" t="s">
-        <v>1195</v>
+        <v>1207</v>
       </c>
       <c r="B57" s="133"/>
       <c r="C57" s="133" t="n">
@@ -36778,7 +36814,7 @@
       </c>
       <c r="H57" s="134"/>
       <c r="I57" s="134" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J57" s="135"/>
       <c r="K57" s="135" t="n">
@@ -36786,7 +36822,7 @@
       </c>
       <c r="L57" s="135"/>
       <c r="M57" s="135" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N57" s="136"/>
       <c r="O57" s="136" t="n">
@@ -36794,7 +36830,7 @@
       </c>
       <c r="P57" s="136"/>
       <c r="Q57" s="136" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="R57" s="137"/>
       <c r="S57" s="137" t="n">
@@ -36802,7 +36838,7 @@
       </c>
       <c r="T57" s="137"/>
       <c r="U57" s="137" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V57" s="138"/>
       <c r="W57" s="138" t="n">
@@ -36810,7 +36846,7 @@
       </c>
       <c r="X57" s="138"/>
       <c r="Y57" s="138" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z57" s="139"/>
       <c r="AA57" s="139" t="n">
@@ -36818,7 +36854,7 @@
       </c>
       <c r="AB57" s="139"/>
       <c r="AC57" s="139" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AD57" s="140"/>
       <c r="AE57" s="140" t="n">
@@ -36834,7 +36870,7 @@
       <c r="AK57" s="141"/>
       <c r="AL57" s="142"/>
       <c r="AM57" s="142" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AN57" s="142"/>
       <c r="AO57" s="142" t="n">
@@ -36846,7 +36882,7 @@
       </c>
       <c r="AR57" s="143"/>
       <c r="AS57" s="143" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AT57" s="144"/>
       <c r="AU57" s="144" t="n">
@@ -36854,7 +36890,7 @@
       </c>
       <c r="AV57" s="144"/>
       <c r="AW57" s="144" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AX57" s="145"/>
       <c r="AY57" s="146" t="n">
@@ -36862,7 +36898,7 @@
       </c>
       <c r="AZ57" s="145"/>
       <c r="BA57" s="145" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BB57" s="147"/>
       <c r="BC57" s="148" t="n">
@@ -36870,7 +36906,7 @@
       </c>
       <c r="BD57" s="147"/>
       <c r="BE57" s="147" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BF57" s="149"/>
       <c r="BG57" s="150" t="n">
@@ -36878,7 +36914,7 @@
       </c>
       <c r="BH57" s="149"/>
       <c r="BI57" s="149" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BJ57" s="151"/>
       <c r="BK57" s="152" t="n">
@@ -36886,7 +36922,7 @@
       </c>
       <c r="BL57" s="151"/>
       <c r="BM57" s="151" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BN57" s="134"/>
       <c r="BO57" s="134" t="n">
@@ -36894,7 +36930,7 @@
       </c>
       <c r="BP57" s="134"/>
       <c r="BQ57" s="134" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BR57" s="153"/>
       <c r="BS57" s="153" t="n">
@@ -36902,7 +36938,7 @@
       </c>
       <c r="BT57" s="153"/>
       <c r="BU57" s="153" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BV57" s="154"/>
       <c r="BW57" s="154" t="n">
@@ -36910,7 +36946,7 @@
       </c>
       <c r="BX57" s="154"/>
       <c r="BY57" s="154" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BZ57" s="155"/>
       <c r="CA57" s="155" t="n">
@@ -36918,12 +36954,12 @@
       </c>
       <c r="CB57" s="155"/>
       <c r="CC57" s="156" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" s="157" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="132" t="s">
-        <v>1196</v>
+        <v>1208</v>
       </c>
       <c r="B58" s="133"/>
       <c r="C58" s="133" t="n">
@@ -36933,15 +36969,15 @@
       <c r="E58" s="133"/>
       <c r="F58" s="134"/>
       <c r="G58" s="134" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H58" s="134"/>
       <c r="I58" s="134" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J58" s="135"/>
       <c r="K58" s="135" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L58" s="135"/>
       <c r="M58" s="135" t="n">
@@ -36949,7 +36985,7 @@
       </c>
       <c r="N58" s="136"/>
       <c r="O58" s="136" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P58" s="136"/>
       <c r="Q58" s="136" t="n">
@@ -36973,11 +37009,11 @@
       </c>
       <c r="Z58" s="139"/>
       <c r="AA58" s="139" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AB58" s="139"/>
       <c r="AC58" s="139" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AD58" s="140"/>
       <c r="AE58" s="140" t="n">
@@ -36987,13 +37023,13 @@
       <c r="AG58" s="140"/>
       <c r="AH58" s="141"/>
       <c r="AI58" s="141" t="n">
-        <v>35</v>
+        <v>-1</v>
       </c>
       <c r="AJ58" s="141"/>
       <c r="AK58" s="141"/>
       <c r="AL58" s="142"/>
       <c r="AM58" s="142" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AN58" s="142"/>
       <c r="AO58" s="142" t="n">
@@ -37001,7 +37037,7 @@
       </c>
       <c r="AP58" s="143"/>
       <c r="AQ58" s="143" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AR58" s="143"/>
       <c r="AS58" s="143" t="n">
@@ -37033,7 +37069,7 @@
       </c>
       <c r="BF58" s="149"/>
       <c r="BG58" s="150" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="BH58" s="149"/>
       <c r="BI58" s="149" t="n">
@@ -37053,11 +37089,11 @@
       </c>
       <c r="BP58" s="134"/>
       <c r="BQ58" s="134" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="BR58" s="153"/>
       <c r="BS58" s="153" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="BT58" s="153"/>
       <c r="BU58" s="153" t="n">
@@ -37073,7 +37109,7 @@
       </c>
       <c r="BZ58" s="155"/>
       <c r="CA58" s="155" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="CB58" s="155"/>
       <c r="CC58" s="156" t="n">
@@ -37082,77 +37118,77 @@
     </row>
     <row r="59" s="157" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="132" t="s">
-        <v>1197</v>
+        <v>1209</v>
       </c>
       <c r="B59" s="133"/>
       <c r="C59" s="133" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D59" s="133"/>
       <c r="E59" s="133"/>
       <c r="F59" s="134"/>
       <c r="G59" s="134" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H59" s="134"/>
       <c r="I59" s="134" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J59" s="135"/>
       <c r="K59" s="135" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L59" s="135"/>
       <c r="M59" s="135" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N59" s="136"/>
       <c r="O59" s="136" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="P59" s="136"/>
       <c r="Q59" s="136" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="R59" s="137"/>
       <c r="S59" s="137" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="T59" s="137"/>
       <c r="U59" s="137" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V59" s="138"/>
       <c r="W59" s="138" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="X59" s="138"/>
       <c r="Y59" s="138" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z59" s="139"/>
       <c r="AA59" s="139" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AB59" s="139"/>
       <c r="AC59" s="139" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AD59" s="140"/>
       <c r="AE59" s="140" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AF59" s="140"/>
       <c r="AG59" s="140"/>
       <c r="AH59" s="141"/>
       <c r="AI59" s="141" t="n">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="AJ59" s="141"/>
       <c r="AK59" s="141"/>
       <c r="AL59" s="142"/>
       <c r="AM59" s="142" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AN59" s="142"/>
       <c r="AO59" s="142" t="n">
@@ -37160,88 +37196,88 @@
       </c>
       <c r="AP59" s="143"/>
       <c r="AQ59" s="143" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AR59" s="143"/>
       <c r="AS59" s="143" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AT59" s="144"/>
       <c r="AU59" s="144" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AV59" s="144"/>
       <c r="AW59" s="144" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AX59" s="145"/>
       <c r="AY59" s="146" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AZ59" s="145"/>
       <c r="BA59" s="145" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BB59" s="147"/>
       <c r="BC59" s="148" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="BD59" s="147"/>
       <c r="BE59" s="147" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BF59" s="149"/>
       <c r="BG59" s="150" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="BH59" s="149"/>
       <c r="BI59" s="149" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BJ59" s="151"/>
       <c r="BK59" s="152" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="BL59" s="151"/>
       <c r="BM59" s="151" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BN59" s="134"/>
       <c r="BO59" s="134" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="BP59" s="134"/>
       <c r="BQ59" s="134" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BR59" s="153"/>
       <c r="BS59" s="153" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="BT59" s="153"/>
       <c r="BU59" s="153" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BV59" s="154"/>
       <c r="BW59" s="154" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="BX59" s="154"/>
       <c r="BY59" s="154" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BZ59" s="155"/>
       <c r="CA59" s="155" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="CB59" s="155"/>
       <c r="CC59" s="156" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60" s="157" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="132" t="s">
-        <v>1198</v>
+        <v>1210</v>
       </c>
       <c r="B60" s="133"/>
       <c r="C60" s="133" t="n">
@@ -37251,15 +37287,15 @@
       <c r="E60" s="133"/>
       <c r="F60" s="134"/>
       <c r="G60" s="134" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H60" s="134"/>
       <c r="I60" s="134" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J60" s="135"/>
       <c r="K60" s="135" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L60" s="135"/>
       <c r="M60" s="135" t="n">
@@ -37267,11 +37303,11 @@
       </c>
       <c r="N60" s="136"/>
       <c r="O60" s="136" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P60" s="136"/>
       <c r="Q60" s="136" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="R60" s="137"/>
       <c r="S60" s="137" t="n">
@@ -37287,15 +37323,15 @@
       </c>
       <c r="X60" s="138"/>
       <c r="Y60" s="138" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Z60" s="139"/>
       <c r="AA60" s="139" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AB60" s="139"/>
       <c r="AC60" s="139" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AD60" s="140"/>
       <c r="AE60" s="140" t="n">
@@ -37311,7 +37347,7 @@
       <c r="AK60" s="141"/>
       <c r="AL60" s="142"/>
       <c r="AM60" s="142" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="AN60" s="142"/>
       <c r="AO60" s="142" t="n">
@@ -37319,7 +37355,7 @@
       </c>
       <c r="AP60" s="143"/>
       <c r="AQ60" s="143" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AR60" s="143"/>
       <c r="AS60" s="143" t="n">
@@ -37351,7 +37387,7 @@
       </c>
       <c r="BF60" s="149"/>
       <c r="BG60" s="150" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="BH60" s="149"/>
       <c r="BI60" s="149" t="n">
@@ -37371,15 +37407,15 @@
       </c>
       <c r="BP60" s="134"/>
       <c r="BQ60" s="134" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="BR60" s="153"/>
       <c r="BS60" s="153" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="BT60" s="153"/>
       <c r="BU60" s="153" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BV60" s="154"/>
       <c r="BW60" s="154" t="n">
@@ -37391,7 +37427,7 @@
       </c>
       <c r="BZ60" s="155"/>
       <c r="CA60" s="155" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="CB60" s="155"/>
       <c r="CC60" s="156" t="n">
@@ -37400,77 +37436,77 @@
     </row>
     <row r="61" s="157" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="132" t="s">
-        <v>1199</v>
+        <v>1211</v>
       </c>
       <c r="B61" s="133"/>
       <c r="C61" s="133" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D61" s="133"/>
       <c r="E61" s="133"/>
       <c r="F61" s="134"/>
       <c r="G61" s="134" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H61" s="134"/>
       <c r="I61" s="134" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J61" s="135"/>
       <c r="K61" s="135" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L61" s="135"/>
       <c r="M61" s="135" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N61" s="136"/>
       <c r="O61" s="136" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="P61" s="136"/>
       <c r="Q61" s="136" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="R61" s="137"/>
       <c r="S61" s="137" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="T61" s="137"/>
       <c r="U61" s="137" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V61" s="138"/>
       <c r="W61" s="138" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="X61" s="138"/>
       <c r="Y61" s="138" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z61" s="139"/>
       <c r="AA61" s="139" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AB61" s="139"/>
       <c r="AC61" s="139" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AD61" s="140"/>
       <c r="AE61" s="140" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AF61" s="140"/>
       <c r="AG61" s="140"/>
       <c r="AH61" s="141"/>
       <c r="AI61" s="141" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AJ61" s="141"/>
       <c r="AK61" s="141"/>
       <c r="AL61" s="142"/>
       <c r="AM61" s="142" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AN61" s="142"/>
       <c r="AO61" s="142" t="n">
@@ -37478,321 +37514,321 @@
       </c>
       <c r="AP61" s="143"/>
       <c r="AQ61" s="143" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AR61" s="143"/>
       <c r="AS61" s="143" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AT61" s="144"/>
       <c r="AU61" s="144" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AV61" s="144"/>
       <c r="AW61" s="144" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AX61" s="145"/>
       <c r="AY61" s="146" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AZ61" s="145"/>
       <c r="BA61" s="145" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BB61" s="147"/>
       <c r="BC61" s="148" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="BD61" s="147"/>
       <c r="BE61" s="147" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BF61" s="149"/>
       <c r="BG61" s="150" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="BH61" s="149"/>
       <c r="BI61" s="149" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BJ61" s="151"/>
       <c r="BK61" s="152" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="BL61" s="151"/>
       <c r="BM61" s="151" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BN61" s="134"/>
       <c r="BO61" s="134" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="BP61" s="134"/>
       <c r="BQ61" s="134" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BR61" s="153"/>
       <c r="BS61" s="153" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="BT61" s="153"/>
       <c r="BU61" s="153" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BV61" s="154"/>
       <c r="BW61" s="154" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="BX61" s="154"/>
       <c r="BY61" s="154" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BZ61" s="155"/>
       <c r="CA61" s="155" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="CB61" s="155"/>
       <c r="CC61" s="156" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="158"/>
       <c r="B62" s="158" t="s">
-        <v>1200</v>
+        <v>1212</v>
       </c>
       <c r="C62" s="158" t="s">
-        <v>1201</v>
+        <v>1213</v>
       </c>
       <c r="D62" s="158" t="s">
-        <v>1202</v>
+        <v>1214</v>
       </c>
       <c r="E62" s="158" t="s">
-        <v>1203</v>
+        <v>1215</v>
       </c>
       <c r="F62" s="158" t="s">
-        <v>1200</v>
+        <v>1212</v>
       </c>
       <c r="G62" s="158" t="s">
-        <v>1201</v>
+        <v>1213</v>
       </c>
       <c r="H62" s="158" t="s">
-        <v>1202</v>
+        <v>1214</v>
       </c>
       <c r="I62" s="158" t="s">
-        <v>1203</v>
+        <v>1215</v>
       </c>
       <c r="J62" s="158" t="s">
-        <v>1200</v>
+        <v>1212</v>
       </c>
       <c r="K62" s="158" t="s">
-        <v>1201</v>
+        <v>1213</v>
       </c>
       <c r="L62" s="158" t="s">
-        <v>1202</v>
+        <v>1214</v>
       </c>
       <c r="M62" s="158" t="s">
-        <v>1203</v>
+        <v>1215</v>
       </c>
       <c r="N62" s="158" t="s">
-        <v>1200</v>
+        <v>1212</v>
       </c>
       <c r="O62" s="158" t="s">
-        <v>1201</v>
+        <v>1213</v>
       </c>
       <c r="P62" s="158" t="s">
-        <v>1202</v>
+        <v>1214</v>
       </c>
       <c r="Q62" s="158" t="s">
-        <v>1203</v>
+        <v>1215</v>
       </c>
       <c r="R62" s="158" t="s">
-        <v>1200</v>
+        <v>1212</v>
       </c>
       <c r="S62" s="158" t="s">
-        <v>1201</v>
+        <v>1213</v>
       </c>
       <c r="T62" s="158" t="s">
-        <v>1202</v>
+        <v>1214</v>
       </c>
       <c r="U62" s="158" t="s">
-        <v>1203</v>
+        <v>1215</v>
       </c>
       <c r="V62" s="158" t="s">
-        <v>1200</v>
+        <v>1212</v>
       </c>
       <c r="W62" s="158" t="s">
-        <v>1201</v>
+        <v>1213</v>
       </c>
       <c r="X62" s="158" t="s">
-        <v>1202</v>
+        <v>1214</v>
       </c>
       <c r="Y62" s="158" t="s">
-        <v>1203</v>
+        <v>1215</v>
       </c>
       <c r="Z62" s="158" t="s">
-        <v>1200</v>
+        <v>1212</v>
       </c>
       <c r="AA62" s="158" t="s">
-        <v>1201</v>
+        <v>1213</v>
       </c>
       <c r="AB62" s="158" t="s">
-        <v>1202</v>
+        <v>1214</v>
       </c>
       <c r="AC62" s="158" t="s">
-        <v>1203</v>
+        <v>1215</v>
       </c>
       <c r="AD62" s="158" t="s">
-        <v>1200</v>
+        <v>1212</v>
       </c>
       <c r="AE62" s="158" t="s">
-        <v>1201</v>
+        <v>1213</v>
       </c>
       <c r="AF62" s="158" t="s">
-        <v>1202</v>
+        <v>1214</v>
       </c>
       <c r="AG62" s="158" t="s">
-        <v>1203</v>
+        <v>1215</v>
       </c>
       <c r="AH62" s="158" t="s">
-        <v>1200</v>
+        <v>1212</v>
       </c>
       <c r="AI62" s="158" t="s">
-        <v>1201</v>
+        <v>1213</v>
       </c>
       <c r="AJ62" s="158" t="s">
-        <v>1202</v>
+        <v>1214</v>
       </c>
       <c r="AK62" s="158" t="s">
-        <v>1203</v>
+        <v>1215</v>
       </c>
       <c r="AL62" s="158" t="s">
-        <v>1200</v>
+        <v>1212</v>
       </c>
       <c r="AM62" s="158" t="s">
-        <v>1201</v>
+        <v>1213</v>
       </c>
       <c r="AN62" s="158" t="s">
-        <v>1202</v>
+        <v>1214</v>
       </c>
       <c r="AO62" s="158" t="s">
-        <v>1203</v>
+        <v>1215</v>
       </c>
       <c r="AP62" s="158" t="s">
-        <v>1200</v>
+        <v>1212</v>
       </c>
       <c r="AQ62" s="158" t="s">
-        <v>1201</v>
+        <v>1213</v>
       </c>
       <c r="AR62" s="158" t="s">
-        <v>1202</v>
+        <v>1214</v>
       </c>
       <c r="AS62" s="158" t="s">
-        <v>1203</v>
+        <v>1215</v>
       </c>
       <c r="AT62" s="158" t="s">
-        <v>1200</v>
+        <v>1212</v>
       </c>
       <c r="AU62" s="158" t="s">
-        <v>1201</v>
+        <v>1213</v>
       </c>
       <c r="AV62" s="158" t="s">
-        <v>1202</v>
+        <v>1214</v>
       </c>
       <c r="AW62" s="158" t="s">
-        <v>1203</v>
+        <v>1215</v>
       </c>
       <c r="AX62" s="158" t="s">
-        <v>1200</v>
+        <v>1212</v>
       </c>
       <c r="AY62" s="158" t="s">
-        <v>1201</v>
+        <v>1213</v>
       </c>
       <c r="AZ62" s="158" t="s">
-        <v>1202</v>
+        <v>1214</v>
       </c>
       <c r="BA62" s="158" t="s">
-        <v>1203</v>
+        <v>1215</v>
       </c>
       <c r="BB62" s="158" t="s">
-        <v>1200</v>
+        <v>1212</v>
       </c>
       <c r="BC62" s="158" t="s">
-        <v>1201</v>
+        <v>1213</v>
       </c>
       <c r="BD62" s="158" t="s">
-        <v>1202</v>
+        <v>1214</v>
       </c>
       <c r="BE62" s="158" t="s">
-        <v>1203</v>
+        <v>1215</v>
       </c>
       <c r="BF62" s="158" t="s">
-        <v>1200</v>
+        <v>1212</v>
       </c>
       <c r="BG62" s="158" t="s">
-        <v>1201</v>
+        <v>1213</v>
       </c>
       <c r="BH62" s="158" t="s">
-        <v>1202</v>
+        <v>1214</v>
       </c>
       <c r="BI62" s="158" t="s">
-        <v>1203</v>
+        <v>1215</v>
       </c>
       <c r="BJ62" s="158" t="s">
-        <v>1200</v>
+        <v>1212</v>
       </c>
       <c r="BK62" s="158" t="s">
-        <v>1201</v>
+        <v>1213</v>
       </c>
       <c r="BL62" s="158" t="s">
-        <v>1202</v>
+        <v>1214</v>
       </c>
       <c r="BM62" s="158" t="s">
-        <v>1203</v>
+        <v>1215</v>
       </c>
       <c r="BN62" s="158" t="s">
-        <v>1200</v>
+        <v>1212</v>
       </c>
       <c r="BO62" s="158" t="s">
-        <v>1201</v>
+        <v>1213</v>
       </c>
       <c r="BP62" s="158" t="s">
-        <v>1202</v>
+        <v>1214</v>
       </c>
       <c r="BQ62" s="158" t="s">
-        <v>1203</v>
+        <v>1215</v>
       </c>
       <c r="BR62" s="158" t="s">
-        <v>1200</v>
+        <v>1212</v>
       </c>
       <c r="BS62" s="158" t="s">
-        <v>1201</v>
+        <v>1213</v>
       </c>
       <c r="BT62" s="158" t="s">
-        <v>1202</v>
+        <v>1214</v>
       </c>
       <c r="BU62" s="158" t="s">
-        <v>1203</v>
+        <v>1215</v>
       </c>
       <c r="BV62" s="158" t="s">
-        <v>1200</v>
+        <v>1212</v>
       </c>
       <c r="BW62" s="158" t="s">
-        <v>1201</v>
+        <v>1213</v>
       </c>
       <c r="BX62" s="158" t="s">
-        <v>1202</v>
+        <v>1214</v>
       </c>
       <c r="BY62" s="158"/>
       <c r="BZ62" s="158" t="s">
-        <v>1200</v>
+        <v>1212</v>
       </c>
       <c r="CA62" s="158" t="s">
-        <v>1201</v>
+        <v>1213</v>
       </c>
       <c r="CB62" s="158" t="s">
-        <v>1202</v>
+        <v>1214</v>
       </c>
       <c r="CC62" s="158"/>
     </row>
@@ -37801,121 +37837,121 @@
       <c r="B63" s="158"/>
       <c r="C63" s="158"/>
       <c r="D63" s="159" t="s">
-        <v>1204</v>
+        <v>1216</v>
       </c>
       <c r="E63" s="159"/>
       <c r="F63" s="158"/>
       <c r="G63" s="158"/>
       <c r="H63" s="159" t="s">
-        <v>1204</v>
+        <v>1216</v>
       </c>
       <c r="I63" s="159"/>
       <c r="J63" s="158"/>
       <c r="K63" s="158"/>
       <c r="L63" s="159" t="s">
-        <v>1204</v>
+        <v>1216</v>
       </c>
       <c r="M63" s="159"/>
       <c r="N63" s="158"/>
       <c r="O63" s="158"/>
       <c r="P63" s="159" t="s">
-        <v>1204</v>
+        <v>1216</v>
       </c>
       <c r="Q63" s="159"/>
       <c r="R63" s="158"/>
       <c r="S63" s="158"/>
       <c r="T63" s="159" t="s">
-        <v>1204</v>
+        <v>1216</v>
       </c>
       <c r="U63" s="159"/>
       <c r="V63" s="158"/>
       <c r="W63" s="158"/>
       <c r="X63" s="159" t="s">
-        <v>1204</v>
+        <v>1216</v>
       </c>
       <c r="Y63" s="159"/>
       <c r="Z63" s="158"/>
       <c r="AA63" s="158"/>
       <c r="AB63" s="159" t="s">
-        <v>1204</v>
+        <v>1216</v>
       </c>
       <c r="AC63" s="159"/>
       <c r="AD63" s="158"/>
       <c r="AE63" s="158"/>
       <c r="AF63" s="159" t="s">
-        <v>1204</v>
+        <v>1216</v>
       </c>
       <c r="AG63" s="159"/>
       <c r="AH63" s="158"/>
       <c r="AI63" s="158"/>
       <c r="AJ63" s="159" t="s">
-        <v>1204</v>
+        <v>1216</v>
       </c>
       <c r="AK63" s="159"/>
       <c r="AL63" s="158"/>
       <c r="AM63" s="158"/>
       <c r="AN63" s="159" t="s">
-        <v>1204</v>
+        <v>1216</v>
       </c>
       <c r="AO63" s="159"/>
       <c r="AP63" s="158"/>
       <c r="AQ63" s="158"/>
       <c r="AR63" s="159" t="s">
-        <v>1204</v>
+        <v>1216</v>
       </c>
       <c r="AS63" s="159"/>
       <c r="AT63" s="158"/>
       <c r="AU63" s="158"/>
       <c r="AV63" s="159" t="s">
-        <v>1204</v>
+        <v>1216</v>
       </c>
       <c r="AW63" s="159"/>
       <c r="AX63" s="158"/>
       <c r="AY63" s="158"/>
       <c r="AZ63" s="159" t="s">
-        <v>1204</v>
+        <v>1216</v>
       </c>
       <c r="BA63" s="159"/>
       <c r="BB63" s="158"/>
       <c r="BC63" s="158"/>
       <c r="BD63" s="159" t="s">
-        <v>1204</v>
+        <v>1216</v>
       </c>
       <c r="BE63" s="159"/>
       <c r="BF63" s="158"/>
       <c r="BG63" s="158"/>
       <c r="BH63" s="159" t="s">
-        <v>1204</v>
+        <v>1216</v>
       </c>
       <c r="BI63" s="159"/>
       <c r="BJ63" s="158"/>
       <c r="BK63" s="158"/>
       <c r="BL63" s="159" t="s">
-        <v>1204</v>
+        <v>1216</v>
       </c>
       <c r="BM63" s="159"/>
       <c r="BN63" s="158"/>
       <c r="BO63" s="158"/>
       <c r="BP63" s="159" t="s">
-        <v>1204</v>
+        <v>1216</v>
       </c>
       <c r="BQ63" s="159"/>
       <c r="BR63" s="158"/>
       <c r="BS63" s="158"/>
       <c r="BT63" s="159" t="s">
-        <v>1204</v>
+        <v>1216</v>
       </c>
       <c r="BU63" s="159"/>
       <c r="BV63" s="158"/>
       <c r="BW63" s="158"/>
       <c r="BX63" s="159" t="s">
-        <v>1204</v>
+        <v>1216</v>
       </c>
       <c r="BY63" s="159"/>
       <c r="BZ63" s="158"/>
       <c r="CA63" s="158"/>
       <c r="CB63" s="159" t="s">
-        <v>1204</v>
+        <v>1216</v>
       </c>
       <c r="CC63" s="159"/>
     </row>
@@ -38005,121 +38041,121 @@
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="158"/>
       <c r="B65" s="160" t="s">
-        <v>1205</v>
+        <v>1217</v>
       </c>
       <c r="C65" s="160"/>
       <c r="D65" s="160"/>
       <c r="E65" s="160"/>
       <c r="F65" s="160" t="s">
-        <v>1206</v>
+        <v>1218</v>
       </c>
       <c r="G65" s="160"/>
       <c r="H65" s="160"/>
       <c r="I65" s="160"/>
       <c r="J65" s="160" t="s">
-        <v>1207</v>
+        <v>1219</v>
       </c>
       <c r="K65" s="160"/>
       <c r="L65" s="160"/>
       <c r="M65" s="160"/>
       <c r="N65" s="160" t="s">
-        <v>1208</v>
+        <v>1220</v>
       </c>
       <c r="O65" s="160"/>
       <c r="P65" s="160"/>
       <c r="Q65" s="160"/>
       <c r="R65" s="160" t="s">
-        <v>1209</v>
+        <v>1221</v>
       </c>
       <c r="S65" s="160"/>
       <c r="T65" s="160"/>
       <c r="U65" s="160"/>
       <c r="V65" s="160" t="s">
-        <v>1210</v>
+        <v>1222</v>
       </c>
       <c r="W65" s="160"/>
       <c r="X65" s="160"/>
       <c r="Y65" s="160"/>
       <c r="Z65" s="160" t="s">
-        <v>1211</v>
+        <v>1223</v>
       </c>
       <c r="AA65" s="160"/>
       <c r="AB65" s="160"/>
       <c r="AC65" s="160"/>
       <c r="AD65" s="160" t="s">
-        <v>1212</v>
+        <v>1224</v>
       </c>
       <c r="AE65" s="160"/>
       <c r="AF65" s="160"/>
       <c r="AG65" s="160"/>
       <c r="AH65" s="160" t="s">
-        <v>1213</v>
+        <v>1225</v>
       </c>
       <c r="AI65" s="160"/>
       <c r="AJ65" s="160"/>
       <c r="AK65" s="160"/>
       <c r="AL65" s="160" t="s">
-        <v>1214</v>
+        <v>1226</v>
       </c>
       <c r="AM65" s="160"/>
       <c r="AN65" s="160"/>
       <c r="AO65" s="160"/>
       <c r="AP65" s="160" t="s">
-        <v>1215</v>
+        <v>1227</v>
       </c>
       <c r="AQ65" s="160"/>
       <c r="AR65" s="160"/>
       <c r="AS65" s="160"/>
       <c r="AT65" s="160" t="s">
-        <v>1216</v>
+        <v>1228</v>
       </c>
       <c r="AU65" s="160"/>
       <c r="AV65" s="160"/>
       <c r="AW65" s="160"/>
       <c r="AX65" s="160" t="s">
-        <v>1217</v>
+        <v>1229</v>
       </c>
       <c r="AY65" s="160"/>
       <c r="AZ65" s="160"/>
       <c r="BA65" s="160"/>
       <c r="BB65" s="160" t="s">
-        <v>1218</v>
+        <v>1230</v>
       </c>
       <c r="BC65" s="160"/>
       <c r="BD65" s="160"/>
       <c r="BE65" s="160"/>
       <c r="BF65" s="160" t="s">
-        <v>1219</v>
+        <v>1231</v>
       </c>
       <c r="BG65" s="160"/>
       <c r="BH65" s="160"/>
       <c r="BI65" s="160"/>
       <c r="BJ65" s="160" t="s">
-        <v>1220</v>
+        <v>1232</v>
       </c>
       <c r="BK65" s="160"/>
       <c r="BL65" s="160"/>
       <c r="BM65" s="160"/>
       <c r="BN65" s="160" t="s">
-        <v>1221</v>
+        <v>1233</v>
       </c>
       <c r="BO65" s="160"/>
       <c r="BP65" s="160"/>
       <c r="BQ65" s="160"/>
       <c r="BR65" s="160" t="s">
-        <v>1222</v>
+        <v>1234</v>
       </c>
       <c r="BS65" s="160"/>
       <c r="BT65" s="160"/>
       <c r="BU65" s="160"/>
       <c r="BV65" s="160" t="s">
-        <v>1223</v>
+        <v>1235</v>
       </c>
       <c r="BW65" s="160"/>
       <c r="BX65" s="160"/>
       <c r="BY65" s="160"/>
       <c r="BZ65" s="160" t="s">
-        <v>1224</v>
+        <v>1236</v>
       </c>
       <c r="CA65" s="160"/>
       <c r="CB65" s="160"/>
@@ -38534,7 +38570,7 @@
       <selection pane="topLeft" activeCell="O82" activeCellId="0" sqref="O82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="161" width="11.52"/>
   </cols>
@@ -38544,40 +38580,40 @@
         <v>1013</v>
       </c>
       <c r="B1" s="162" t="s">
-        <v>1225</v>
+        <v>1237</v>
       </c>
       <c r="C1" s="162" t="s">
-        <v>1226</v>
+        <v>1238</v>
       </c>
       <c r="D1" s="162" t="s">
-        <v>1227</v>
+        <v>1239</v>
       </c>
       <c r="E1" s="162" t="s">
-        <v>1228</v>
+        <v>1240</v>
       </c>
       <c r="F1" s="162" t="s">
-        <v>1229</v>
+        <v>1241</v>
       </c>
       <c r="G1" s="162" t="s">
-        <v>1230</v>
+        <v>1242</v>
       </c>
       <c r="H1" s="162" t="s">
-        <v>1231</v>
+        <v>1243</v>
       </c>
       <c r="I1" s="162" t="s">
-        <v>1232</v>
+        <v>1244</v>
       </c>
       <c r="J1" s="162" t="s">
-        <v>1233</v>
+        <v>1245</v>
       </c>
       <c r="K1" s="162" t="s">
-        <v>1234</v>
+        <v>1246</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>1235</v>
+        <v>1247</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>1236</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38635,34 +38671,34 @@
         <v>1012</v>
       </c>
       <c r="B3" s="162" t="s">
-        <v>1237</v>
+        <v>1249</v>
       </c>
       <c r="C3" s="162" t="s">
-        <v>1238</v>
+        <v>1250</v>
       </c>
       <c r="D3" s="162" t="s">
-        <v>1239</v>
+        <v>1251</v>
       </c>
       <c r="E3" s="162" t="s">
-        <v>1240</v>
+        <v>1252</v>
       </c>
       <c r="F3" s="162" t="s">
-        <v>1241</v>
+        <v>1253</v>
       </c>
       <c r="G3" s="162" t="s">
-        <v>1242</v>
+        <v>1254</v>
       </c>
       <c r="H3" s="162" t="s">
-        <v>1243</v>
+        <v>1255</v>
       </c>
       <c r="I3" s="162" t="s">
-        <v>1244</v>
+        <v>1256</v>
       </c>
       <c r="J3" s="162" t="s">
-        <v>1245</v>
+        <v>1257</v>
       </c>
       <c r="K3" s="162" t="s">
-        <v>1246</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38720,19 +38756,19 @@
         <v>1022</v>
       </c>
       <c r="B5" s="162" t="s">
-        <v>1247</v>
+        <v>1259</v>
       </c>
       <c r="C5" s="162" t="s">
-        <v>1248</v>
+        <v>1260</v>
       </c>
       <c r="D5" s="162" t="s">
-        <v>1249</v>
+        <v>1261</v>
       </c>
       <c r="E5" s="162" t="s">
-        <v>1250</v>
+        <v>1262</v>
       </c>
       <c r="F5" s="162" t="s">
-        <v>1251</v>
+        <v>1263</v>
       </c>
       <c r="J5" s="162"/>
     </row>
@@ -38772,19 +38808,19 @@
         <v>1021</v>
       </c>
       <c r="B7" s="162" t="s">
-        <v>1252</v>
+        <v>1264</v>
       </c>
       <c r="C7" s="162" t="s">
-        <v>1253</v>
+        <v>1265</v>
       </c>
       <c r="D7" s="162" t="s">
-        <v>1254</v>
+        <v>1266</v>
       </c>
       <c r="E7" s="162" t="s">
-        <v>1255</v>
+        <v>1267</v>
       </c>
       <c r="F7" s="162" t="s">
-        <v>1256</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38822,13 +38858,13 @@
         <v>1025</v>
       </c>
       <c r="B9" s="162" t="s">
-        <v>1257</v>
+        <v>1269</v>
       </c>
       <c r="C9" s="162" t="s">
-        <v>1258</v>
+        <v>1270</v>
       </c>
       <c r="D9" s="162" t="s">
-        <v>1259</v>
+        <v>1271</v>
       </c>
       <c r="J9" s="162"/>
     </row>
@@ -38860,13 +38896,13 @@
         <v>1024</v>
       </c>
       <c r="B11" s="162" t="s">
-        <v>1260</v>
+        <v>1272</v>
       </c>
       <c r="C11" s="162" t="s">
-        <v>1261</v>
+        <v>1273</v>
       </c>
       <c r="D11" s="162" t="s">
-        <v>1262</v>
+        <v>1274</v>
       </c>
       <c r="E11" s="162"/>
       <c r="G11" s="162"/>
@@ -38904,31 +38940,31 @@
         <v>1030</v>
       </c>
       <c r="B13" s="162" t="s">
-        <v>1263</v>
+        <v>1275</v>
       </c>
       <c r="C13" s="162" t="s">
-        <v>1264</v>
+        <v>1276</v>
       </c>
       <c r="D13" s="162" t="s">
-        <v>1265</v>
+        <v>1277</v>
       </c>
       <c r="E13" s="162" t="s">
-        <v>1266</v>
+        <v>1278</v>
       </c>
       <c r="F13" s="162" t="s">
-        <v>1267</v>
+        <v>1279</v>
       </c>
       <c r="G13" s="162" t="s">
-        <v>1268</v>
+        <v>1280</v>
       </c>
       <c r="H13" s="162" t="s">
-        <v>1269</v>
+        <v>1281</v>
       </c>
       <c r="I13" s="162" t="s">
-        <v>1270</v>
+        <v>1282</v>
       </c>
       <c r="J13" s="162" t="s">
-        <v>1271</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38982,31 +39018,31 @@
         <v>1029</v>
       </c>
       <c r="B15" s="162" t="s">
-        <v>1272</v>
+        <v>1284</v>
       </c>
       <c r="C15" s="162" t="s">
-        <v>1273</v>
+        <v>1285</v>
       </c>
       <c r="D15" s="162" t="s">
-        <v>1274</v>
+        <v>1286</v>
       </c>
       <c r="E15" s="162" t="s">
-        <v>1275</v>
+        <v>1287</v>
       </c>
       <c r="F15" s="162" t="s">
-        <v>1276</v>
+        <v>1288</v>
       </c>
       <c r="G15" s="162" t="s">
-        <v>1277</v>
+        <v>1289</v>
       </c>
       <c r="H15" s="162" t="s">
-        <v>1278</v>
+        <v>1290</v>
       </c>
       <c r="I15" s="162" t="s">
-        <v>1279</v>
+        <v>1291</v>
       </c>
       <c r="J15" s="162" t="s">
-        <v>1280</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39060,16 +39096,16 @@
         <v>1038</v>
       </c>
       <c r="B17" s="162" t="s">
-        <v>1281</v>
+        <v>1293</v>
       </c>
       <c r="C17" s="162" t="s">
-        <v>1282</v>
+        <v>1294</v>
       </c>
       <c r="D17" s="162" t="s">
-        <v>1283</v>
+        <v>1295</v>
       </c>
       <c r="E17" s="162" t="s">
-        <v>1284</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39103,16 +39139,16 @@
         <v>1037</v>
       </c>
       <c r="B19" s="162" t="s">
-        <v>1285</v>
+        <v>1297</v>
       </c>
       <c r="C19" s="162" t="s">
-        <v>1286</v>
+        <v>1298</v>
       </c>
       <c r="D19" s="162" t="s">
-        <v>1287</v>
+        <v>1299</v>
       </c>
       <c r="E19" s="162" t="s">
-        <v>1288</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39146,10 +39182,10 @@
         <v>1041</v>
       </c>
       <c r="B21" s="162" t="s">
-        <v>1289</v>
+        <v>1301</v>
       </c>
       <c r="C21" s="162" t="s">
-        <v>1290</v>
+        <v>1302</v>
       </c>
       <c r="R21" s="162"/>
     </row>
@@ -39177,10 +39213,10 @@
         <v>1040</v>
       </c>
       <c r="B23" s="162" t="s">
-        <v>1291</v>
+        <v>1303</v>
       </c>
       <c r="C23" s="162" t="s">
-        <v>1292</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39206,34 +39242,34 @@
         <v>1044</v>
       </c>
       <c r="B25" s="162" t="s">
-        <v>1293</v>
+        <v>1305</v>
       </c>
       <c r="C25" s="162" t="s">
-        <v>1294</v>
+        <v>1306</v>
       </c>
       <c r="D25" s="162" t="s">
-        <v>1295</v>
+        <v>1307</v>
       </c>
       <c r="E25" s="162" t="s">
-        <v>1296</v>
+        <v>1308</v>
       </c>
       <c r="F25" s="162" t="s">
-        <v>1297</v>
+        <v>1309</v>
       </c>
       <c r="G25" s="162" t="s">
-        <v>1298</v>
+        <v>1310</v>
       </c>
       <c r="H25" s="162" t="s">
-        <v>1299</v>
+        <v>1311</v>
       </c>
       <c r="I25" s="162" t="s">
-        <v>1300</v>
+        <v>1312</v>
       </c>
       <c r="J25" s="162" t="s">
-        <v>1301</v>
+        <v>1313</v>
       </c>
       <c r="K25" s="162" t="s">
-        <v>1302</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39291,34 +39327,34 @@
         <v>1044</v>
       </c>
       <c r="B27" s="162" t="s">
-        <v>1303</v>
+        <v>1315</v>
       </c>
       <c r="C27" s="162" t="s">
-        <v>1304</v>
+        <v>1316</v>
       </c>
       <c r="D27" s="162" t="s">
-        <v>1305</v>
+        <v>1317</v>
       </c>
       <c r="E27" s="162" t="s">
-        <v>1306</v>
+        <v>1318</v>
       </c>
       <c r="F27" s="162" t="s">
-        <v>1307</v>
+        <v>1319</v>
       </c>
       <c r="G27" s="162" t="s">
-        <v>1308</v>
+        <v>1320</v>
       </c>
       <c r="H27" s="162" t="s">
-        <v>1309</v>
+        <v>1321</v>
       </c>
       <c r="I27" s="162" t="s">
-        <v>1310</v>
+        <v>1322</v>
       </c>
       <c r="J27" s="162" t="s">
-        <v>1311</v>
+        <v>1323</v>
       </c>
       <c r="K27" s="162" t="s">
-        <v>1312</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39376,7 +39412,7 @@
         <v>1047</v>
       </c>
       <c r="B29" s="162" t="s">
-        <v>1313</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39398,7 +39434,7 @@
         <v>1046</v>
       </c>
       <c r="B31" s="162" t="s">
-        <v>1314</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39420,7 +39456,7 @@
         <v>1050</v>
       </c>
       <c r="B33" s="162" t="s">
-        <v>1315</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39442,10 +39478,10 @@
         <v>1049</v>
       </c>
       <c r="B35" s="162" t="s">
-        <v>1316</v>
+        <v>1328</v>
       </c>
       <c r="C35" s="162" t="s">
-        <v>1317</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39471,19 +39507,19 @@
         <v>1053</v>
       </c>
       <c r="B37" s="162" t="s">
-        <v>1318</v>
+        <v>1330</v>
       </c>
       <c r="C37" s="162" t="s">
-        <v>1319</v>
+        <v>1331</v>
       </c>
       <c r="D37" s="162" t="s">
-        <v>1320</v>
+        <v>1332</v>
       </c>
       <c r="E37" s="162" t="s">
-        <v>1321</v>
+        <v>1333</v>
       </c>
       <c r="F37" s="162" t="s">
-        <v>1322</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39521,19 +39557,19 @@
         <v>1052</v>
       </c>
       <c r="B39" s="162" t="s">
-        <v>1323</v>
+        <v>1335</v>
       </c>
       <c r="C39" s="162" t="s">
-        <v>1324</v>
+        <v>1336</v>
       </c>
       <c r="D39" s="162" t="s">
-        <v>1325</v>
+        <v>1337</v>
       </c>
       <c r="E39" s="162" t="s">
-        <v>1326</v>
+        <v>1338</v>
       </c>
       <c r="F39" s="162" t="s">
-        <v>1327</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39568,22 +39604,22 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="161" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="B41" s="162" t="s">
-        <v>1328</v>
+        <v>1340</v>
       </c>
       <c r="C41" s="162" t="s">
-        <v>1329</v>
+        <v>1341</v>
       </c>
       <c r="D41" s="162" t="s">
-        <v>1330</v>
+        <v>1342</v>
       </c>
       <c r="E41" s="162" t="s">
-        <v>1331</v>
+        <v>1343</v>
       </c>
       <c r="F41" s="162" t="s">
-        <v>1332</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39618,25 +39654,25 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="161" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="B43" s="162" t="s">
-        <v>1333</v>
+        <v>1345</v>
       </c>
       <c r="C43" s="162" t="s">
-        <v>1334</v>
+        <v>1346</v>
       </c>
       <c r="D43" s="162" t="s">
-        <v>1335</v>
+        <v>1347</v>
       </c>
       <c r="E43" s="162" t="s">
-        <v>1336</v>
+        <v>1348</v>
       </c>
       <c r="F43" s="162" t="s">
-        <v>1337</v>
+        <v>1349</v>
       </c>
       <c r="G43" s="162" t="s">
-        <v>1338</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39675,37 +39711,37 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="161" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="B45" s="162" t="s">
-        <v>1339</v>
+        <v>1351</v>
       </c>
       <c r="C45" s="162" t="s">
-        <v>1340</v>
+        <v>1352</v>
       </c>
       <c r="D45" s="162" t="s">
-        <v>1341</v>
+        <v>1353</v>
       </c>
       <c r="E45" s="162" t="s">
-        <v>1342</v>
+        <v>1354</v>
       </c>
       <c r="F45" s="162" t="s">
-        <v>1343</v>
+        <v>1355</v>
       </c>
       <c r="G45" s="162" t="s">
-        <v>1344</v>
+        <v>1356</v>
       </c>
       <c r="H45" s="162" t="s">
-        <v>1345</v>
+        <v>1357</v>
       </c>
       <c r="I45" s="162" t="s">
-        <v>1346</v>
+        <v>1358</v>
       </c>
       <c r="J45" s="162" t="s">
-        <v>1347</v>
+        <v>1359</v>
       </c>
       <c r="K45" s="162" t="s">
-        <v>1348</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39760,37 +39796,37 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="161" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="B47" s="162" t="s">
-        <v>1349</v>
+        <v>1361</v>
       </c>
       <c r="C47" s="162" t="s">
-        <v>1350</v>
+        <v>1362</v>
       </c>
       <c r="D47" s="162" t="s">
-        <v>1351</v>
+        <v>1363</v>
       </c>
       <c r="E47" s="162" t="s">
-        <v>1352</v>
+        <v>1364</v>
       </c>
       <c r="F47" s="162" t="s">
-        <v>1353</v>
+        <v>1365</v>
       </c>
       <c r="G47" s="162" t="s">
-        <v>1354</v>
+        <v>1366</v>
       </c>
       <c r="H47" s="162" t="s">
-        <v>1355</v>
+        <v>1367</v>
       </c>
       <c r="I47" s="162" t="s">
-        <v>1356</v>
+        <v>1368</v>
       </c>
       <c r="J47" s="162" t="s">
-        <v>1357</v>
+        <v>1369</v>
       </c>
       <c r="K47" s="162" t="s">
-        <v>1358</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39845,16 +39881,16 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="161" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="B49" s="162" t="s">
-        <v>1359</v>
+        <v>1371</v>
       </c>
       <c r="C49" s="162" t="s">
-        <v>1360</v>
+        <v>1372</v>
       </c>
       <c r="D49" s="162" t="s">
-        <v>1361</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39881,16 +39917,16 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="161" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="B51" s="162" t="s">
-        <v>1362</v>
+        <v>1374</v>
       </c>
       <c r="C51" s="162" t="s">
-        <v>1363</v>
+        <v>1375</v>
       </c>
       <c r="D51" s="162" t="s">
-        <v>1364</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39917,22 +39953,22 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="161" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="B53" s="162" t="s">
-        <v>1365</v>
+        <v>1377</v>
       </c>
       <c r="C53" s="162" t="s">
-        <v>1366</v>
+        <v>1378</v>
       </c>
       <c r="D53" s="162" t="s">
-        <v>1367</v>
+        <v>1379</v>
       </c>
       <c r="E53" s="162" t="s">
-        <v>1368</v>
+        <v>1380</v>
       </c>
       <c r="F53" s="162" t="s">
-        <v>1369</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39967,22 +40003,22 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="161" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="B55" s="162" t="s">
-        <v>1370</v>
+        <v>1382</v>
       </c>
       <c r="C55" s="162" t="s">
-        <v>1371</v>
+        <v>1383</v>
       </c>
       <c r="D55" s="162" t="s">
-        <v>1372</v>
+        <v>1384</v>
       </c>
       <c r="E55" s="162" t="s">
-        <v>1373</v>
+        <v>1385</v>
       </c>
       <c r="F55" s="162" t="s">
-        <v>1374</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40017,19 +40053,19 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="161" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="B57" s="162" t="s">
-        <v>1375</v>
+        <v>1387</v>
       </c>
       <c r="C57" s="162" t="s">
-        <v>1376</v>
+        <v>1388</v>
       </c>
       <c r="D57" s="162" t="s">
-        <v>1377</v>
+        <v>1389</v>
       </c>
       <c r="E57" s="162" t="s">
-        <v>1378</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40060,19 +40096,19 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="161" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="B59" s="162" t="s">
-        <v>1379</v>
+        <v>1391</v>
       </c>
       <c r="C59" s="162" t="s">
-        <v>1380</v>
+        <v>1392</v>
       </c>
       <c r="D59" s="162" t="s">
-        <v>1381</v>
+        <v>1393</v>
       </c>
       <c r="E59" s="162" t="s">
-        <v>1382</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40103,37 +40139,37 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="161" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="B61" s="162" t="s">
-        <v>1383</v>
+        <v>1395</v>
       </c>
       <c r="C61" s="162" t="s">
-        <v>1384</v>
+        <v>1396</v>
       </c>
       <c r="D61" s="162" t="s">
-        <v>1385</v>
+        <v>1397</v>
       </c>
       <c r="E61" s="162" t="s">
-        <v>1386</v>
+        <v>1398</v>
       </c>
       <c r="F61" s="162" t="s">
-        <v>1387</v>
+        <v>1399</v>
       </c>
       <c r="G61" s="162" t="s">
-        <v>1388</v>
+        <v>1400</v>
       </c>
       <c r="H61" s="162" t="s">
-        <v>1389</v>
+        <v>1401</v>
       </c>
       <c r="I61" s="162" t="s">
-        <v>1390</v>
+        <v>1402</v>
       </c>
       <c r="J61" s="162" t="s">
-        <v>1391</v>
+        <v>1403</v>
       </c>
       <c r="K61" s="162" t="s">
-        <v>1392</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40188,37 +40224,37 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="161" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="B63" s="162" t="s">
-        <v>1393</v>
+        <v>1405</v>
       </c>
       <c r="C63" s="162" t="s">
-        <v>1394</v>
+        <v>1406</v>
       </c>
       <c r="D63" s="162" t="s">
-        <v>1395</v>
+        <v>1407</v>
       </c>
       <c r="E63" s="162" t="s">
-        <v>1396</v>
+        <v>1408</v>
       </c>
       <c r="F63" s="162" t="s">
-        <v>1397</v>
+        <v>1409</v>
       </c>
       <c r="G63" s="162" t="s">
-        <v>1398</v>
+        <v>1410</v>
       </c>
       <c r="H63" s="162" t="s">
-        <v>1399</v>
+        <v>1411</v>
       </c>
       <c r="I63" s="162" t="s">
-        <v>1400</v>
+        <v>1412</v>
       </c>
       <c r="J63" s="162" t="s">
-        <v>1401</v>
+        <v>1413</v>
       </c>
       <c r="K63" s="162" t="s">
-        <v>1402</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40273,10 +40309,10 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="161" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="B65" s="162" t="s">
-        <v>1403</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40295,10 +40331,10 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="161" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="B67" s="162" t="s">
-        <v>1404</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40317,16 +40353,16 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="161" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="B69" s="162" t="s">
-        <v>1405</v>
+        <v>1417</v>
       </c>
       <c r="C69" s="162" t="s">
-        <v>1406</v>
+        <v>1418</v>
       </c>
       <c r="D69" s="162" t="s">
-        <v>1407</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40353,16 +40389,16 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="161" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="B71" s="162" t="s">
-        <v>1408</v>
+        <v>1420</v>
       </c>
       <c r="C71" s="162" t="s">
-        <v>1409</v>
+        <v>1421</v>
       </c>
       <c r="D71" s="162" t="s">
-        <v>1410</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40389,16 +40425,16 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="161" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="B73" s="162" t="s">
-        <v>1411</v>
+        <v>1423</v>
       </c>
       <c r="C73" s="162" t="s">
-        <v>1412</v>
+        <v>1424</v>
       </c>
       <c r="D73" s="162" t="s">
-        <v>1413</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40425,16 +40461,16 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="161" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="B75" s="162" t="s">
-        <v>1414</v>
+        <v>1426</v>
       </c>
       <c r="C75" s="162" t="s">
-        <v>1415</v>
+        <v>1427</v>
       </c>
       <c r="D75" s="162" t="s">
-        <v>1416</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
